--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>['7', '33', '45+1']</t>
+  </si>
+  <si>
+    <t>['59', '61', '90+1']</t>
   </si>
   <si>
     <t>['45+8']</t>
@@ -735,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +997,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1612,7 +1615,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1818,7 +1821,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2024,7 +2027,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2230,7 +2233,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2436,7 +2439,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2848,7 +2851,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3260,7 +3263,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3466,7 +3469,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3878,7 +3881,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4084,7 +4087,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4290,7 +4293,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4908,7 +4911,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5320,7 +5323,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5938,7 +5941,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6144,7 +6147,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6301,6 +6304,212 @@
       </c>
       <c r="BP27">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7778982</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45766.41666666666</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q28">
+        <v>2.15</v>
+      </c>
+      <c r="R28">
+        <v>2.25</v>
+      </c>
+      <c r="S28">
+        <v>4.6</v>
+      </c>
+      <c r="T28">
+        <v>1.33</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>2.55</v>
+      </c>
+      <c r="W28">
+        <v>1.46</v>
+      </c>
+      <c r="X28">
+        <v>6.25</v>
+      </c>
+      <c r="Y28">
+        <v>1.1</v>
+      </c>
+      <c r="Z28">
+        <v>1.61</v>
+      </c>
+      <c r="AA28">
+        <v>4</v>
+      </c>
+      <c r="AB28">
+        <v>5</v>
+      </c>
+      <c r="AC28">
+        <v>1.05</v>
+      </c>
+      <c r="AD28">
+        <v>10</v>
+      </c>
+      <c r="AE28">
+        <v>1.25</v>
+      </c>
+      <c r="AF28">
+        <v>3.95</v>
+      </c>
+      <c r="AG28">
+        <v>1.7</v>
+      </c>
+      <c r="AH28">
+        <v>1.95</v>
+      </c>
+      <c r="AI28">
+        <v>1.78</v>
+      </c>
+      <c r="AJ28">
+        <v>1.9</v>
+      </c>
+      <c r="AK28">
+        <v>1.18</v>
+      </c>
+      <c r="AL28">
+        <v>1.23</v>
+      </c>
+      <c r="AM28">
+        <v>2.2</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>3</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>1.64</v>
+      </c>
+      <c r="AS28">
+        <v>0.54</v>
+      </c>
+      <c r="AT28">
+        <v>2.18</v>
+      </c>
+      <c r="AU28">
+        <v>6</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>11</v>
+      </c>
+      <c r="AX28">
+        <v>6</v>
+      </c>
+      <c r="AY28">
+        <v>19</v>
+      </c>
+      <c r="AZ28">
+        <v>9</v>
+      </c>
+      <c r="BA28">
+        <v>8</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
+        <v>11</v>
+      </c>
+      <c r="BD28">
+        <v>1.54</v>
+      </c>
+      <c r="BE28">
+        <v>7</v>
+      </c>
+      <c r="BF28">
+        <v>2.7</v>
+      </c>
+      <c r="BG28">
+        <v>1.24</v>
+      </c>
+      <c r="BH28">
+        <v>3.55</v>
+      </c>
+      <c r="BI28">
+        <v>1.44</v>
+      </c>
+      <c r="BJ28">
+        <v>2.55</v>
+      </c>
+      <c r="BK28">
+        <v>1.71</v>
+      </c>
+      <c r="BL28">
+        <v>2</v>
+      </c>
+      <c r="BM28">
+        <v>2.08</v>
+      </c>
+      <c r="BN28">
+        <v>1.65</v>
+      </c>
+      <c r="BO28">
+        <v>2.65</v>
+      </c>
+      <c r="BP28">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,12 @@
     <t>['59', '61', '90+1']</t>
   </si>
   <si>
+    <t>['27', '50', '90+1']</t>
+  </si>
+  <si>
+    <t>['38', '45']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -377,6 +383,18 @@
   </si>
   <si>
     <t>['17']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['66', '83']</t>
+  </si>
+  <si>
+    <t>['23', '45+2', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -738,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1015,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1615,7 +1633,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1821,7 +1839,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2027,7 +2045,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2233,7 +2251,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2439,7 +2457,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2723,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2851,7 +2869,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3135,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3263,7 +3281,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3469,7 +3487,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3547,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3753,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3881,7 +3899,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4087,7 +4105,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4168,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4293,7 +4311,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4911,7 +4929,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5323,7 +5341,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5941,7 +5959,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6147,7 +6165,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6510,6 +6528,830 @@
       </c>
       <c r="BP28">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7778983</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45766.41666666666</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>2.15</v>
+      </c>
+      <c r="S29">
+        <v>2.45</v>
+      </c>
+      <c r="T29">
+        <v>1.36</v>
+      </c>
+      <c r="U29">
+        <v>2.9</v>
+      </c>
+      <c r="V29">
+        <v>2.65</v>
+      </c>
+      <c r="W29">
+        <v>1.41</v>
+      </c>
+      <c r="X29">
+        <v>6.75</v>
+      </c>
+      <c r="Y29">
+        <v>1.09</v>
+      </c>
+      <c r="Z29">
+        <v>3.86</v>
+      </c>
+      <c r="AA29">
+        <v>3.71</v>
+      </c>
+      <c r="AB29">
+        <v>1.85</v>
+      </c>
+      <c r="AC29">
+        <v>1.05</v>
+      </c>
+      <c r="AD29">
+        <v>10</v>
+      </c>
+      <c r="AE29">
+        <v>1.28</v>
+      </c>
+      <c r="AF29">
+        <v>3.8</v>
+      </c>
+      <c r="AG29">
+        <v>1.82</v>
+      </c>
+      <c r="AH29">
+        <v>1.92</v>
+      </c>
+      <c r="AI29">
+        <v>1.75</v>
+      </c>
+      <c r="AJ29">
+        <v>1.95</v>
+      </c>
+      <c r="AK29">
+        <v>1.85</v>
+      </c>
+      <c r="AL29">
+        <v>1.26</v>
+      </c>
+      <c r="AM29">
+        <v>1.26</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>1.5</v>
+      </c>
+      <c r="AQ29">
+        <v>1.5</v>
+      </c>
+      <c r="AR29">
+        <v>1.15</v>
+      </c>
+      <c r="AS29">
+        <v>0.84</v>
+      </c>
+      <c r="AT29">
+        <v>1.99</v>
+      </c>
+      <c r="AU29">
+        <v>4</v>
+      </c>
+      <c r="AV29">
+        <v>4</v>
+      </c>
+      <c r="AW29">
+        <v>13</v>
+      </c>
+      <c r="AX29">
+        <v>10</v>
+      </c>
+      <c r="AY29">
+        <v>20</v>
+      </c>
+      <c r="AZ29">
+        <v>18</v>
+      </c>
+      <c r="BA29">
+        <v>5</v>
+      </c>
+      <c r="BB29">
+        <v>5</v>
+      </c>
+      <c r="BC29">
+        <v>10</v>
+      </c>
+      <c r="BD29">
+        <v>2.1</v>
+      </c>
+      <c r="BE29">
+        <v>6.75</v>
+      </c>
+      <c r="BF29">
+        <v>1.85</v>
+      </c>
+      <c r="BG29">
+        <v>1.24</v>
+      </c>
+      <c r="BH29">
+        <v>3.55</v>
+      </c>
+      <c r="BI29">
+        <v>1.43</v>
+      </c>
+      <c r="BJ29">
+        <v>2.6</v>
+      </c>
+      <c r="BK29">
+        <v>1.7</v>
+      </c>
+      <c r="BL29">
+        <v>2</v>
+      </c>
+      <c r="BM29">
+        <v>2.07</v>
+      </c>
+      <c r="BN29">
+        <v>1.66</v>
+      </c>
+      <c r="BO29">
+        <v>2.63</v>
+      </c>
+      <c r="BP29">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7778979</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45767.375</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>86</v>
+      </c>
+      <c r="P30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30">
+        <v>3.4</v>
+      </c>
+      <c r="R30">
+        <v>2.1</v>
+      </c>
+      <c r="S30">
+        <v>2.88</v>
+      </c>
+      <c r="T30">
+        <v>1.4</v>
+      </c>
+      <c r="U30">
+        <v>2.75</v>
+      </c>
+      <c r="V30">
+        <v>2.88</v>
+      </c>
+      <c r="W30">
+        <v>1.36</v>
+      </c>
+      <c r="X30">
+        <v>7.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.03</v>
+      </c>
+      <c r="Z30">
+        <v>2.94</v>
+      </c>
+      <c r="AA30">
+        <v>3.45</v>
+      </c>
+      <c r="AB30">
+        <v>2.28</v>
+      </c>
+      <c r="AC30">
+        <v>1.06</v>
+      </c>
+      <c r="AD30">
+        <v>9.5</v>
+      </c>
+      <c r="AE30">
+        <v>1.33</v>
+      </c>
+      <c r="AF30">
+        <v>3.35</v>
+      </c>
+      <c r="AG30">
+        <v>1.98</v>
+      </c>
+      <c r="AH30">
+        <v>1.77</v>
+      </c>
+      <c r="AI30">
+        <v>1.75</v>
+      </c>
+      <c r="AJ30">
+        <v>1.93</v>
+      </c>
+      <c r="AK30">
+        <v>1.6</v>
+      </c>
+      <c r="AL30">
+        <v>1.25</v>
+      </c>
+      <c r="AM30">
+        <v>1.38</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>1.5</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>1.48</v>
+      </c>
+      <c r="AS30">
+        <v>0.85</v>
+      </c>
+      <c r="AT30">
+        <v>2.33</v>
+      </c>
+      <c r="AU30">
+        <v>4</v>
+      </c>
+      <c r="AV30">
+        <v>4</v>
+      </c>
+      <c r="AW30">
+        <v>6</v>
+      </c>
+      <c r="AX30">
+        <v>9</v>
+      </c>
+      <c r="AY30">
+        <v>11</v>
+      </c>
+      <c r="AZ30">
+        <v>16</v>
+      </c>
+      <c r="BA30">
+        <v>10</v>
+      </c>
+      <c r="BB30">
+        <v>5</v>
+      </c>
+      <c r="BC30">
+        <v>15</v>
+      </c>
+      <c r="BD30">
+        <v>2.08</v>
+      </c>
+      <c r="BE30">
+        <v>7</v>
+      </c>
+      <c r="BF30">
+        <v>1.85</v>
+      </c>
+      <c r="BG30">
+        <v>1.19</v>
+      </c>
+      <c r="BH30">
+        <v>4.1</v>
+      </c>
+      <c r="BI30">
+        <v>1.32</v>
+      </c>
+      <c r="BJ30">
+        <v>3.05</v>
+      </c>
+      <c r="BK30">
+        <v>1.54</v>
+      </c>
+      <c r="BL30">
+        <v>2.3</v>
+      </c>
+      <c r="BM30">
+        <v>1.84</v>
+      </c>
+      <c r="BN30">
+        <v>1.84</v>
+      </c>
+      <c r="BO30">
+        <v>2.28</v>
+      </c>
+      <c r="BP30">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7778977</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45767.375</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31" t="s">
+        <v>105</v>
+      </c>
+      <c r="P31" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q31">
+        <v>2.88</v>
+      </c>
+      <c r="R31">
+        <v>2.1</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>1.4</v>
+      </c>
+      <c r="U31">
+        <v>2.75</v>
+      </c>
+      <c r="V31">
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>1.36</v>
+      </c>
+      <c r="X31">
+        <v>9</v>
+      </c>
+      <c r="Y31">
+        <v>1.07</v>
+      </c>
+      <c r="Z31">
+        <v>2.13</v>
+      </c>
+      <c r="AA31">
+        <v>3.23</v>
+      </c>
+      <c r="AB31">
+        <v>3.45</v>
+      </c>
+      <c r="AC31">
+        <v>1.07</v>
+      </c>
+      <c r="AD31">
+        <v>8.5</v>
+      </c>
+      <c r="AE31">
+        <v>1.33</v>
+      </c>
+      <c r="AF31">
+        <v>3.3</v>
+      </c>
+      <c r="AG31">
+        <v>1.98</v>
+      </c>
+      <c r="AH31">
+        <v>1.77</v>
+      </c>
+      <c r="AI31">
+        <v>1.8</v>
+      </c>
+      <c r="AJ31">
+        <v>1.95</v>
+      </c>
+      <c r="AK31">
+        <v>1.33</v>
+      </c>
+      <c r="AL31">
+        <v>1.28</v>
+      </c>
+      <c r="AM31">
+        <v>1.65</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>1.5</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1.47</v>
+      </c>
+      <c r="AS31">
+        <v>1.65</v>
+      </c>
+      <c r="AT31">
+        <v>3.12</v>
+      </c>
+      <c r="AU31">
+        <v>9</v>
+      </c>
+      <c r="AV31">
+        <v>6</v>
+      </c>
+      <c r="AW31">
+        <v>10</v>
+      </c>
+      <c r="AX31">
+        <v>13</v>
+      </c>
+      <c r="AY31">
+        <v>22</v>
+      </c>
+      <c r="AZ31">
+        <v>20</v>
+      </c>
+      <c r="BA31">
+        <v>11</v>
+      </c>
+      <c r="BB31">
+        <v>6</v>
+      </c>
+      <c r="BC31">
+        <v>17</v>
+      </c>
+      <c r="BD31">
+        <v>1.85</v>
+      </c>
+      <c r="BE31">
+        <v>6.75</v>
+      </c>
+      <c r="BF31">
+        <v>2.1</v>
+      </c>
+      <c r="BG31">
+        <v>1.21</v>
+      </c>
+      <c r="BH31">
+        <v>3.9</v>
+      </c>
+      <c r="BI31">
+        <v>1.36</v>
+      </c>
+      <c r="BJ31">
+        <v>2.85</v>
+      </c>
+      <c r="BK31">
+        <v>1.58</v>
+      </c>
+      <c r="BL31">
+        <v>2.18</v>
+      </c>
+      <c r="BM31">
+        <v>1.95</v>
+      </c>
+      <c r="BN31">
+        <v>1.76</v>
+      </c>
+      <c r="BO31">
+        <v>2.4</v>
+      </c>
+      <c r="BP31">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7778978</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45767.47916666666</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32" t="s">
+        <v>106</v>
+      </c>
+      <c r="P32" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q32">
+        <v>2.88</v>
+      </c>
+      <c r="R32">
+        <v>2.3</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>1.28</v>
+      </c>
+      <c r="U32">
+        <v>3.3</v>
+      </c>
+      <c r="V32">
+        <v>2.3</v>
+      </c>
+      <c r="W32">
+        <v>1.55</v>
+      </c>
+      <c r="X32">
+        <v>5.6</v>
+      </c>
+      <c r="Y32">
+        <v>1.08</v>
+      </c>
+      <c r="Z32">
+        <v>2.42</v>
+      </c>
+      <c r="AA32">
+        <v>3.72</v>
+      </c>
+      <c r="AB32">
+        <v>2.58</v>
+      </c>
+      <c r="AC32">
+        <v>1.04</v>
+      </c>
+      <c r="AD32">
+        <v>11</v>
+      </c>
+      <c r="AE32">
+        <v>1.2</v>
+      </c>
+      <c r="AF32">
+        <v>4.5</v>
+      </c>
+      <c r="AG32">
+        <v>1.55</v>
+      </c>
+      <c r="AH32">
+        <v>2.2</v>
+      </c>
+      <c r="AI32">
+        <v>1.48</v>
+      </c>
+      <c r="AJ32">
+        <v>2.4</v>
+      </c>
+      <c r="AK32">
+        <v>1.48</v>
+      </c>
+      <c r="AL32">
+        <v>1.22</v>
+      </c>
+      <c r="AM32">
+        <v>1.53</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>1.5</v>
+      </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
+      <c r="AR32">
+        <v>1.43</v>
+      </c>
+      <c r="AS32">
+        <v>1.85</v>
+      </c>
+      <c r="AT32">
+        <v>3.28</v>
+      </c>
+      <c r="AU32">
+        <v>8</v>
+      </c>
+      <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
+        <v>9</v>
+      </c>
+      <c r="AX32">
+        <v>4</v>
+      </c>
+      <c r="AY32">
+        <v>18</v>
+      </c>
+      <c r="AZ32">
+        <v>10</v>
+      </c>
+      <c r="BA32">
+        <v>11</v>
+      </c>
+      <c r="BB32">
+        <v>5</v>
+      </c>
+      <c r="BC32">
+        <v>16</v>
+      </c>
+      <c r="BD32">
+        <v>1.72</v>
+      </c>
+      <c r="BE32">
+        <v>7</v>
+      </c>
+      <c r="BF32">
+        <v>2.3</v>
+      </c>
+      <c r="BG32">
+        <v>1.14</v>
+      </c>
+      <c r="BH32">
+        <v>4.8</v>
+      </c>
+      <c r="BI32">
+        <v>1.26</v>
+      </c>
+      <c r="BJ32">
+        <v>3.4</v>
+      </c>
+      <c r="BK32">
+        <v>1.44</v>
+      </c>
+      <c r="BL32">
+        <v>2.55</v>
+      </c>
+      <c r="BM32">
+        <v>1.7</v>
+      </c>
+      <c r="BN32">
+        <v>2.02</v>
+      </c>
+      <c r="BO32">
+        <v>2.05</v>
+      </c>
+      <c r="BP32">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -756,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -7352,6 +7352,212 @@
       </c>
       <c r="BP32">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7778976</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45768.375</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q33">
+        <v>2.4</v>
+      </c>
+      <c r="R33">
+        <v>2.2</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>1.4</v>
+      </c>
+      <c r="U33">
+        <v>2.75</v>
+      </c>
+      <c r="V33">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>1.36</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>1.08</v>
+      </c>
+      <c r="Z33">
+        <v>1.77</v>
+      </c>
+      <c r="AA33">
+        <v>3.57</v>
+      </c>
+      <c r="AB33">
+        <v>4.5</v>
+      </c>
+      <c r="AC33">
+        <v>1.06</v>
+      </c>
+      <c r="AD33">
+        <v>9</v>
+      </c>
+      <c r="AE33">
+        <v>1.33</v>
+      </c>
+      <c r="AF33">
+        <v>3.3</v>
+      </c>
+      <c r="AG33">
+        <v>1.98</v>
+      </c>
+      <c r="AH33">
+        <v>1.77</v>
+      </c>
+      <c r="AI33">
+        <v>1.91</v>
+      </c>
+      <c r="AJ33">
+        <v>1.91</v>
+      </c>
+      <c r="AK33">
+        <v>1.22</v>
+      </c>
+      <c r="AL33">
+        <v>1.25</v>
+      </c>
+      <c r="AM33">
+        <v>1.83</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>0.5</v>
+      </c>
+      <c r="AQ33">
+        <v>1</v>
+      </c>
+      <c r="AR33">
+        <v>1.7</v>
+      </c>
+      <c r="AS33">
+        <v>1.15</v>
+      </c>
+      <c r="AT33">
+        <v>2.85</v>
+      </c>
+      <c r="AU33">
+        <v>2</v>
+      </c>
+      <c r="AV33">
+        <v>2</v>
+      </c>
+      <c r="AW33">
+        <v>7</v>
+      </c>
+      <c r="AX33">
+        <v>6</v>
+      </c>
+      <c r="AY33">
+        <v>9</v>
+      </c>
+      <c r="AZ33">
+        <v>8</v>
+      </c>
+      <c r="BA33">
+        <v>6</v>
+      </c>
+      <c r="BB33">
+        <v>3</v>
+      </c>
+      <c r="BC33">
+        <v>9</v>
+      </c>
+      <c r="BD33">
+        <v>1.57</v>
+      </c>
+      <c r="BE33">
+        <v>8.5</v>
+      </c>
+      <c r="BF33">
+        <v>2.7</v>
+      </c>
+      <c r="BG33">
+        <v>1.14</v>
+      </c>
+      <c r="BH33">
+        <v>4.45</v>
+      </c>
+      <c r="BI33">
+        <v>1.29</v>
+      </c>
+      <c r="BJ33">
+        <v>3.04</v>
+      </c>
+      <c r="BK33">
+        <v>1.55</v>
+      </c>
+      <c r="BL33">
+        <v>2.23</v>
+      </c>
+      <c r="BM33">
+        <v>1.85</v>
+      </c>
+      <c r="BN33">
+        <v>1.83</v>
+      </c>
+      <c r="BO33">
+        <v>2.48</v>
+      </c>
+      <c r="BP33">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -7512,13 +7512,13 @@
         <v>8</v>
       </c>
       <c r="BA33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB33">
         <v>3</v>
       </c>
       <c r="BC33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD33">
         <v>1.57</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,18 @@
     <t>['38', '45']</t>
   </si>
   <si>
+    <t>['74', '85']</t>
+  </si>
+  <si>
+    <t>['11', '37', '68', '86']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['56', '81', '84']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -395,6 +407,15 @@
   </si>
   <si>
     <t>['23', '45+2', '90+7']</t>
+  </si>
+  <si>
+    <t>['30', '55', '64']</t>
+  </si>
+  <si>
+    <t>['24', '54', '73']</t>
+  </si>
+  <si>
+    <t>['36', '63', '64', '73']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1015,7 +1036,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1096,7 +1117,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1299,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>1.5</v>
@@ -1633,7 +1654,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1711,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1839,7 +1860,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2045,7 +2066,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2123,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2251,7 +2272,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2332,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2457,7 +2478,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2869,7 +2890,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3281,7 +3302,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3487,7 +3508,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3899,7 +3920,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4105,7 +4126,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4311,7 +4332,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4389,10 +4410,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>2.05</v>
@@ -4595,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4929,7 +4950,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5216,7 +5237,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5341,7 +5362,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5625,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -5834,7 +5855,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -5959,7 +5980,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6040,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>2.77</v>
@@ -6165,7 +6186,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6577,7 +6598,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6783,7 +6804,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>3.4</v>
@@ -6989,7 +7010,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7195,7 +7216,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7558,6 +7579,830 @@
       </c>
       <c r="BP33">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7778985</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45770.58333333334</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>107</v>
+      </c>
+      <c r="P34" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q34">
+        <v>3.2</v>
+      </c>
+      <c r="R34">
+        <v>2.1</v>
+      </c>
+      <c r="S34">
+        <v>3.4</v>
+      </c>
+      <c r="T34">
+        <v>1.4</v>
+      </c>
+      <c r="U34">
+        <v>2.75</v>
+      </c>
+      <c r="V34">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>1.36</v>
+      </c>
+      <c r="X34">
+        <v>8</v>
+      </c>
+      <c r="Y34">
+        <v>1.08</v>
+      </c>
+      <c r="Z34">
+        <v>2.6</v>
+      </c>
+      <c r="AA34">
+        <v>3.32</v>
+      </c>
+      <c r="AB34">
+        <v>2.6</v>
+      </c>
+      <c r="AC34">
+        <v>1.06</v>
+      </c>
+      <c r="AD34">
+        <v>9.5</v>
+      </c>
+      <c r="AE34">
+        <v>1.3</v>
+      </c>
+      <c r="AF34">
+        <v>3.55</v>
+      </c>
+      <c r="AG34">
+        <v>1.85</v>
+      </c>
+      <c r="AH34">
+        <v>1.89</v>
+      </c>
+      <c r="AI34">
+        <v>1.75</v>
+      </c>
+      <c r="AJ34">
+        <v>2</v>
+      </c>
+      <c r="AK34">
+        <v>1.42</v>
+      </c>
+      <c r="AL34">
+        <v>1.25</v>
+      </c>
+      <c r="AM34">
+        <v>1.53</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>2</v>
+      </c>
+      <c r="AP34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
+        <v>1.33</v>
+      </c>
+      <c r="AR34">
+        <v>1.98</v>
+      </c>
+      <c r="AS34">
+        <v>1.04</v>
+      </c>
+      <c r="AT34">
+        <v>3.02</v>
+      </c>
+      <c r="AU34">
+        <v>6</v>
+      </c>
+      <c r="AV34">
+        <v>4</v>
+      </c>
+      <c r="AW34">
+        <v>9</v>
+      </c>
+      <c r="AX34">
+        <v>4</v>
+      </c>
+      <c r="AY34">
+        <v>15</v>
+      </c>
+      <c r="AZ34">
+        <v>8</v>
+      </c>
+      <c r="BA34">
+        <v>4</v>
+      </c>
+      <c r="BB34">
+        <v>3</v>
+      </c>
+      <c r="BC34">
+        <v>7</v>
+      </c>
+      <c r="BD34">
+        <v>2.01</v>
+      </c>
+      <c r="BE34">
+        <v>6.8</v>
+      </c>
+      <c r="BF34">
+        <v>2.23</v>
+      </c>
+      <c r="BG34">
+        <v>1.11</v>
+      </c>
+      <c r="BH34">
+        <v>4.85</v>
+      </c>
+      <c r="BI34">
+        <v>1.25</v>
+      </c>
+      <c r="BJ34">
+        <v>3.28</v>
+      </c>
+      <c r="BK34">
+        <v>1.48</v>
+      </c>
+      <c r="BL34">
+        <v>2.4</v>
+      </c>
+      <c r="BM34">
+        <v>1.85</v>
+      </c>
+      <c r="BN34">
+        <v>1.85</v>
+      </c>
+      <c r="BO34">
+        <v>2.3</v>
+      </c>
+      <c r="BP34">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7778986</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45770.58333333334</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>7</v>
+      </c>
+      <c r="O35" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q35">
+        <v>2.2</v>
+      </c>
+      <c r="R35">
+        <v>2.38</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>1.33</v>
+      </c>
+      <c r="U35">
+        <v>3.25</v>
+      </c>
+      <c r="V35">
+        <v>2.5</v>
+      </c>
+      <c r="W35">
+        <v>1.5</v>
+      </c>
+      <c r="X35">
+        <v>6.5</v>
+      </c>
+      <c r="Y35">
+        <v>1.11</v>
+      </c>
+      <c r="Z35">
+        <v>1.59</v>
+      </c>
+      <c r="AA35">
+        <v>4.2</v>
+      </c>
+      <c r="AB35">
+        <v>5</v>
+      </c>
+      <c r="AC35">
+        <v>1.04</v>
+      </c>
+      <c r="AD35">
+        <v>11</v>
+      </c>
+      <c r="AE35">
+        <v>1.22</v>
+      </c>
+      <c r="AF35">
+        <v>4.33</v>
+      </c>
+      <c r="AG35">
+        <v>1.65</v>
+      </c>
+      <c r="AH35">
+        <v>2.16</v>
+      </c>
+      <c r="AI35">
+        <v>1.7</v>
+      </c>
+      <c r="AJ35">
+        <v>2.05</v>
+      </c>
+      <c r="AK35">
+        <v>1.15</v>
+      </c>
+      <c r="AL35">
+        <v>1.18</v>
+      </c>
+      <c r="AM35">
+        <v>2.25</v>
+      </c>
+      <c r="AN35">
+        <v>2</v>
+      </c>
+      <c r="AO35">
+        <v>2</v>
+      </c>
+      <c r="AP35">
+        <v>2.33</v>
+      </c>
+      <c r="AQ35">
+        <v>1.33</v>
+      </c>
+      <c r="AR35">
+        <v>1.66</v>
+      </c>
+      <c r="AS35">
+        <v>0.92</v>
+      </c>
+      <c r="AT35">
+        <v>2.58</v>
+      </c>
+      <c r="AU35">
+        <v>7</v>
+      </c>
+      <c r="AV35">
+        <v>9</v>
+      </c>
+      <c r="AW35">
+        <v>11</v>
+      </c>
+      <c r="AX35">
+        <v>6</v>
+      </c>
+      <c r="AY35">
+        <v>22</v>
+      </c>
+      <c r="AZ35">
+        <v>17</v>
+      </c>
+      <c r="BA35">
+        <v>7</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>10</v>
+      </c>
+      <c r="BD35">
+        <v>1.44</v>
+      </c>
+      <c r="BE35">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF35">
+        <v>3.38</v>
+      </c>
+      <c r="BG35">
+        <v>1.11</v>
+      </c>
+      <c r="BH35">
+        <v>4.85</v>
+      </c>
+      <c r="BI35">
+        <v>1.25</v>
+      </c>
+      <c r="BJ35">
+        <v>3.28</v>
+      </c>
+      <c r="BK35">
+        <v>1.48</v>
+      </c>
+      <c r="BL35">
+        <v>2.4</v>
+      </c>
+      <c r="BM35">
+        <v>1.8</v>
+      </c>
+      <c r="BN35">
+        <v>1.91</v>
+      </c>
+      <c r="BO35">
+        <v>2.3</v>
+      </c>
+      <c r="BP35">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7778990</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45770.58333333334</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q36">
+        <v>4.75</v>
+      </c>
+      <c r="R36">
+        <v>2.1</v>
+      </c>
+      <c r="S36">
+        <v>2.5</v>
+      </c>
+      <c r="T36">
+        <v>1.44</v>
+      </c>
+      <c r="U36">
+        <v>2.63</v>
+      </c>
+      <c r="V36">
+        <v>3.25</v>
+      </c>
+      <c r="W36">
+        <v>1.33</v>
+      </c>
+      <c r="X36">
+        <v>9</v>
+      </c>
+      <c r="Y36">
+        <v>1.07</v>
+      </c>
+      <c r="Z36">
+        <v>3.96</v>
+      </c>
+      <c r="AA36">
+        <v>3.47</v>
+      </c>
+      <c r="AB36">
+        <v>1.89</v>
+      </c>
+      <c r="AC36">
+        <v>1.02</v>
+      </c>
+      <c r="AD36">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE36">
+        <v>1.31</v>
+      </c>
+      <c r="AF36">
+        <v>3.02</v>
+      </c>
+      <c r="AG36">
+        <v>1.94</v>
+      </c>
+      <c r="AH36">
+        <v>1.8</v>
+      </c>
+      <c r="AI36">
+        <v>1.95</v>
+      </c>
+      <c r="AJ36">
+        <v>1.8</v>
+      </c>
+      <c r="AK36">
+        <v>1.93</v>
+      </c>
+      <c r="AL36">
+        <v>1.25</v>
+      </c>
+      <c r="AM36">
+        <v>1.2</v>
+      </c>
+      <c r="AN36">
+        <v>1.5</v>
+      </c>
+      <c r="AO36">
+        <v>2</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>2.33</v>
+      </c>
+      <c r="AR36">
+        <v>1.54</v>
+      </c>
+      <c r="AS36">
+        <v>1.36</v>
+      </c>
+      <c r="AT36">
+        <v>2.9</v>
+      </c>
+      <c r="AU36">
+        <v>3</v>
+      </c>
+      <c r="AV36">
+        <v>6</v>
+      </c>
+      <c r="AW36">
+        <v>3</v>
+      </c>
+      <c r="AX36">
+        <v>7</v>
+      </c>
+      <c r="AY36">
+        <v>6</v>
+      </c>
+      <c r="AZ36">
+        <v>15</v>
+      </c>
+      <c r="BA36">
+        <v>1</v>
+      </c>
+      <c r="BB36">
+        <v>5</v>
+      </c>
+      <c r="BC36">
+        <v>6</v>
+      </c>
+      <c r="BD36">
+        <v>2.71</v>
+      </c>
+      <c r="BE36">
+        <v>9</v>
+      </c>
+      <c r="BF36">
+        <v>1.63</v>
+      </c>
+      <c r="BG36">
+        <v>1.15</v>
+      </c>
+      <c r="BH36">
+        <v>4.25</v>
+      </c>
+      <c r="BI36">
+        <v>1.32</v>
+      </c>
+      <c r="BJ36">
+        <v>2.88</v>
+      </c>
+      <c r="BK36">
+        <v>1.58</v>
+      </c>
+      <c r="BL36">
+        <v>2.17</v>
+      </c>
+      <c r="BM36">
+        <v>2.05</v>
+      </c>
+      <c r="BN36">
+        <v>1.7</v>
+      </c>
+      <c r="BO36">
+        <v>2.57</v>
+      </c>
+      <c r="BP36">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7778988</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45770.58333333334</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <v>2.5</v>
+      </c>
+      <c r="S37">
+        <v>5.5</v>
+      </c>
+      <c r="T37">
+        <v>1.25</v>
+      </c>
+      <c r="U37">
+        <v>3.75</v>
+      </c>
+      <c r="V37">
+        <v>2.2</v>
+      </c>
+      <c r="W37">
+        <v>1.62</v>
+      </c>
+      <c r="X37">
+        <v>5</v>
+      </c>
+      <c r="Y37">
+        <v>1.17</v>
+      </c>
+      <c r="Z37">
+        <v>1.49</v>
+      </c>
+      <c r="AA37">
+        <v>4.5</v>
+      </c>
+      <c r="AB37">
+        <v>5.7</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>13</v>
+      </c>
+      <c r="AE37">
+        <v>1.17</v>
+      </c>
+      <c r="AF37">
+        <v>5.25</v>
+      </c>
+      <c r="AG37">
+        <v>1.54</v>
+      </c>
+      <c r="AH37">
+        <v>2.38</v>
+      </c>
+      <c r="AI37">
+        <v>1.62</v>
+      </c>
+      <c r="AJ37">
+        <v>2.2</v>
+      </c>
+      <c r="AK37">
+        <v>1.14</v>
+      </c>
+      <c r="AL37">
+        <v>1.15</v>
+      </c>
+      <c r="AM37">
+        <v>2.5</v>
+      </c>
+      <c r="AN37">
+        <v>1.5</v>
+      </c>
+      <c r="AO37">
+        <v>1.5</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>1.56</v>
+      </c>
+      <c r="AS37">
+        <v>1.64</v>
+      </c>
+      <c r="AT37">
+        <v>3.2</v>
+      </c>
+      <c r="AU37">
+        <v>8</v>
+      </c>
+      <c r="AV37">
+        <v>5</v>
+      </c>
+      <c r="AW37">
+        <v>12</v>
+      </c>
+      <c r="AX37">
+        <v>4</v>
+      </c>
+      <c r="AY37">
+        <v>20</v>
+      </c>
+      <c r="AZ37">
+        <v>9</v>
+      </c>
+      <c r="BA37">
+        <v>7</v>
+      </c>
+      <c r="BB37">
+        <v>3</v>
+      </c>
+      <c r="BC37">
+        <v>10</v>
+      </c>
+      <c r="BD37">
+        <v>1.29</v>
+      </c>
+      <c r="BE37">
+        <v>10.75</v>
+      </c>
+      <c r="BF37">
+        <v>4.45</v>
+      </c>
+      <c r="BG37">
+        <v>1.12</v>
+      </c>
+      <c r="BH37">
+        <v>4.75</v>
+      </c>
+      <c r="BI37">
+        <v>1.26</v>
+      </c>
+      <c r="BJ37">
+        <v>3.22</v>
+      </c>
+      <c r="BK37">
+        <v>1.5</v>
+      </c>
+      <c r="BL37">
+        <v>2.35</v>
+      </c>
+      <c r="BM37">
+        <v>1.85</v>
+      </c>
+      <c r="BN37">
+        <v>1.85</v>
+      </c>
+      <c r="BO37">
+        <v>2.34</v>
+      </c>
+      <c r="BP37">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,18 @@
     <t>['56', '81', '84']</t>
   </si>
   <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['41', '45+1']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -400,9 +412,6 @@
     <t>['52']</t>
   </si>
   <si>
-    <t>['80']</t>
-  </si>
-  <si>
     <t>['66', '83']</t>
   </si>
   <si>
@@ -416,6 +425,15 @@
   </si>
   <si>
     <t>['36', '63', '64', '73']</t>
+  </si>
+  <si>
+    <t>['42', '87']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['61', '76', '85']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1054,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1114,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1323,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1529,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1654,7 +1672,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1860,7 +1878,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -1938,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2066,7 +2084,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2272,7 +2290,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2478,7 +2496,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2556,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>3</v>
@@ -2890,7 +2908,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3302,7 +3320,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3508,7 +3526,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3920,7 +3938,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4126,7 +4144,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4332,7 +4350,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4950,7 +4968,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5031,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.59</v>
@@ -5234,7 +5252,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>2</v>
@@ -5362,7 +5380,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5443,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>1.22</v>
@@ -5980,7 +5998,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6186,7 +6204,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6470,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6598,7 +6616,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6804,7 +6822,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="Q30">
         <v>3.4</v>
@@ -7010,7 +7028,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7216,7 +7234,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7500,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7834,7 +7852,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8040,7 +8058,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8246,7 +8264,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8403,6 +8421,830 @@
       </c>
       <c r="BP37">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7778991</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45771.58333333334</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>1.91</v>
+      </c>
+      <c r="S38">
+        <v>3.2</v>
+      </c>
+      <c r="T38">
+        <v>1.57</v>
+      </c>
+      <c r="U38">
+        <v>2.25</v>
+      </c>
+      <c r="V38">
+        <v>3.75</v>
+      </c>
+      <c r="W38">
+        <v>1.25</v>
+      </c>
+      <c r="X38">
+        <v>13</v>
+      </c>
+      <c r="Y38">
+        <v>1.04</v>
+      </c>
+      <c r="Z38">
+        <v>3.08</v>
+      </c>
+      <c r="AA38">
+        <v>3.47</v>
+      </c>
+      <c r="AB38">
+        <v>2.19</v>
+      </c>
+      <c r="AC38">
+        <v>1.04</v>
+      </c>
+      <c r="AD38">
+        <v>6.8</v>
+      </c>
+      <c r="AE38">
+        <v>1.5</v>
+      </c>
+      <c r="AF38">
+        <v>2.4</v>
+      </c>
+      <c r="AG38">
+        <v>2.05</v>
+      </c>
+      <c r="AH38">
+        <v>1.61</v>
+      </c>
+      <c r="AI38">
+        <v>2.1</v>
+      </c>
+      <c r="AJ38">
+        <v>1.67</v>
+      </c>
+      <c r="AK38">
+        <v>1.57</v>
+      </c>
+      <c r="AL38">
+        <v>1.3</v>
+      </c>
+      <c r="AM38">
+        <v>1.33</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>3</v>
+      </c>
+      <c r="AR38">
+        <v>1.5</v>
+      </c>
+      <c r="AS38">
+        <v>1.15</v>
+      </c>
+      <c r="AT38">
+        <v>2.65</v>
+      </c>
+      <c r="AU38">
+        <v>3</v>
+      </c>
+      <c r="AV38">
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>9</v>
+      </c>
+      <c r="AX38">
+        <v>7</v>
+      </c>
+      <c r="AY38">
+        <v>19</v>
+      </c>
+      <c r="AZ38">
+        <v>12</v>
+      </c>
+      <c r="BA38">
+        <v>7</v>
+      </c>
+      <c r="BB38">
+        <v>7</v>
+      </c>
+      <c r="BC38">
+        <v>14</v>
+      </c>
+      <c r="BD38">
+        <v>1.97</v>
+      </c>
+      <c r="BE38">
+        <v>7</v>
+      </c>
+      <c r="BF38">
+        <v>1.98</v>
+      </c>
+      <c r="BG38">
+        <v>1.21</v>
+      </c>
+      <c r="BH38">
+        <v>3.8</v>
+      </c>
+      <c r="BI38">
+        <v>1.38</v>
+      </c>
+      <c r="BJ38">
+        <v>2.8</v>
+      </c>
+      <c r="BK38">
+        <v>1.61</v>
+      </c>
+      <c r="BL38">
+        <v>2.15</v>
+      </c>
+      <c r="BM38">
+        <v>1.96</v>
+      </c>
+      <c r="BN38">
+        <v>1.74</v>
+      </c>
+      <c r="BO38">
+        <v>2.43</v>
+      </c>
+      <c r="BP38">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7778987</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45771.58333333334</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>112</v>
+      </c>
+      <c r="P39" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q39">
+        <v>2.5</v>
+      </c>
+      <c r="R39">
+        <v>2.25</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>1.33</v>
+      </c>
+      <c r="U39">
+        <v>3.25</v>
+      </c>
+      <c r="V39">
+        <v>2.63</v>
+      </c>
+      <c r="W39">
+        <v>1.44</v>
+      </c>
+      <c r="X39">
+        <v>6.5</v>
+      </c>
+      <c r="Y39">
+        <v>1.11</v>
+      </c>
+      <c r="Z39">
+        <v>1.91</v>
+      </c>
+      <c r="AA39">
+        <v>3.59</v>
+      </c>
+      <c r="AB39">
+        <v>3.74</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>11.8</v>
+      </c>
+      <c r="AE39">
+        <v>1.2</v>
+      </c>
+      <c r="AF39">
+        <v>3.84</v>
+      </c>
+      <c r="AG39">
+        <v>1.8</v>
+      </c>
+      <c r="AH39">
+        <v>1.94</v>
+      </c>
+      <c r="AI39">
+        <v>1.67</v>
+      </c>
+      <c r="AJ39">
+        <v>2.1</v>
+      </c>
+      <c r="AK39">
+        <v>1.28</v>
+      </c>
+      <c r="AL39">
+        <v>1.25</v>
+      </c>
+      <c r="AM39">
+        <v>1.8</v>
+      </c>
+      <c r="AN39">
+        <v>1.5</v>
+      </c>
+      <c r="AO39">
+        <v>1.5</v>
+      </c>
+      <c r="AP39">
+        <v>1.33</v>
+      </c>
+      <c r="AQ39">
+        <v>1.33</v>
+      </c>
+      <c r="AR39">
+        <v>1.88</v>
+      </c>
+      <c r="AS39">
+        <v>1.58</v>
+      </c>
+      <c r="AT39">
+        <v>3.46</v>
+      </c>
+      <c r="AU39">
+        <v>3</v>
+      </c>
+      <c r="AV39">
+        <v>8</v>
+      </c>
+      <c r="AW39">
+        <v>18</v>
+      </c>
+      <c r="AX39">
+        <v>5</v>
+      </c>
+      <c r="AY39">
+        <v>28</v>
+      </c>
+      <c r="AZ39">
+        <v>14</v>
+      </c>
+      <c r="BA39">
+        <v>12</v>
+      </c>
+      <c r="BB39">
+        <v>4</v>
+      </c>
+      <c r="BC39">
+        <v>16</v>
+      </c>
+      <c r="BD39">
+        <v>1.6</v>
+      </c>
+      <c r="BE39">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF39">
+        <v>2.77</v>
+      </c>
+      <c r="BG39">
+        <v>1.1</v>
+      </c>
+      <c r="BH39">
+        <v>5.15</v>
+      </c>
+      <c r="BI39">
+        <v>1.23</v>
+      </c>
+      <c r="BJ39">
+        <v>3.42</v>
+      </c>
+      <c r="BK39">
+        <v>1.44</v>
+      </c>
+      <c r="BL39">
+        <v>2.51</v>
+      </c>
+      <c r="BM39">
+        <v>1.77</v>
+      </c>
+      <c r="BN39">
+        <v>1.95</v>
+      </c>
+      <c r="BO39">
+        <v>2.19</v>
+      </c>
+      <c r="BP39">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7778984</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45771.58333333334</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>113</v>
+      </c>
+      <c r="P40" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q40">
+        <v>1.95</v>
+      </c>
+      <c r="R40">
+        <v>2.5</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>1.29</v>
+      </c>
+      <c r="U40">
+        <v>3.5</v>
+      </c>
+      <c r="V40">
+        <v>2.38</v>
+      </c>
+      <c r="W40">
+        <v>1.53</v>
+      </c>
+      <c r="X40">
+        <v>5.5</v>
+      </c>
+      <c r="Y40">
+        <v>1.14</v>
+      </c>
+      <c r="Z40">
+        <v>1.44</v>
+      </c>
+      <c r="AA40">
+        <v>4.7</v>
+      </c>
+      <c r="AB40">
+        <v>6.2</v>
+      </c>
+      <c r="AC40">
+        <v>1.02</v>
+      </c>
+      <c r="AD40">
+        <v>14.4</v>
+      </c>
+      <c r="AE40">
+        <v>1.12</v>
+      </c>
+      <c r="AF40">
+        <v>4.8</v>
+      </c>
+      <c r="AG40">
+        <v>1.53</v>
+      </c>
+      <c r="AH40">
+        <v>2.25</v>
+      </c>
+      <c r="AI40">
+        <v>1.75</v>
+      </c>
+      <c r="AJ40">
+        <v>2</v>
+      </c>
+      <c r="AK40">
+        <v>1.11</v>
+      </c>
+      <c r="AL40">
+        <v>1.14</v>
+      </c>
+      <c r="AM40">
+        <v>2.75</v>
+      </c>
+      <c r="AN40">
+        <v>0.5</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>1.33</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>1.44</v>
+      </c>
+      <c r="AS40">
+        <v>1</v>
+      </c>
+      <c r="AT40">
+        <v>2.44</v>
+      </c>
+      <c r="AU40">
+        <v>9</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>16</v>
+      </c>
+      <c r="AX40">
+        <v>6</v>
+      </c>
+      <c r="AY40">
+        <v>29</v>
+      </c>
+      <c r="AZ40">
+        <v>8</v>
+      </c>
+      <c r="BA40">
+        <v>15</v>
+      </c>
+      <c r="BB40">
+        <v>3</v>
+      </c>
+      <c r="BC40">
+        <v>18</v>
+      </c>
+      <c r="BD40">
+        <v>1.27</v>
+      </c>
+      <c r="BE40">
+        <v>11.25</v>
+      </c>
+      <c r="BF40">
+        <v>4.6</v>
+      </c>
+      <c r="BG40">
+        <v>1.09</v>
+      </c>
+      <c r="BH40">
+        <v>5.25</v>
+      </c>
+      <c r="BI40">
+        <v>1.22</v>
+      </c>
+      <c r="BJ40">
+        <v>3.5</v>
+      </c>
+      <c r="BK40">
+        <v>1.43</v>
+      </c>
+      <c r="BL40">
+        <v>2.54</v>
+      </c>
+      <c r="BM40">
+        <v>1.77</v>
+      </c>
+      <c r="BN40">
+        <v>1.95</v>
+      </c>
+      <c r="BO40">
+        <v>2.15</v>
+      </c>
+      <c r="BP40">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7778989</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45771.58333333334</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41" t="s">
+        <v>114</v>
+      </c>
+      <c r="P41" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q41">
+        <v>3.1</v>
+      </c>
+      <c r="R41">
+        <v>2.25</v>
+      </c>
+      <c r="S41">
+        <v>3.2</v>
+      </c>
+      <c r="T41">
+        <v>1.33</v>
+      </c>
+      <c r="U41">
+        <v>3.25</v>
+      </c>
+      <c r="V41">
+        <v>2.63</v>
+      </c>
+      <c r="W41">
+        <v>1.44</v>
+      </c>
+      <c r="X41">
+        <v>6.5</v>
+      </c>
+      <c r="Y41">
+        <v>1.11</v>
+      </c>
+      <c r="Z41">
+        <v>2.58</v>
+      </c>
+      <c r="AA41">
+        <v>3.67</v>
+      </c>
+      <c r="AB41">
+        <v>2.44</v>
+      </c>
+      <c r="AC41">
+        <v>1.01</v>
+      </c>
+      <c r="AD41">
+        <v>12.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.14</v>
+      </c>
+      <c r="AF41">
+        <v>4.4</v>
+      </c>
+      <c r="AG41">
+        <v>1.72</v>
+      </c>
+      <c r="AH41">
+        <v>2.05</v>
+      </c>
+      <c r="AI41">
+        <v>1.57</v>
+      </c>
+      <c r="AJ41">
+        <v>2.25</v>
+      </c>
+      <c r="AK41">
+        <v>1.48</v>
+      </c>
+      <c r="AL41">
+        <v>1.25</v>
+      </c>
+      <c r="AM41">
+        <v>1.48</v>
+      </c>
+      <c r="AN41">
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <v>1.5</v>
+      </c>
+      <c r="AP41">
+        <v>2</v>
+      </c>
+      <c r="AQ41">
+        <v>2</v>
+      </c>
+      <c r="AR41">
+        <v>1.72</v>
+      </c>
+      <c r="AS41">
+        <v>0.86</v>
+      </c>
+      <c r="AT41">
+        <v>2.58</v>
+      </c>
+      <c r="AU41">
+        <v>7</v>
+      </c>
+      <c r="AV41">
+        <v>6</v>
+      </c>
+      <c r="AW41">
+        <v>9</v>
+      </c>
+      <c r="AX41">
+        <v>13</v>
+      </c>
+      <c r="AY41">
+        <v>20</v>
+      </c>
+      <c r="AZ41">
+        <v>22</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>11</v>
+      </c>
+      <c r="BC41">
+        <v>16</v>
+      </c>
+      <c r="BD41">
+        <v>2.07</v>
+      </c>
+      <c r="BE41">
+        <v>7</v>
+      </c>
+      <c r="BF41">
+        <v>1.89</v>
+      </c>
+      <c r="BG41">
+        <v>1.15</v>
+      </c>
+      <c r="BH41">
+        <v>4.6</v>
+      </c>
+      <c r="BI41">
+        <v>1.26</v>
+      </c>
+      <c r="BJ41">
+        <v>3.4</v>
+      </c>
+      <c r="BK41">
+        <v>1.45</v>
+      </c>
+      <c r="BL41">
+        <v>2.55</v>
+      </c>
+      <c r="BM41">
+        <v>1.71</v>
+      </c>
+      <c r="BN41">
+        <v>2</v>
+      </c>
+      <c r="BO41">
+        <v>2.07</v>
+      </c>
+      <c r="BP41">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="147">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,18 @@
     <t>['41', '45+1']</t>
   </si>
   <si>
+    <t>['2', '17', '32', '54']</t>
+  </si>
+  <si>
+    <t>['3', '19']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -434,6 +446,15 @@
   </si>
   <si>
     <t>['61', '76', '85']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['30', '33', '51']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1075,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1672,7 +1693,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1878,7 +1899,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2084,7 +2105,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2165,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2290,7 +2311,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2496,7 +2517,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2783,7 +2804,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2908,7 +2929,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2986,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3320,7 +3341,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3398,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3526,7 +3547,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3607,7 +3628,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3938,7 +3959,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4016,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4144,7 +4165,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4225,7 +4246,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4350,7 +4371,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4637,7 +4658,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>2.16</v>
@@ -4968,7 +4989,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5255,7 +5276,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5380,7 +5401,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5458,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23">
         <v>1.33</v>
@@ -5870,7 +5891,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -5998,7 +6019,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6204,7 +6225,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6282,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.49</v>
@@ -6491,7 +6512,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>1.64</v>
@@ -6616,7 +6637,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6697,7 +6718,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.15</v>
@@ -7028,7 +7049,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7234,7 +7255,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7852,7 +7873,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8058,7 +8079,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8264,7 +8285,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8345,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8470,7 +8491,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8676,7 +8697,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9088,7 +9109,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9245,6 +9266,1036 @@
       </c>
       <c r="BP41">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7778995</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45774.375</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q42">
+        <v>2.95</v>
+      </c>
+      <c r="R42">
+        <v>2.25</v>
+      </c>
+      <c r="S42">
+        <v>2.95</v>
+      </c>
+      <c r="T42">
+        <v>1.28</v>
+      </c>
+      <c r="U42">
+        <v>3.3</v>
+      </c>
+      <c r="V42">
+        <v>2.3</v>
+      </c>
+      <c r="W42">
+        <v>1.55</v>
+      </c>
+      <c r="X42">
+        <v>5.25</v>
+      </c>
+      <c r="Y42">
+        <v>1.09</v>
+      </c>
+      <c r="Z42">
+        <v>2.52</v>
+      </c>
+      <c r="AA42">
+        <v>3.74</v>
+      </c>
+      <c r="AB42">
+        <v>2.47</v>
+      </c>
+      <c r="AC42">
+        <v>1.04</v>
+      </c>
+      <c r="AD42">
+        <v>11</v>
+      </c>
+      <c r="AE42">
+        <v>1.2</v>
+      </c>
+      <c r="AF42">
+        <v>4.5</v>
+      </c>
+      <c r="AG42">
+        <v>1.55</v>
+      </c>
+      <c r="AH42">
+        <v>2.2</v>
+      </c>
+      <c r="AI42">
+        <v>1.5</v>
+      </c>
+      <c r="AJ42">
+        <v>2.38</v>
+      </c>
+      <c r="AK42">
+        <v>1.5</v>
+      </c>
+      <c r="AL42">
+        <v>1.22</v>
+      </c>
+      <c r="AM42">
+        <v>1.5</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
+        <v>1.5</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>1.33</v>
+      </c>
+      <c r="AR42">
+        <v>1.86</v>
+      </c>
+      <c r="AS42">
+        <v>2.07</v>
+      </c>
+      <c r="AT42">
+        <v>3.93</v>
+      </c>
+      <c r="AU42">
+        <v>8</v>
+      </c>
+      <c r="AV42">
+        <v>2</v>
+      </c>
+      <c r="AW42">
+        <v>9</v>
+      </c>
+      <c r="AX42">
+        <v>16</v>
+      </c>
+      <c r="AY42">
+        <v>19</v>
+      </c>
+      <c r="AZ42">
+        <v>24</v>
+      </c>
+      <c r="BA42">
+        <v>6</v>
+      </c>
+      <c r="BB42">
+        <v>9</v>
+      </c>
+      <c r="BC42">
+        <v>15</v>
+      </c>
+      <c r="BD42">
+        <v>1.89</v>
+      </c>
+      <c r="BE42">
+        <v>7</v>
+      </c>
+      <c r="BF42">
+        <v>2.07</v>
+      </c>
+      <c r="BG42">
+        <v>1.13</v>
+      </c>
+      <c r="BH42">
+        <v>4.9</v>
+      </c>
+      <c r="BI42">
+        <v>1.24</v>
+      </c>
+      <c r="BJ42">
+        <v>3.55</v>
+      </c>
+      <c r="BK42">
+        <v>1.41</v>
+      </c>
+      <c r="BL42">
+        <v>2.65</v>
+      </c>
+      <c r="BM42">
+        <v>1.66</v>
+      </c>
+      <c r="BN42">
+        <v>2.08</v>
+      </c>
+      <c r="BO42">
+        <v>1.98</v>
+      </c>
+      <c r="BP42">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7778997</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45774.375</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>2.3</v>
+      </c>
+      <c r="S43">
+        <v>5.25</v>
+      </c>
+      <c r="T43">
+        <v>1.33</v>
+      </c>
+      <c r="U43">
+        <v>3.1</v>
+      </c>
+      <c r="V43">
+        <v>2.45</v>
+      </c>
+      <c r="W43">
+        <v>1.48</v>
+      </c>
+      <c r="X43">
+        <v>5.6</v>
+      </c>
+      <c r="Y43">
+        <v>1.08</v>
+      </c>
+      <c r="Z43">
+        <v>1.57</v>
+      </c>
+      <c r="AA43">
+        <v>4.2</v>
+      </c>
+      <c r="AB43">
+        <v>5.2</v>
+      </c>
+      <c r="AC43">
+        <v>1.05</v>
+      </c>
+      <c r="AD43">
+        <v>10</v>
+      </c>
+      <c r="AE43">
+        <v>1.25</v>
+      </c>
+      <c r="AF43">
+        <v>4</v>
+      </c>
+      <c r="AG43">
+        <v>1.85</v>
+      </c>
+      <c r="AH43">
+        <v>1.89</v>
+      </c>
+      <c r="AI43">
+        <v>1.73</v>
+      </c>
+      <c r="AJ43">
+        <v>1.95</v>
+      </c>
+      <c r="AK43">
+        <v>1.13</v>
+      </c>
+      <c r="AL43">
+        <v>1.18</v>
+      </c>
+      <c r="AM43">
+        <v>2.38</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>2</v>
+      </c>
+      <c r="AP43">
+        <v>2.33</v>
+      </c>
+      <c r="AQ43">
+        <v>1.5</v>
+      </c>
+      <c r="AR43">
+        <v>1.41</v>
+      </c>
+      <c r="AS43">
+        <v>1.44</v>
+      </c>
+      <c r="AT43">
+        <v>2.85</v>
+      </c>
+      <c r="AU43">
+        <v>6</v>
+      </c>
+      <c r="AV43">
+        <v>3</v>
+      </c>
+      <c r="AW43">
+        <v>2</v>
+      </c>
+      <c r="AX43">
+        <v>8</v>
+      </c>
+      <c r="AY43">
+        <v>8</v>
+      </c>
+      <c r="AZ43">
+        <v>11</v>
+      </c>
+      <c r="BA43">
+        <v>1</v>
+      </c>
+      <c r="BB43">
+        <v>1</v>
+      </c>
+      <c r="BC43">
+        <v>2</v>
+      </c>
+      <c r="BD43">
+        <v>1.55</v>
+      </c>
+      <c r="BE43">
+        <v>7</v>
+      </c>
+      <c r="BF43">
+        <v>2.65</v>
+      </c>
+      <c r="BG43">
+        <v>1.21</v>
+      </c>
+      <c r="BH43">
+        <v>3.9</v>
+      </c>
+      <c r="BI43">
+        <v>1.38</v>
+      </c>
+      <c r="BJ43">
+        <v>2.8</v>
+      </c>
+      <c r="BK43">
+        <v>1.61</v>
+      </c>
+      <c r="BL43">
+        <v>2.15</v>
+      </c>
+      <c r="BM43">
+        <v>1.95</v>
+      </c>
+      <c r="BN43">
+        <v>1.75</v>
+      </c>
+      <c r="BO43">
+        <v>2.4</v>
+      </c>
+      <c r="BP43">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7778992</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45774.45833333334</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>2.1</v>
+      </c>
+      <c r="S44">
+        <v>3.2</v>
+      </c>
+      <c r="T44">
+        <v>1.38</v>
+      </c>
+      <c r="U44">
+        <v>2.8</v>
+      </c>
+      <c r="V44">
+        <v>2.8</v>
+      </c>
+      <c r="W44">
+        <v>1.38</v>
+      </c>
+      <c r="X44">
+        <v>7.6</v>
+      </c>
+      <c r="Y44">
+        <v>1.03</v>
+      </c>
+      <c r="Z44">
+        <v>2.47</v>
+      </c>
+      <c r="AA44">
+        <v>3.45</v>
+      </c>
+      <c r="AB44">
+        <v>2.67</v>
+      </c>
+      <c r="AC44">
+        <v>1.06</v>
+      </c>
+      <c r="AD44">
+        <v>9.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.3</v>
+      </c>
+      <c r="AF44">
+        <v>3.55</v>
+      </c>
+      <c r="AG44">
+        <v>1.86</v>
+      </c>
+      <c r="AH44">
+        <v>1.84</v>
+      </c>
+      <c r="AI44">
+        <v>1.67</v>
+      </c>
+      <c r="AJ44">
+        <v>2.05</v>
+      </c>
+      <c r="AK44">
+        <v>1.45</v>
+      </c>
+      <c r="AL44">
+        <v>1.25</v>
+      </c>
+      <c r="AM44">
+        <v>1.5</v>
+      </c>
+      <c r="AN44">
+        <v>2</v>
+      </c>
+      <c r="AO44">
+        <v>1.5</v>
+      </c>
+      <c r="AP44">
+        <v>2.33</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1.7</v>
+      </c>
+      <c r="AS44">
+        <v>1.14</v>
+      </c>
+      <c r="AT44">
+        <v>2.84</v>
+      </c>
+      <c r="AU44">
+        <v>9</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>10</v>
+      </c>
+      <c r="AX44">
+        <v>7</v>
+      </c>
+      <c r="AY44">
+        <v>22</v>
+      </c>
+      <c r="AZ44">
+        <v>15</v>
+      </c>
+      <c r="BA44">
+        <v>2</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
+        <v>6</v>
+      </c>
+      <c r="BD44">
+        <v>1.84</v>
+      </c>
+      <c r="BE44">
+        <v>6.75</v>
+      </c>
+      <c r="BF44">
+        <v>2.12</v>
+      </c>
+      <c r="BG44">
+        <v>1.23</v>
+      </c>
+      <c r="BH44">
+        <v>3.65</v>
+      </c>
+      <c r="BI44">
+        <v>1.4</v>
+      </c>
+      <c r="BJ44">
+        <v>2.65</v>
+      </c>
+      <c r="BK44">
+        <v>1.66</v>
+      </c>
+      <c r="BL44">
+        <v>2.08</v>
+      </c>
+      <c r="BM44">
+        <v>2</v>
+      </c>
+      <c r="BN44">
+        <v>1.71</v>
+      </c>
+      <c r="BO44">
+        <v>2.5</v>
+      </c>
+      <c r="BP44">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7778998</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45774.47916666666</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>117</v>
+      </c>
+      <c r="P45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q45">
+        <v>2.05</v>
+      </c>
+      <c r="R45">
+        <v>2.3</v>
+      </c>
+      <c r="S45">
+        <v>5</v>
+      </c>
+      <c r="T45">
+        <v>1.33</v>
+      </c>
+      <c r="U45">
+        <v>3.1</v>
+      </c>
+      <c r="V45">
+        <v>2.4</v>
+      </c>
+      <c r="W45">
+        <v>1.5</v>
+      </c>
+      <c r="X45">
+        <v>5.6</v>
+      </c>
+      <c r="Y45">
+        <v>1.08</v>
+      </c>
+      <c r="Z45">
+        <v>1.62</v>
+      </c>
+      <c r="AA45">
+        <v>3.99</v>
+      </c>
+      <c r="AB45">
+        <v>5</v>
+      </c>
+      <c r="AC45">
+        <v>1.05</v>
+      </c>
+      <c r="AD45">
+        <v>10</v>
+      </c>
+      <c r="AE45">
+        <v>1.22</v>
+      </c>
+      <c r="AF45">
+        <v>4.2</v>
+      </c>
+      <c r="AG45">
+        <v>1.77</v>
+      </c>
+      <c r="AH45">
+        <v>1.98</v>
+      </c>
+      <c r="AI45">
+        <v>1.7</v>
+      </c>
+      <c r="AJ45">
+        <v>2</v>
+      </c>
+      <c r="AK45">
+        <v>1.15</v>
+      </c>
+      <c r="AL45">
+        <v>1.2</v>
+      </c>
+      <c r="AM45">
+        <v>2.3</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0.33</v>
+      </c>
+      <c r="AQ45">
+        <v>0.33</v>
+      </c>
+      <c r="AR45">
+        <v>1.57</v>
+      </c>
+      <c r="AS45">
+        <v>0.76</v>
+      </c>
+      <c r="AT45">
+        <v>2.33</v>
+      </c>
+      <c r="AU45">
+        <v>4</v>
+      </c>
+      <c r="AV45">
+        <v>5</v>
+      </c>
+      <c r="AW45">
+        <v>5</v>
+      </c>
+      <c r="AX45">
+        <v>6</v>
+      </c>
+      <c r="AY45">
+        <v>12</v>
+      </c>
+      <c r="AZ45">
+        <v>13</v>
+      </c>
+      <c r="BA45">
+        <v>8</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>12</v>
+      </c>
+      <c r="BD45">
+        <v>1.52</v>
+      </c>
+      <c r="BE45">
+        <v>7</v>
+      </c>
+      <c r="BF45">
+        <v>2.75</v>
+      </c>
+      <c r="BG45">
+        <v>1.2</v>
+      </c>
+      <c r="BH45">
+        <v>3.9</v>
+      </c>
+      <c r="BI45">
+        <v>1.35</v>
+      </c>
+      <c r="BJ45">
+        <v>2.88</v>
+      </c>
+      <c r="BK45">
+        <v>1.58</v>
+      </c>
+      <c r="BL45">
+        <v>2.18</v>
+      </c>
+      <c r="BM45">
+        <v>1.92</v>
+      </c>
+      <c r="BN45">
+        <v>1.78</v>
+      </c>
+      <c r="BO45">
+        <v>2.38</v>
+      </c>
+      <c r="BP45">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7778999</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45774.47916666666</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>118</v>
+      </c>
+      <c r="P46" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q46">
+        <v>2.75</v>
+      </c>
+      <c r="R46">
+        <v>2.25</v>
+      </c>
+      <c r="S46">
+        <v>3.25</v>
+      </c>
+      <c r="T46">
+        <v>1.3</v>
+      </c>
+      <c r="U46">
+        <v>3.2</v>
+      </c>
+      <c r="V46">
+        <v>2.4</v>
+      </c>
+      <c r="W46">
+        <v>1.5</v>
+      </c>
+      <c r="X46">
+        <v>5.7</v>
+      </c>
+      <c r="Y46">
+        <v>1.08</v>
+      </c>
+      <c r="Z46">
+        <v>2.26</v>
+      </c>
+      <c r="AA46">
+        <v>3.66</v>
+      </c>
+      <c r="AB46">
+        <v>2.83</v>
+      </c>
+      <c r="AC46">
+        <v>1.04</v>
+      </c>
+      <c r="AD46">
+        <v>11</v>
+      </c>
+      <c r="AE46">
+        <v>1.22</v>
+      </c>
+      <c r="AF46">
+        <v>4.33</v>
+      </c>
+      <c r="AG46">
+        <v>1.6</v>
+      </c>
+      <c r="AH46">
+        <v>2.1</v>
+      </c>
+      <c r="AI46">
+        <v>1.5</v>
+      </c>
+      <c r="AJ46">
+        <v>2.35</v>
+      </c>
+      <c r="AK46">
+        <v>1.4</v>
+      </c>
+      <c r="AL46">
+        <v>1.22</v>
+      </c>
+      <c r="AM46">
+        <v>1.62</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.47</v>
+      </c>
+      <c r="AS46">
+        <v>1.42</v>
+      </c>
+      <c r="AT46">
+        <v>2.89</v>
+      </c>
+      <c r="AU46">
+        <v>4</v>
+      </c>
+      <c r="AV46">
+        <v>5</v>
+      </c>
+      <c r="AW46">
+        <v>11</v>
+      </c>
+      <c r="AX46">
+        <v>5</v>
+      </c>
+      <c r="AY46">
+        <v>16</v>
+      </c>
+      <c r="AZ46">
+        <v>12</v>
+      </c>
+      <c r="BA46">
+        <v>13</v>
+      </c>
+      <c r="BB46">
+        <v>3</v>
+      </c>
+      <c r="BC46">
+        <v>16</v>
+      </c>
+      <c r="BD46">
+        <v>1.68</v>
+      </c>
+      <c r="BE46">
+        <v>7</v>
+      </c>
+      <c r="BF46">
+        <v>2.4</v>
+      </c>
+      <c r="BG46">
+        <v>1.15</v>
+      </c>
+      <c r="BH46">
+        <v>4.6</v>
+      </c>
+      <c r="BI46">
+        <v>1.26</v>
+      </c>
+      <c r="BJ46">
+        <v>3.4</v>
+      </c>
+      <c r="BK46">
+        <v>1.45</v>
+      </c>
+      <c r="BL46">
+        <v>2.55</v>
+      </c>
+      <c r="BM46">
+        <v>1.72</v>
+      </c>
+      <c r="BN46">
+        <v>1.98</v>
+      </c>
+      <c r="BO46">
+        <v>2.08</v>
+      </c>
+      <c r="BP46">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,7 +361,7 @@
     <t>['41', '45+1']</t>
   </si>
   <si>
-    <t>['2', '17', '32', '54']</t>
+    <t>['2', '17', '31', '54']</t>
   </si>
   <si>
     <t>['3', '19']</t>
@@ -373,6 +373,9 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -455,6 +458,9 @@
   </si>
   <si>
     <t>['30', '33', '51']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -816,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1075,7 +1081,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1693,7 +1699,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1899,7 +1905,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2105,7 +2111,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2311,7 +2317,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2517,7 +2523,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2801,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>0.33</v>
@@ -2929,7 +2935,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3341,7 +3347,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3547,7 +3553,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3959,7 +3965,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4165,7 +4171,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4371,7 +4377,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4989,7 +4995,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5401,7 +5407,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -6019,7 +6025,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6225,7 +6231,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6637,7 +6643,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7049,7 +7055,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7255,7 +7261,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7333,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7873,7 +7879,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8079,7 +8085,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8285,7 +8291,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8491,7 +8497,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8697,7 +8703,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9109,7 +9115,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9315,7 +9321,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9521,7 +9527,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9933,7 +9939,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <v>2.05</v>
@@ -10139,7 +10145,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10296,6 +10302,212 @@
       </c>
       <c r="BP46">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7778994</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45775.59027777778</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q47">
+        <v>2.88</v>
+      </c>
+      <c r="R47">
+        <v>2.05</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>1.44</v>
+      </c>
+      <c r="U47">
+        <v>2.63</v>
+      </c>
+      <c r="V47">
+        <v>3.25</v>
+      </c>
+      <c r="W47">
+        <v>1.33</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Y47">
+        <v>1.06</v>
+      </c>
+      <c r="Z47">
+        <v>1.91</v>
+      </c>
+      <c r="AA47">
+        <v>3.59</v>
+      </c>
+      <c r="AB47">
+        <v>3.74</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>1.98</v>
+      </c>
+      <c r="AH47">
+        <v>1.77</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
+      <c r="AJ47">
+        <v>1.75</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1.5</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>1.33</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1.75</v>
+      </c>
+      <c r="AS47">
+        <v>1.09</v>
+      </c>
+      <c r="AT47">
+        <v>2.84</v>
+      </c>
+      <c r="AU47">
+        <v>5</v>
+      </c>
+      <c r="AV47">
+        <v>7</v>
+      </c>
+      <c r="AW47">
+        <v>7</v>
+      </c>
+      <c r="AX47">
+        <v>8</v>
+      </c>
+      <c r="AY47">
+        <v>14</v>
+      </c>
+      <c r="AZ47">
+        <v>15</v>
+      </c>
+      <c r="BA47">
+        <v>4</v>
+      </c>
+      <c r="BB47">
+        <v>9</v>
+      </c>
+      <c r="BC47">
+        <v>13</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['32', '46']</t>
   </si>
   <si>
     <t>['45+8']</t>
@@ -822,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1084,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1699,7 +1702,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1905,7 +1908,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2111,7 +2114,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2317,7 +2320,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2523,7 +2526,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2935,7 +2938,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3347,7 +3350,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3553,7 +3556,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3965,7 +3968,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4171,7 +4174,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4249,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4377,7 +4380,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4995,7 +4998,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5407,7 +5410,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -6025,7 +6028,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6103,7 +6106,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6231,7 +6234,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6643,7 +6646,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7055,7 +7058,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7261,7 +7264,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7879,7 +7882,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8085,7 +8088,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8291,7 +8294,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8497,7 +8500,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8703,7 +8706,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9115,7 +9118,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9321,7 +9324,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9527,7 +9530,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9939,7 +9942,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q45">
         <v>2.05</v>
@@ -10145,7 +10148,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10351,7 +10354,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10508,6 +10511,212 @@
       </c>
       <c r="BP47">
         <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7778996</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45776.58333333334</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>120</v>
+      </c>
+      <c r="P48" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q48">
+        <v>1.73</v>
+      </c>
+      <c r="R48">
+        <v>2.63</v>
+      </c>
+      <c r="S48">
+        <v>9</v>
+      </c>
+      <c r="T48">
+        <v>1.29</v>
+      </c>
+      <c r="U48">
+        <v>3.5</v>
+      </c>
+      <c r="V48">
+        <v>2.38</v>
+      </c>
+      <c r="W48">
+        <v>1.53</v>
+      </c>
+      <c r="X48">
+        <v>5.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.14</v>
+      </c>
+      <c r="Z48">
+        <v>1.36</v>
+      </c>
+      <c r="AA48">
+        <v>5.2</v>
+      </c>
+      <c r="AB48">
+        <v>7</v>
+      </c>
+      <c r="AC48">
+        <v>1.03</v>
+      </c>
+      <c r="AD48">
+        <v>13</v>
+      </c>
+      <c r="AE48">
+        <v>1.15</v>
+      </c>
+      <c r="AF48">
+        <v>5.5</v>
+      </c>
+      <c r="AG48">
+        <v>1.5</v>
+      </c>
+      <c r="AH48">
+        <v>2.3</v>
+      </c>
+      <c r="AI48">
+        <v>2.05</v>
+      </c>
+      <c r="AJ48">
+        <v>1.7</v>
+      </c>
+      <c r="AK48">
+        <v>1.04</v>
+      </c>
+      <c r="AL48">
+        <v>1.12</v>
+      </c>
+      <c r="AM48">
+        <v>4</v>
+      </c>
+      <c r="AN48">
+        <v>2</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>2.33</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>2.55</v>
+      </c>
+      <c r="AS48">
+        <v>0.9</v>
+      </c>
+      <c r="AT48">
+        <v>3.45</v>
+      </c>
+      <c r="AU48">
+        <v>5</v>
+      </c>
+      <c r="AV48">
+        <v>2</v>
+      </c>
+      <c r="AW48">
+        <v>13</v>
+      </c>
+      <c r="AX48">
+        <v>6</v>
+      </c>
+      <c r="AY48">
+        <v>23</v>
+      </c>
+      <c r="AZ48">
+        <v>11</v>
+      </c>
+      <c r="BA48">
+        <v>7</v>
+      </c>
+      <c r="BB48">
+        <v>1</v>
+      </c>
+      <c r="BC48">
+        <v>8</v>
+      </c>
+      <c r="BD48">
+        <v>1.25</v>
+      </c>
+      <c r="BE48">
+        <v>12</v>
+      </c>
+      <c r="BF48">
+        <v>4.2</v>
+      </c>
+      <c r="BG48">
+        <v>1.14</v>
+      </c>
+      <c r="BH48">
+        <v>4.8</v>
+      </c>
+      <c r="BI48">
+        <v>1.23</v>
+      </c>
+      <c r="BJ48">
+        <v>3.6</v>
+      </c>
+      <c r="BK48">
+        <v>1.43</v>
+      </c>
+      <c r="BL48">
+        <v>2.5</v>
+      </c>
+      <c r="BM48">
+        <v>1.75</v>
+      </c>
+      <c r="BN48">
+        <v>1.9</v>
+      </c>
+      <c r="BO48">
+        <v>2.25</v>
+      </c>
+      <c r="BP48">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,12 @@
     <t>['32', '46']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['11', '44', '48', '59']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -464,6 +470,12 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['65', '77']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1096,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1702,7 +1714,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1908,7 +1920,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2114,7 +2126,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2192,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2320,7 +2332,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2401,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2526,7 +2538,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2938,7 +2950,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3350,7 +3362,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3556,7 +3568,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3840,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3968,7 +3980,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4174,7 +4186,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4380,7 +4392,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4998,7 +5010,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5410,7 +5422,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5694,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -6028,7 +6040,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6109,7 +6121,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR26">
         <v>2.77</v>
@@ -6234,7 +6246,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6646,7 +6658,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6724,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7058,7 +7070,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7264,7 +7276,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7882,7 +7894,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -7963,7 +7975,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.66</v>
@@ -8088,7 +8100,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8166,7 +8178,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>2.33</v>
@@ -8294,7 +8306,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8500,7 +8512,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8706,7 +8718,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9118,7 +9130,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9324,7 +9336,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9530,7 +9542,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9942,7 +9954,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q45">
         <v>2.05</v>
@@ -10148,7 +10160,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10354,7 +10366,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10717,6 +10729,418 @@
       </c>
       <c r="BP48">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7779007</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45780.41666666666</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>2.2</v>
+      </c>
+      <c r="S49">
+        <v>3.5</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49">
+        <v>2.75</v>
+      </c>
+      <c r="V49">
+        <v>2.75</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>2.4</v>
+      </c>
+      <c r="AA49">
+        <v>3.53</v>
+      </c>
+      <c r="AB49">
+        <v>2.7</v>
+      </c>
+      <c r="AC49">
+        <v>1.06</v>
+      </c>
+      <c r="AD49">
+        <v>9</v>
+      </c>
+      <c r="AE49">
+        <v>1.33</v>
+      </c>
+      <c r="AF49">
+        <v>3.35</v>
+      </c>
+      <c r="AG49">
+        <v>1.77</v>
+      </c>
+      <c r="AH49">
+        <v>1.98</v>
+      </c>
+      <c r="AI49">
+        <v>1.8</v>
+      </c>
+      <c r="AJ49">
+        <v>1.95</v>
+      </c>
+      <c r="AK49">
+        <v>1.41</v>
+      </c>
+      <c r="AL49">
+        <v>1.31</v>
+      </c>
+      <c r="AM49">
+        <v>1.53</v>
+      </c>
+      <c r="AN49">
+        <v>1.5</v>
+      </c>
+      <c r="AO49">
+        <v>1.33</v>
+      </c>
+      <c r="AP49">
+        <v>1.33</v>
+      </c>
+      <c r="AQ49">
+        <v>1.25</v>
+      </c>
+      <c r="AR49">
+        <v>1.44</v>
+      </c>
+      <c r="AS49">
+        <v>1.26</v>
+      </c>
+      <c r="AT49">
+        <v>2.7</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>16</v>
+      </c>
+      <c r="AX49">
+        <v>11</v>
+      </c>
+      <c r="AY49">
+        <v>20</v>
+      </c>
+      <c r="AZ49">
+        <v>18</v>
+      </c>
+      <c r="BA49">
+        <v>5</v>
+      </c>
+      <c r="BB49">
+        <v>9</v>
+      </c>
+      <c r="BC49">
+        <v>14</v>
+      </c>
+      <c r="BD49">
+        <v>1.74</v>
+      </c>
+      <c r="BE49">
+        <v>6.75</v>
+      </c>
+      <c r="BF49">
+        <v>2.28</v>
+      </c>
+      <c r="BG49">
+        <v>1.22</v>
+      </c>
+      <c r="BH49">
+        <v>3.8</v>
+      </c>
+      <c r="BI49">
+        <v>1.38</v>
+      </c>
+      <c r="BJ49">
+        <v>2.75</v>
+      </c>
+      <c r="BK49">
+        <v>1.61</v>
+      </c>
+      <c r="BL49">
+        <v>2.15</v>
+      </c>
+      <c r="BM49">
+        <v>1.98</v>
+      </c>
+      <c r="BN49">
+        <v>1.74</v>
+      </c>
+      <c r="BO49">
+        <v>2.48</v>
+      </c>
+      <c r="BP49">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7779006</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45780.52083333334</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>6</v>
+      </c>
+      <c r="O50" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q50">
+        <v>3.75</v>
+      </c>
+      <c r="R50">
+        <v>2.05</v>
+      </c>
+      <c r="S50">
+        <v>3.1</v>
+      </c>
+      <c r="T50">
+        <v>1.5</v>
+      </c>
+      <c r="U50">
+        <v>2.5</v>
+      </c>
+      <c r="V50">
+        <v>3.4</v>
+      </c>
+      <c r="W50">
+        <v>1.3</v>
+      </c>
+      <c r="X50">
+        <v>10</v>
+      </c>
+      <c r="Y50">
+        <v>1.06</v>
+      </c>
+      <c r="Z50">
+        <v>3.52</v>
+      </c>
+      <c r="AA50">
+        <v>3.21</v>
+      </c>
+      <c r="AB50">
+        <v>2.1</v>
+      </c>
+      <c r="AC50">
+        <v>1.09</v>
+      </c>
+      <c r="AD50">
+        <v>7.5</v>
+      </c>
+      <c r="AE50">
+        <v>1.42</v>
+      </c>
+      <c r="AF50">
+        <v>2.88</v>
+      </c>
+      <c r="AG50">
+        <v>2.15</v>
+      </c>
+      <c r="AH50">
+        <v>1.57</v>
+      </c>
+      <c r="AI50">
+        <v>1.95</v>
+      </c>
+      <c r="AJ50">
+        <v>1.8</v>
+      </c>
+      <c r="AK50">
+        <v>1.55</v>
+      </c>
+      <c r="AL50">
+        <v>1.33</v>
+      </c>
+      <c r="AM50">
+        <v>1.36</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>1.5</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>1.29</v>
+      </c>
+      <c r="AS50">
+        <v>1.86</v>
+      </c>
+      <c r="AT50">
+        <v>3.15</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>7</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <v>8</v>
+      </c>
+      <c r="AY50">
+        <v>12</v>
+      </c>
+      <c r="AZ50">
+        <v>18</v>
+      </c>
+      <c r="BA50">
+        <v>2</v>
+      </c>
+      <c r="BB50">
+        <v>10</v>
+      </c>
+      <c r="BC50">
+        <v>12</v>
+      </c>
+      <c r="BD50">
+        <v>2.1</v>
+      </c>
+      <c r="BE50">
+        <v>7</v>
+      </c>
+      <c r="BF50">
+        <v>1.84</v>
+      </c>
+      <c r="BG50">
+        <v>1.22</v>
+      </c>
+      <c r="BH50">
+        <v>3.8</v>
+      </c>
+      <c r="BI50">
+        <v>1.38</v>
+      </c>
+      <c r="BJ50">
+        <v>2.8</v>
+      </c>
+      <c r="BK50">
+        <v>1.63</v>
+      </c>
+      <c r="BL50">
+        <v>2.15</v>
+      </c>
+      <c r="BM50">
+        <v>1.96</v>
+      </c>
+      <c r="BN50">
+        <v>1.74</v>
+      </c>
+      <c r="BO50">
+        <v>2.43</v>
+      </c>
+      <c r="BP50">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,12 @@
     <t>['11', '44', '48', '59']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -454,9 +460,6 @@
     <t>['42', '87']</t>
   </si>
   <si>
-    <t>['26']</t>
-  </si>
-  <si>
     <t>['61', '76', '85']</t>
   </si>
   <si>
@@ -476,6 +479,15 @@
   </si>
   <si>
     <t>['65', '77']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['25', '80']</t>
+  </si>
+  <si>
+    <t>['23', '28', '43']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1096,7 +1108,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1174,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1589,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1714,7 +1726,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1920,7 +1932,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -1998,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2126,7 +2138,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2332,7 +2344,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2538,7 +2550,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2619,7 +2631,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2950,7 +2962,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3234,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3362,7 +3374,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3568,7 +3580,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3649,7 +3661,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3980,7 +3992,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4058,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4186,7 +4198,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4392,7 +4404,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -5010,7 +5022,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5091,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.59</v>
@@ -5422,7 +5434,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -6040,7 +6052,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6246,7 +6258,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6324,10 +6336,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR27">
         <v>1.49</v>
@@ -6530,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>0.33</v>
@@ -6658,7 +6670,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6942,10 +6954,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR30">
         <v>1.48</v>
@@ -7070,7 +7082,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7276,7 +7288,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7357,7 +7369,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -7560,7 +7572,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7894,7 +7906,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8100,7 +8112,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8306,7 +8318,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8512,7 +8524,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8593,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR38">
         <v>1.5</v>
@@ -8718,7 +8730,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9002,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
         <v>0</v>
@@ -9130,7 +9142,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9208,10 +9220,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.72</v>
@@ -9336,7 +9348,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9417,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR42">
         <v>1.86</v>
@@ -9542,7 +9554,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9620,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -9954,7 +9966,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q45">
         <v>2.05</v>
@@ -10160,7 +10172,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10366,7 +10378,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10778,7 +10790,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10984,7 +10996,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11141,6 +11153,830 @@
       </c>
       <c r="BP50">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7779000</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45781.375</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>123</v>
+      </c>
+      <c r="P51" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q51">
+        <v>3.5</v>
+      </c>
+      <c r="R51">
+        <v>1.95</v>
+      </c>
+      <c r="S51">
+        <v>3.6</v>
+      </c>
+      <c r="T51">
+        <v>1.53</v>
+      </c>
+      <c r="U51">
+        <v>2.38</v>
+      </c>
+      <c r="V51">
+        <v>3.75</v>
+      </c>
+      <c r="W51">
+        <v>1.25</v>
+      </c>
+      <c r="X51">
+        <v>11</v>
+      </c>
+      <c r="Y51">
+        <v>1.05</v>
+      </c>
+      <c r="Z51">
+        <v>2.45</v>
+      </c>
+      <c r="AA51">
+        <v>3.05</v>
+      </c>
+      <c r="AB51">
+        <v>2.99</v>
+      </c>
+      <c r="AC51">
+        <v>1.11</v>
+      </c>
+      <c r="AD51">
+        <v>6.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.5</v>
+      </c>
+      <c r="AF51">
+        <v>2.4</v>
+      </c>
+      <c r="AG51">
+        <v>2.4</v>
+      </c>
+      <c r="AH51">
+        <v>1.48</v>
+      </c>
+      <c r="AI51">
+        <v>2.1</v>
+      </c>
+      <c r="AJ51">
+        <v>1.67</v>
+      </c>
+      <c r="AK51">
+        <v>1.4</v>
+      </c>
+      <c r="AL51">
+        <v>1.36</v>
+      </c>
+      <c r="AM51">
+        <v>1.49</v>
+      </c>
+      <c r="AN51">
+        <v>1.33</v>
+      </c>
+      <c r="AO51">
+        <v>3</v>
+      </c>
+      <c r="AP51">
+        <v>1.25</v>
+      </c>
+      <c r="AQ51">
+        <v>2.5</v>
+      </c>
+      <c r="AR51">
+        <v>1.87</v>
+      </c>
+      <c r="AS51">
+        <v>1.15</v>
+      </c>
+      <c r="AT51">
+        <v>3.02</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>2</v>
+      </c>
+      <c r="AW51">
+        <v>4</v>
+      </c>
+      <c r="AX51">
+        <v>16</v>
+      </c>
+      <c r="AY51">
+        <v>8</v>
+      </c>
+      <c r="AZ51">
+        <v>24</v>
+      </c>
+      <c r="BA51">
+        <v>4</v>
+      </c>
+      <c r="BB51">
+        <v>7</v>
+      </c>
+      <c r="BC51">
+        <v>11</v>
+      </c>
+      <c r="BD51">
+        <v>1.78</v>
+      </c>
+      <c r="BE51">
+        <v>7</v>
+      </c>
+      <c r="BF51">
+        <v>2.2</v>
+      </c>
+      <c r="BG51">
+        <v>1.21</v>
+      </c>
+      <c r="BH51">
+        <v>3.9</v>
+      </c>
+      <c r="BI51">
+        <v>1.36</v>
+      </c>
+      <c r="BJ51">
+        <v>2.8</v>
+      </c>
+      <c r="BK51">
+        <v>1.58</v>
+      </c>
+      <c r="BL51">
+        <v>2.17</v>
+      </c>
+      <c r="BM51">
+        <v>1.94</v>
+      </c>
+      <c r="BN51">
+        <v>1.76</v>
+      </c>
+      <c r="BO51">
+        <v>2.4</v>
+      </c>
+      <c r="BP51">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7779005</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45781.375</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>86</v>
+      </c>
+      <c r="P52" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>2.38</v>
+      </c>
+      <c r="S52">
+        <v>3</v>
+      </c>
+      <c r="T52">
+        <v>1.29</v>
+      </c>
+      <c r="U52">
+        <v>3.5</v>
+      </c>
+      <c r="V52">
+        <v>2.38</v>
+      </c>
+      <c r="W52">
+        <v>1.53</v>
+      </c>
+      <c r="X52">
+        <v>5.5</v>
+      </c>
+      <c r="Y52">
+        <v>1.14</v>
+      </c>
+      <c r="Z52">
+        <v>2.51</v>
+      </c>
+      <c r="AA52">
+        <v>3.75</v>
+      </c>
+      <c r="AB52">
+        <v>2.46</v>
+      </c>
+      <c r="AC52">
+        <v>1.04</v>
+      </c>
+      <c r="AD52">
+        <v>11</v>
+      </c>
+      <c r="AE52">
+        <v>1.2</v>
+      </c>
+      <c r="AF52">
+        <v>4.5</v>
+      </c>
+      <c r="AG52">
+        <v>1.57</v>
+      </c>
+      <c r="AH52">
+        <v>2.2</v>
+      </c>
+      <c r="AI52">
+        <v>1.53</v>
+      </c>
+      <c r="AJ52">
+        <v>2.38</v>
+      </c>
+      <c r="AK52">
+        <v>1.5</v>
+      </c>
+      <c r="AL52">
+        <v>1.27</v>
+      </c>
+      <c r="AM52">
+        <v>1.49</v>
+      </c>
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>1.5</v>
+      </c>
+      <c r="AP52">
+        <v>1.5</v>
+      </c>
+      <c r="AQ52">
+        <v>2</v>
+      </c>
+      <c r="AR52">
+        <v>1.74</v>
+      </c>
+      <c r="AS52">
+        <v>1.49</v>
+      </c>
+      <c r="AT52">
+        <v>3.23</v>
+      </c>
+      <c r="AU52">
+        <v>5</v>
+      </c>
+      <c r="AV52">
+        <v>7</v>
+      </c>
+      <c r="AW52">
+        <v>11</v>
+      </c>
+      <c r="AX52">
+        <v>9</v>
+      </c>
+      <c r="AY52">
+        <v>18</v>
+      </c>
+      <c r="AZ52">
+        <v>19</v>
+      </c>
+      <c r="BA52">
+        <v>11</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>13</v>
+      </c>
+      <c r="BD52">
+        <v>2.1</v>
+      </c>
+      <c r="BE52">
+        <v>7</v>
+      </c>
+      <c r="BF52">
+        <v>1.84</v>
+      </c>
+      <c r="BG52">
+        <v>1.14</v>
+      </c>
+      <c r="BH52">
+        <v>4.8</v>
+      </c>
+      <c r="BI52">
+        <v>1.26</v>
+      </c>
+      <c r="BJ52">
+        <v>3.4</v>
+      </c>
+      <c r="BK52">
+        <v>1.44</v>
+      </c>
+      <c r="BL52">
+        <v>2.55</v>
+      </c>
+      <c r="BM52">
+        <v>1.68</v>
+      </c>
+      <c r="BN52">
+        <v>2.05</v>
+      </c>
+      <c r="BO52">
+        <v>2.05</v>
+      </c>
+      <c r="BP52">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7779002</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45781.47916666666</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P53" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q53">
+        <v>5.5</v>
+      </c>
+      <c r="R53">
+        <v>2.38</v>
+      </c>
+      <c r="S53">
+        <v>2.1</v>
+      </c>
+      <c r="T53">
+        <v>1.33</v>
+      </c>
+      <c r="U53">
+        <v>3.25</v>
+      </c>
+      <c r="V53">
+        <v>2.5</v>
+      </c>
+      <c r="W53">
+        <v>1.5</v>
+      </c>
+      <c r="X53">
+        <v>6</v>
+      </c>
+      <c r="Y53">
+        <v>1.13</v>
+      </c>
+      <c r="Z53">
+        <v>4.8</v>
+      </c>
+      <c r="AA53">
+        <v>4.1</v>
+      </c>
+      <c r="AB53">
+        <v>1.62</v>
+      </c>
+      <c r="AC53">
+        <v>1.04</v>
+      </c>
+      <c r="AD53">
+        <v>11</v>
+      </c>
+      <c r="AE53">
+        <v>1.22</v>
+      </c>
+      <c r="AF53">
+        <v>4.33</v>
+      </c>
+      <c r="AG53">
+        <v>1.61</v>
+      </c>
+      <c r="AH53">
+        <v>2.05</v>
+      </c>
+      <c r="AI53">
+        <v>1.75</v>
+      </c>
+      <c r="AJ53">
+        <v>2</v>
+      </c>
+      <c r="AK53">
+        <v>2.25</v>
+      </c>
+      <c r="AL53">
+        <v>1.22</v>
+      </c>
+      <c r="AM53">
+        <v>1.17</v>
+      </c>
+      <c r="AN53">
+        <v>1.5</v>
+      </c>
+      <c r="AO53">
+        <v>1.33</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>1.75</v>
+      </c>
+      <c r="AR53">
+        <v>1.36</v>
+      </c>
+      <c r="AS53">
+        <v>1.98</v>
+      </c>
+      <c r="AT53">
+        <v>3.34</v>
+      </c>
+      <c r="AU53">
+        <v>3</v>
+      </c>
+      <c r="AV53">
+        <v>9</v>
+      </c>
+      <c r="AW53">
+        <v>6</v>
+      </c>
+      <c r="AX53">
+        <v>9</v>
+      </c>
+      <c r="AY53">
+        <v>12</v>
+      </c>
+      <c r="AZ53">
+        <v>25</v>
+      </c>
+      <c r="BA53">
+        <v>3</v>
+      </c>
+      <c r="BB53">
+        <v>8</v>
+      </c>
+      <c r="BC53">
+        <v>11</v>
+      </c>
+      <c r="BD53">
+        <v>2.8</v>
+      </c>
+      <c r="BE53">
+        <v>7.5</v>
+      </c>
+      <c r="BF53">
+        <v>1.5</v>
+      </c>
+      <c r="BG53">
+        <v>1.13</v>
+      </c>
+      <c r="BH53">
+        <v>4.9</v>
+      </c>
+      <c r="BI53">
+        <v>1.24</v>
+      </c>
+      <c r="BJ53">
+        <v>3.55</v>
+      </c>
+      <c r="BK53">
+        <v>1.42</v>
+      </c>
+      <c r="BL53">
+        <v>2.65</v>
+      </c>
+      <c r="BM53">
+        <v>1.66</v>
+      </c>
+      <c r="BN53">
+        <v>2.08</v>
+      </c>
+      <c r="BO53">
+        <v>1.98</v>
+      </c>
+      <c r="BP53">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7779004</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45781.47916666666</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>124</v>
+      </c>
+      <c r="P54" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q54">
+        <v>2.6</v>
+      </c>
+      <c r="R54">
+        <v>2.2</v>
+      </c>
+      <c r="S54">
+        <v>4.33</v>
+      </c>
+      <c r="T54">
+        <v>1.36</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>2.75</v>
+      </c>
+      <c r="W54">
+        <v>1.4</v>
+      </c>
+      <c r="X54">
+        <v>7</v>
+      </c>
+      <c r="Y54">
+        <v>1.1</v>
+      </c>
+      <c r="Z54">
+        <v>1.85</v>
+      </c>
+      <c r="AA54">
+        <v>3.69</v>
+      </c>
+      <c r="AB54">
+        <v>3.89</v>
+      </c>
+      <c r="AC54">
+        <v>1.06</v>
+      </c>
+      <c r="AD54">
+        <v>9</v>
+      </c>
+      <c r="AE54">
+        <v>1.3</v>
+      </c>
+      <c r="AF54">
+        <v>3.45</v>
+      </c>
+      <c r="AG54">
+        <v>1.83</v>
+      </c>
+      <c r="AH54">
+        <v>1.91</v>
+      </c>
+      <c r="AI54">
+        <v>1.8</v>
+      </c>
+      <c r="AJ54">
+        <v>1.95</v>
+      </c>
+      <c r="AK54">
+        <v>1.28</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.78</v>
+      </c>
+      <c r="AN54">
+        <v>2.33</v>
+      </c>
+      <c r="AO54">
+        <v>2</v>
+      </c>
+      <c r="AP54">
+        <v>2.5</v>
+      </c>
+      <c r="AQ54">
+        <v>1.5</v>
+      </c>
+      <c r="AR54">
+        <v>1.34</v>
+      </c>
+      <c r="AS54">
+        <v>1.25</v>
+      </c>
+      <c r="AT54">
+        <v>2.59</v>
+      </c>
+      <c r="AU54">
+        <v>5</v>
+      </c>
+      <c r="AV54">
+        <v>4</v>
+      </c>
+      <c r="AW54">
+        <v>9</v>
+      </c>
+      <c r="AX54">
+        <v>6</v>
+      </c>
+      <c r="AY54">
+        <v>17</v>
+      </c>
+      <c r="AZ54">
+        <v>12</v>
+      </c>
+      <c r="BA54">
+        <v>1</v>
+      </c>
+      <c r="BB54">
+        <v>8</v>
+      </c>
+      <c r="BC54">
+        <v>9</v>
+      </c>
+      <c r="BD54">
+        <v>1.83</v>
+      </c>
+      <c r="BE54">
+        <v>6.75</v>
+      </c>
+      <c r="BF54">
+        <v>2.15</v>
+      </c>
+      <c r="BG54">
+        <v>1.18</v>
+      </c>
+      <c r="BH54">
+        <v>4.3</v>
+      </c>
+      <c r="BI54">
+        <v>1.3</v>
+      </c>
+      <c r="BJ54">
+        <v>3.05</v>
+      </c>
+      <c r="BK54">
+        <v>1.5</v>
+      </c>
+      <c r="BL54">
+        <v>2.35</v>
+      </c>
+      <c r="BM54">
+        <v>1.81</v>
+      </c>
+      <c r="BN54">
+        <v>1.88</v>
+      </c>
+      <c r="BO54">
+        <v>2.23</v>
+      </c>
+      <c r="BP54">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,12 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['39', '57']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -481,13 +487,13 @@
     <t>['65', '77']</t>
   </si>
   <si>
-    <t>['83']</t>
-  </si>
-  <si>
     <t>['25', '80']</t>
   </si>
   <si>
     <t>['23', '28', '43']</t>
+  </si>
+  <si>
+    <t>['49', '52']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1114,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1395,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1726,7 +1732,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1804,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5">
         <v>2.33</v>
@@ -1932,7 +1938,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2138,7 +2144,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2344,7 +2350,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2550,7 +2556,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2962,7 +2968,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3374,7 +3380,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3580,7 +3586,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3992,7 +3998,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4073,7 +4079,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4198,7 +4204,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4276,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4404,7 +4410,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4688,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5022,7 +5028,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5434,7 +5440,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5515,7 +5521,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>1.22</v>
@@ -6052,7 +6058,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6130,7 +6136,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>1.25</v>
@@ -6258,7 +6264,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6670,7 +6676,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7082,7 +7088,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7288,7 +7294,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7575,7 +7581,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>1.7</v>
@@ -7906,7 +7912,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -7984,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8112,7 +8118,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8318,7 +8324,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8524,7 +8530,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8811,7 +8817,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>1.88</v>
@@ -9142,7 +9148,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9348,7 +9354,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9554,7 +9560,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9966,7 +9972,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q45">
         <v>2.05</v>
@@ -10172,7 +10178,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10378,7 +10384,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10459,7 +10465,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -10662,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>0</v>
@@ -10790,7 +10796,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10996,7 +11002,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11202,7 +11208,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="Q51">
         <v>3.5</v>
@@ -11408,7 +11414,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11614,7 +11620,7 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -11916,19 +11922,19 @@
         <v>5</v>
       </c>
       <c r="AV54">
+        <v>3</v>
+      </c>
+      <c r="AW54">
+        <v>6</v>
+      </c>
+      <c r="AX54">
         <v>4</v>
       </c>
-      <c r="AW54">
-        <v>9</v>
-      </c>
-      <c r="AX54">
-        <v>6</v>
-      </c>
       <c r="AY54">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA54">
         <v>1</v>
@@ -11977,6 +11983,418 @@
       </c>
       <c r="BP54">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7779003</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45782.58333333334</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>125</v>
+      </c>
+      <c r="P55" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q55">
+        <v>1.83</v>
+      </c>
+      <c r="R55">
+        <v>2.6</v>
+      </c>
+      <c r="S55">
+        <v>6.5</v>
+      </c>
+      <c r="T55">
+        <v>1.29</v>
+      </c>
+      <c r="U55">
+        <v>3.5</v>
+      </c>
+      <c r="V55">
+        <v>2.25</v>
+      </c>
+      <c r="W55">
+        <v>1.57</v>
+      </c>
+      <c r="X55">
+        <v>5.5</v>
+      </c>
+      <c r="Y55">
+        <v>1.14</v>
+      </c>
+      <c r="Z55">
+        <v>1.38</v>
+      </c>
+      <c r="AA55">
+        <v>4.9</v>
+      </c>
+      <c r="AB55">
+        <v>7.2</v>
+      </c>
+      <c r="AC55">
+        <v>1.03</v>
+      </c>
+      <c r="AD55">
+        <v>12</v>
+      </c>
+      <c r="AE55">
+        <v>1.18</v>
+      </c>
+      <c r="AF55">
+        <v>5</v>
+      </c>
+      <c r="AG55">
+        <v>1.57</v>
+      </c>
+      <c r="AH55">
+        <v>2.25</v>
+      </c>
+      <c r="AI55">
+        <v>1.8</v>
+      </c>
+      <c r="AJ55">
+        <v>1.95</v>
+      </c>
+      <c r="AK55">
+        <v>1.08</v>
+      </c>
+      <c r="AL55">
+        <v>1.14</v>
+      </c>
+      <c r="AM55">
+        <v>2.95</v>
+      </c>
+      <c r="AN55">
+        <v>2.33</v>
+      </c>
+      <c r="AO55">
+        <v>1.33</v>
+      </c>
+      <c r="AP55">
+        <v>1.75</v>
+      </c>
+      <c r="AQ55">
+        <v>1.75</v>
+      </c>
+      <c r="AR55">
+        <v>2.33</v>
+      </c>
+      <c r="AS55">
+        <v>1.59</v>
+      </c>
+      <c r="AT55">
+        <v>3.92</v>
+      </c>
+      <c r="AU55">
+        <v>7</v>
+      </c>
+      <c r="AV55">
+        <v>7</v>
+      </c>
+      <c r="AW55">
+        <v>21</v>
+      </c>
+      <c r="AX55">
+        <v>7</v>
+      </c>
+      <c r="AY55">
+        <v>39</v>
+      </c>
+      <c r="AZ55">
+        <v>16</v>
+      </c>
+      <c r="BA55">
+        <v>7</v>
+      </c>
+      <c r="BB55">
+        <v>3</v>
+      </c>
+      <c r="BC55">
+        <v>10</v>
+      </c>
+      <c r="BD55">
+        <v>1.3</v>
+      </c>
+      <c r="BE55">
+        <v>8</v>
+      </c>
+      <c r="BF55">
+        <v>3.8</v>
+      </c>
+      <c r="BG55">
+        <v>1.16</v>
+      </c>
+      <c r="BH55">
+        <v>4.4</v>
+      </c>
+      <c r="BI55">
+        <v>1.29</v>
+      </c>
+      <c r="BJ55">
+        <v>3.2</v>
+      </c>
+      <c r="BK55">
+        <v>1.49</v>
+      </c>
+      <c r="BL55">
+        <v>2.43</v>
+      </c>
+      <c r="BM55">
+        <v>1.75</v>
+      </c>
+      <c r="BN55">
+        <v>1.95</v>
+      </c>
+      <c r="BO55">
+        <v>2.15</v>
+      </c>
+      <c r="BP55">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7779001</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45782.59027777778</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>126</v>
+      </c>
+      <c r="P56" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q56">
+        <v>2.5</v>
+      </c>
+      <c r="R56">
+        <v>2.2</v>
+      </c>
+      <c r="S56">
+        <v>4.33</v>
+      </c>
+      <c r="T56">
+        <v>1.36</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="V56">
+        <v>2.75</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56">
+        <v>8</v>
+      </c>
+      <c r="Y56">
+        <v>1.08</v>
+      </c>
+      <c r="Z56">
+        <v>1.86</v>
+      </c>
+      <c r="AA56">
+        <v>3.53</v>
+      </c>
+      <c r="AB56">
+        <v>4</v>
+      </c>
+      <c r="AC56">
+        <v>1.05</v>
+      </c>
+      <c r="AD56">
+        <v>10</v>
+      </c>
+      <c r="AE56">
+        <v>1.3</v>
+      </c>
+      <c r="AF56">
+        <v>3.55</v>
+      </c>
+      <c r="AG56">
+        <v>1.89</v>
+      </c>
+      <c r="AH56">
+        <v>1.85</v>
+      </c>
+      <c r="AI56">
+        <v>1.8</v>
+      </c>
+      <c r="AJ56">
+        <v>1.95</v>
+      </c>
+      <c r="AK56">
+        <v>1.25</v>
+      </c>
+      <c r="AL56">
+        <v>1.22</v>
+      </c>
+      <c r="AM56">
+        <v>1.85</v>
+      </c>
+      <c r="AN56">
+        <v>2.33</v>
+      </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>2.5</v>
+      </c>
+      <c r="AQ56">
+        <v>0.75</v>
+      </c>
+      <c r="AR56">
+        <v>1.76</v>
+      </c>
+      <c r="AS56">
+        <v>1.34</v>
+      </c>
+      <c r="AT56">
+        <v>3.1</v>
+      </c>
+      <c r="AU56">
+        <v>4</v>
+      </c>
+      <c r="AV56">
+        <v>2</v>
+      </c>
+      <c r="AW56">
+        <v>7</v>
+      </c>
+      <c r="AX56">
+        <v>18</v>
+      </c>
+      <c r="AY56">
+        <v>13</v>
+      </c>
+      <c r="AZ56">
+        <v>26</v>
+      </c>
+      <c r="BA56">
+        <v>6</v>
+      </c>
+      <c r="BB56">
+        <v>10</v>
+      </c>
+      <c r="BC56">
+        <v>16</v>
+      </c>
+      <c r="BD56">
+        <v>1.68</v>
+      </c>
+      <c r="BE56">
+        <v>6.75</v>
+      </c>
+      <c r="BF56">
+        <v>2.4</v>
+      </c>
+      <c r="BG56">
+        <v>1.19</v>
+      </c>
+      <c r="BH56">
+        <v>4.1</v>
+      </c>
+      <c r="BI56">
+        <v>1.33</v>
+      </c>
+      <c r="BJ56">
+        <v>2.95</v>
+      </c>
+      <c r="BK56">
+        <v>1.54</v>
+      </c>
+      <c r="BL56">
+        <v>2.3</v>
+      </c>
+      <c r="BM56">
+        <v>1.84</v>
+      </c>
+      <c r="BN56">
+        <v>1.84</v>
+      </c>
+      <c r="BO56">
+        <v>2.3</v>
+      </c>
+      <c r="BP56">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,12 @@
     <t>['39', '57']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['23', '81']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -494,6 +500,9 @@
   </si>
   <si>
     <t>['49', '52']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1123,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1732,7 +1741,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1938,7 +1947,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2144,7 +2153,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2350,7 +2359,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2556,7 +2565,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2634,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>2.5</v>
@@ -2843,7 +2852,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2968,7 +2977,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3046,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3255,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3380,7 +3389,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3586,7 +3595,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3664,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>1.75</v>
@@ -3873,7 +3882,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3998,7 +4007,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4204,7 +4213,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4410,7 +4419,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -5028,7 +5037,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5312,7 +5321,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5440,7 +5449,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5518,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1.75</v>
@@ -6058,7 +6067,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6264,7 +6273,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6551,7 +6560,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.64</v>
@@ -6676,7 +6685,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7088,7 +7097,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7166,10 +7175,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR31">
         <v>1.47</v>
@@ -7294,7 +7303,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7375,7 +7384,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -7912,7 +7921,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8118,7 +8127,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8324,7 +8333,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8530,7 +8539,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8814,7 +8823,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -9148,7 +9157,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9354,7 +9363,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9560,7 +9569,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9972,7 +9981,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>2.05</v>
@@ -10050,10 +10059,10 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.57</v>
@@ -10178,7 +10187,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10384,7 +10393,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10796,7 +10805,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11002,7 +11011,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11083,7 +11092,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -11414,7 +11423,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11495,7 +11504,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.74</v>
@@ -11620,7 +11629,7 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12032,7 +12041,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12395,6 +12404,624 @@
       </c>
       <c r="BP56">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7779010</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45787.41666666666</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>86</v>
+      </c>
+      <c r="P57" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q57">
+        <v>2.1</v>
+      </c>
+      <c r="R57">
+        <v>2.38</v>
+      </c>
+      <c r="S57">
+        <v>5.5</v>
+      </c>
+      <c r="T57">
+        <v>1.33</v>
+      </c>
+      <c r="U57">
+        <v>3.25</v>
+      </c>
+      <c r="V57">
+        <v>2.63</v>
+      </c>
+      <c r="W57">
+        <v>1.44</v>
+      </c>
+      <c r="X57">
+        <v>6.5</v>
+      </c>
+      <c r="Y57">
+        <v>1.11</v>
+      </c>
+      <c r="Z57">
+        <v>1.57</v>
+      </c>
+      <c r="AA57">
+        <v>3.71</v>
+      </c>
+      <c r="AB57">
+        <v>4.7</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>2.21</v>
+      </c>
+      <c r="AF57">
+        <v>1.7</v>
+      </c>
+      <c r="AG57">
+        <v>1.87</v>
+      </c>
+      <c r="AH57">
+        <v>1.83</v>
+      </c>
+      <c r="AI57">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57">
+        <v>1.95</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1.5</v>
+      </c>
+      <c r="AO57">
+        <v>0.33</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1.8</v>
+      </c>
+      <c r="AS57">
+        <v>0.93</v>
+      </c>
+      <c r="AT57">
+        <v>2.73</v>
+      </c>
+      <c r="AU57">
+        <v>2</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>5</v>
+      </c>
+      <c r="AX57">
+        <v>2</v>
+      </c>
+      <c r="AY57">
+        <v>13</v>
+      </c>
+      <c r="AZ57">
+        <v>7</v>
+      </c>
+      <c r="BA57">
+        <v>8</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>12</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7779011</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45787.52083333334</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>127</v>
+      </c>
+      <c r="P58" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q58">
+        <v>2.38</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>5</v>
+      </c>
+      <c r="T58">
+        <v>1.4</v>
+      </c>
+      <c r="U58">
+        <v>2.75</v>
+      </c>
+      <c r="V58">
+        <v>3</v>
+      </c>
+      <c r="W58">
+        <v>1.36</v>
+      </c>
+      <c r="X58">
+        <v>8</v>
+      </c>
+      <c r="Y58">
+        <v>1.08</v>
+      </c>
+      <c r="Z58">
+        <v>1.66</v>
+      </c>
+      <c r="AA58">
+        <v>3.52</v>
+      </c>
+      <c r="AB58">
+        <v>4.3</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>1.91</v>
+      </c>
+      <c r="AH58">
+        <v>1.79</v>
+      </c>
+      <c r="AI58">
+        <v>1.95</v>
+      </c>
+      <c r="AJ58">
+        <v>1.8</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1.33</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>1.25</v>
+      </c>
+      <c r="AQ58">
+        <v>0.25</v>
+      </c>
+      <c r="AR58">
+        <v>1.92</v>
+      </c>
+      <c r="AS58">
+        <v>1.94</v>
+      </c>
+      <c r="AT58">
+        <v>3.86</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>3</v>
+      </c>
+      <c r="AW58">
+        <v>16</v>
+      </c>
+      <c r="AX58">
+        <v>10</v>
+      </c>
+      <c r="AY58">
+        <v>29</v>
+      </c>
+      <c r="AZ58">
+        <v>18</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
+        <v>2</v>
+      </c>
+      <c r="BC58">
+        <v>8</v>
+      </c>
+      <c r="BD58">
+        <v>0</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
+      <c r="BJ58">
+        <v>0</v>
+      </c>
+      <c r="BK58">
+        <v>0</v>
+      </c>
+      <c r="BL58">
+        <v>0</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7779014</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45787.52083333334</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s">
+        <v>71</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>128</v>
+      </c>
+      <c r="P59" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q59">
+        <v>3.25</v>
+      </c>
+      <c r="R59">
+        <v>2.38</v>
+      </c>
+      <c r="S59">
+        <v>2.75</v>
+      </c>
+      <c r="T59">
+        <v>1.29</v>
+      </c>
+      <c r="U59">
+        <v>3.5</v>
+      </c>
+      <c r="V59">
+        <v>2.25</v>
+      </c>
+      <c r="W59">
+        <v>1.57</v>
+      </c>
+      <c r="X59">
+        <v>5.5</v>
+      </c>
+      <c r="Y59">
+        <v>1.14</v>
+      </c>
+      <c r="Z59">
+        <v>2.51</v>
+      </c>
+      <c r="AA59">
+        <v>3.18</v>
+      </c>
+      <c r="AB59">
+        <v>2.46</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>1.55</v>
+      </c>
+      <c r="AH59">
+        <v>2.2</v>
+      </c>
+      <c r="AI59">
+        <v>1.53</v>
+      </c>
+      <c r="AJ59">
+        <v>2.38</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>0.33</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>1.5</v>
+      </c>
+      <c r="AR59">
+        <v>1.46</v>
+      </c>
+      <c r="AS59">
+        <v>1.65</v>
+      </c>
+      <c r="AT59">
+        <v>3.11</v>
+      </c>
+      <c r="AU59">
+        <v>7</v>
+      </c>
+      <c r="AV59">
+        <v>11</v>
+      </c>
+      <c r="AW59">
+        <v>5</v>
+      </c>
+      <c r="AX59">
+        <v>9</v>
+      </c>
+      <c r="AY59">
+        <v>15</v>
+      </c>
+      <c r="AZ59">
+        <v>22</v>
+      </c>
+      <c r="BA59">
+        <v>5</v>
+      </c>
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>9</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>0</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,15 @@
     <t>['23', '81']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['23', '61']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -503,6 +512,9 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['7', '28', '49', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1135,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1204,7 +1216,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1613,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1741,7 +1753,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1822,7 +1834,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ5">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1947,7 +1959,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2153,7 +2165,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2359,7 +2371,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2565,7 +2577,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2977,7 +2989,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3261,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3389,7 +3401,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3467,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3595,7 +3607,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3879,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0.25</v>
@@ -4007,7 +4019,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4213,7 +4225,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4294,7 +4306,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4419,7 +4431,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4500,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>2.05</v>
@@ -4909,7 +4921,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5037,7 +5049,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5449,7 +5461,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5939,10 +5951,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6067,7 +6079,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6273,7 +6285,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6685,7 +6697,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6763,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.15</v>
@@ -6969,7 +6981,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ30">
         <v>2.5</v>
@@ -7097,7 +7109,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7303,7 +7315,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7793,10 +7805,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.98</v>
@@ -7921,7 +7933,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8127,7 +8139,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8208,7 +8220,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -8333,7 +8345,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8539,7 +8551,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9157,7 +9169,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9363,7 +9375,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9569,7 +9581,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9853,10 +9865,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -9981,7 +9993,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>2.05</v>
@@ -10187,7 +10199,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10393,7 +10405,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10805,7 +10817,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10883,7 +10895,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11011,7 +11023,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11423,7 +11435,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11629,7 +11641,7 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -11707,7 +11719,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ53">
         <v>1.75</v>
@@ -12041,7 +12053,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12659,7 +12671,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13022,6 +13034,830 @@
       </c>
       <c r="BP59">
         <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7779009</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45788.375</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>129</v>
+      </c>
+      <c r="P60" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q60">
+        <v>1.83</v>
+      </c>
+      <c r="R60">
+        <v>2.6</v>
+      </c>
+      <c r="S60">
+        <v>6.5</v>
+      </c>
+      <c r="T60">
+        <v>1.25</v>
+      </c>
+      <c r="U60">
+        <v>3.75</v>
+      </c>
+      <c r="V60">
+        <v>2.25</v>
+      </c>
+      <c r="W60">
+        <v>1.57</v>
+      </c>
+      <c r="X60">
+        <v>5.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.14</v>
+      </c>
+      <c r="Z60">
+        <v>1.4</v>
+      </c>
+      <c r="AA60">
+        <v>4.2</v>
+      </c>
+      <c r="AB60">
+        <v>5.9</v>
+      </c>
+      <c r="AC60">
+        <v>1.03</v>
+      </c>
+      <c r="AD60">
+        <v>12</v>
+      </c>
+      <c r="AE60">
+        <v>1.15</v>
+      </c>
+      <c r="AF60">
+        <v>5.5</v>
+      </c>
+      <c r="AG60">
+        <v>1.55</v>
+      </c>
+      <c r="AH60">
+        <v>2.2</v>
+      </c>
+      <c r="AI60">
+        <v>1.75</v>
+      </c>
+      <c r="AJ60">
+        <v>2</v>
+      </c>
+      <c r="AK60">
+        <v>1.1</v>
+      </c>
+      <c r="AL60">
+        <v>1.12</v>
+      </c>
+      <c r="AM60">
+        <v>2.85</v>
+      </c>
+      <c r="AN60">
+        <v>3</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>2.5</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1.9</v>
+      </c>
+      <c r="AS60">
+        <v>1.37</v>
+      </c>
+      <c r="AT60">
+        <v>3.27</v>
+      </c>
+      <c r="AU60">
+        <v>7</v>
+      </c>
+      <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
+        <v>15</v>
+      </c>
+      <c r="AX60">
+        <v>7</v>
+      </c>
+      <c r="AY60">
+        <v>30</v>
+      </c>
+      <c r="AZ60">
+        <v>13</v>
+      </c>
+      <c r="BA60">
+        <v>6</v>
+      </c>
+      <c r="BB60">
+        <v>2</v>
+      </c>
+      <c r="BC60">
+        <v>8</v>
+      </c>
+      <c r="BD60">
+        <v>1.22</v>
+      </c>
+      <c r="BE60">
+        <v>12</v>
+      </c>
+      <c r="BF60">
+        <v>4.4</v>
+      </c>
+      <c r="BG60">
+        <v>1.09</v>
+      </c>
+      <c r="BH60">
+        <v>5.3</v>
+      </c>
+      <c r="BI60">
+        <v>1.22</v>
+      </c>
+      <c r="BJ60">
+        <v>3.5</v>
+      </c>
+      <c r="BK60">
+        <v>1.41</v>
+      </c>
+      <c r="BL60">
+        <v>2.6</v>
+      </c>
+      <c r="BM60">
+        <v>1.75</v>
+      </c>
+      <c r="BN60">
+        <v>1.95</v>
+      </c>
+      <c r="BO60">
+        <v>2.14</v>
+      </c>
+      <c r="BP60">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7779008</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45788.375</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>130</v>
+      </c>
+      <c r="P61" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q61">
+        <v>3.1</v>
+      </c>
+      <c r="R61">
+        <v>1.95</v>
+      </c>
+      <c r="S61">
+        <v>4</v>
+      </c>
+      <c r="T61">
+        <v>1.57</v>
+      </c>
+      <c r="U61">
+        <v>2.25</v>
+      </c>
+      <c r="V61">
+        <v>3.75</v>
+      </c>
+      <c r="W61">
+        <v>1.25</v>
+      </c>
+      <c r="X61">
+        <v>11</v>
+      </c>
+      <c r="Y61">
+        <v>1.05</v>
+      </c>
+      <c r="Z61">
+        <v>2.23</v>
+      </c>
+      <c r="AA61">
+        <v>2.85</v>
+      </c>
+      <c r="AB61">
+        <v>3.11</v>
+      </c>
+      <c r="AC61">
+        <v>1.11</v>
+      </c>
+      <c r="AD61">
+        <v>6.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.48</v>
+      </c>
+      <c r="AF61">
+        <v>2.37</v>
+      </c>
+      <c r="AG61">
+        <v>2.31</v>
+      </c>
+      <c r="AH61">
+        <v>1.61</v>
+      </c>
+      <c r="AI61">
+        <v>2.2</v>
+      </c>
+      <c r="AJ61">
+        <v>1.62</v>
+      </c>
+      <c r="AK61">
+        <v>1.3</v>
+      </c>
+      <c r="AL61">
+        <v>1.3</v>
+      </c>
+      <c r="AM61">
+        <v>1.6</v>
+      </c>
+      <c r="AN61">
+        <v>2.33</v>
+      </c>
+      <c r="AO61">
+        <v>2.33</v>
+      </c>
+      <c r="AP61">
+        <v>2.5</v>
+      </c>
+      <c r="AQ61">
+        <v>1.75</v>
+      </c>
+      <c r="AR61">
+        <v>1.84</v>
+      </c>
+      <c r="AS61">
+        <v>1.46</v>
+      </c>
+      <c r="AT61">
+        <v>3.3</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>11</v>
+      </c>
+      <c r="AY61">
+        <v>10</v>
+      </c>
+      <c r="AZ61">
+        <v>17</v>
+      </c>
+      <c r="BA61">
+        <v>7</v>
+      </c>
+      <c r="BB61">
+        <v>6</v>
+      </c>
+      <c r="BC61">
+        <v>13</v>
+      </c>
+      <c r="BD61">
+        <v>1.7</v>
+      </c>
+      <c r="BE61">
+        <v>8.5</v>
+      </c>
+      <c r="BF61">
+        <v>2.38</v>
+      </c>
+      <c r="BG61">
+        <v>1.24</v>
+      </c>
+      <c r="BH61">
+        <v>3.34</v>
+      </c>
+      <c r="BI61">
+        <v>1.48</v>
+      </c>
+      <c r="BJ61">
+        <v>2.4</v>
+      </c>
+      <c r="BK61">
+        <v>1.85</v>
+      </c>
+      <c r="BL61">
+        <v>1.85</v>
+      </c>
+      <c r="BM61">
+        <v>2.38</v>
+      </c>
+      <c r="BN61">
+        <v>1.49</v>
+      </c>
+      <c r="BO61">
+        <v>3.14</v>
+      </c>
+      <c r="BP61">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7779013</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45788.47916666666</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>86</v>
+      </c>
+      <c r="P62" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q62">
+        <v>4.75</v>
+      </c>
+      <c r="R62">
+        <v>2.3</v>
+      </c>
+      <c r="S62">
+        <v>2.3</v>
+      </c>
+      <c r="T62">
+        <v>1.33</v>
+      </c>
+      <c r="U62">
+        <v>3.25</v>
+      </c>
+      <c r="V62">
+        <v>2.63</v>
+      </c>
+      <c r="W62">
+        <v>1.44</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.11</v>
+      </c>
+      <c r="Z62">
+        <v>3.87</v>
+      </c>
+      <c r="AA62">
+        <v>3.83</v>
+      </c>
+      <c r="AB62">
+        <v>1.67</v>
+      </c>
+      <c r="AC62">
+        <v>1.05</v>
+      </c>
+      <c r="AD62">
+        <v>10</v>
+      </c>
+      <c r="AE62">
+        <v>1.28</v>
+      </c>
+      <c r="AF62">
+        <v>3.8</v>
+      </c>
+      <c r="AG62">
+        <v>1.58</v>
+      </c>
+      <c r="AH62">
+        <v>2.23</v>
+      </c>
+      <c r="AI62">
+        <v>1.75</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>1.95</v>
+      </c>
+      <c r="AL62">
+        <v>1.22</v>
+      </c>
+      <c r="AM62">
+        <v>1.22</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>0.75</v>
+      </c>
+      <c r="AQ62">
+        <v>1.5</v>
+      </c>
+      <c r="AR62">
+        <v>1.23</v>
+      </c>
+      <c r="AS62">
+        <v>1.22</v>
+      </c>
+      <c r="AT62">
+        <v>2.45</v>
+      </c>
+      <c r="AU62">
+        <v>2</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62">
+        <v>3</v>
+      </c>
+      <c r="AX62">
+        <v>15</v>
+      </c>
+      <c r="AY62">
+        <v>7</v>
+      </c>
+      <c r="AZ62">
+        <v>27</v>
+      </c>
+      <c r="BA62">
+        <v>9</v>
+      </c>
+      <c r="BB62">
+        <v>9</v>
+      </c>
+      <c r="BC62">
+        <v>18</v>
+      </c>
+      <c r="BD62">
+        <v>2.62</v>
+      </c>
+      <c r="BE62">
+        <v>9</v>
+      </c>
+      <c r="BF62">
+        <v>1.57</v>
+      </c>
+      <c r="BG62">
+        <v>1.12</v>
+      </c>
+      <c r="BH62">
+        <v>4.7</v>
+      </c>
+      <c r="BI62">
+        <v>1.27</v>
+      </c>
+      <c r="BJ62">
+        <v>3.14</v>
+      </c>
+      <c r="BK62">
+        <v>1.5</v>
+      </c>
+      <c r="BL62">
+        <v>2.35</v>
+      </c>
+      <c r="BM62">
+        <v>1.8</v>
+      </c>
+      <c r="BN62">
+        <v>1.91</v>
+      </c>
+      <c r="BO62">
+        <v>2.38</v>
+      </c>
+      <c r="BP62">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7779015</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45788.47916666666</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>83</v>
+      </c>
+      <c r="H63" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>131</v>
+      </c>
+      <c r="P63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q63">
+        <v>6</v>
+      </c>
+      <c r="R63">
+        <v>2.25</v>
+      </c>
+      <c r="S63">
+        <v>2.1</v>
+      </c>
+      <c r="T63">
+        <v>1.4</v>
+      </c>
+      <c r="U63">
+        <v>2.75</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63">
+        <v>8</v>
+      </c>
+      <c r="Y63">
+        <v>1.08</v>
+      </c>
+      <c r="Z63">
+        <v>5</v>
+      </c>
+      <c r="AA63">
+        <v>3.81</v>
+      </c>
+      <c r="AB63">
+        <v>1.52</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>1.28</v>
+      </c>
+      <c r="AF63">
+        <v>3.65</v>
+      </c>
+      <c r="AG63">
+        <v>1.81</v>
+      </c>
+      <c r="AH63">
+        <v>1.89</v>
+      </c>
+      <c r="AI63">
+        <v>2</v>
+      </c>
+      <c r="AJ63">
+        <v>1.75</v>
+      </c>
+      <c r="AK63">
+        <v>2.3</v>
+      </c>
+      <c r="AL63">
+        <v>1.18</v>
+      </c>
+      <c r="AM63">
+        <v>1.14</v>
+      </c>
+      <c r="AN63">
+        <v>1.33</v>
+      </c>
+      <c r="AO63">
+        <v>1.33</v>
+      </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
+      <c r="AQ63">
+        <v>1.75</v>
+      </c>
+      <c r="AR63">
+        <v>1.61</v>
+      </c>
+      <c r="AS63">
+        <v>1.08</v>
+      </c>
+      <c r="AT63">
+        <v>2.69</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>10</v>
+      </c>
+      <c r="AW63">
+        <v>14</v>
+      </c>
+      <c r="AX63">
+        <v>8</v>
+      </c>
+      <c r="AY63">
+        <v>18</v>
+      </c>
+      <c r="AZ63">
+        <v>22</v>
+      </c>
+      <c r="BA63">
+        <v>4</v>
+      </c>
+      <c r="BB63">
+        <v>13</v>
+      </c>
+      <c r="BC63">
+        <v>17</v>
+      </c>
+      <c r="BD63">
+        <v>3.2</v>
+      </c>
+      <c r="BE63">
+        <v>9.5</v>
+      </c>
+      <c r="BF63">
+        <v>1.4</v>
+      </c>
+      <c r="BG63">
+        <v>1.14</v>
+      </c>
+      <c r="BH63">
+        <v>4.4</v>
+      </c>
+      <c r="BI63">
+        <v>1.3</v>
+      </c>
+      <c r="BJ63">
+        <v>2.97</v>
+      </c>
+      <c r="BK63">
+        <v>1.56</v>
+      </c>
+      <c r="BL63">
+        <v>2.21</v>
+      </c>
+      <c r="BM63">
+        <v>1.85</v>
+      </c>
+      <c r="BN63">
+        <v>1.83</v>
+      </c>
+      <c r="BO63">
+        <v>2.5</v>
+      </c>
+      <c r="BP63">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -12558,7 +12558,7 @@
         <v>2.73</v>
       </c>
       <c r="AU57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV57">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="169">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,9 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -515,6 +518,9 @@
   </si>
   <si>
     <t>['7', '28', '49', '90+1']</t>
+  </si>
+  <si>
+    <t>['4', '77']</t>
   </si>
 </sst>
 </file>
@@ -876,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1135,7 +1141,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1753,7 +1759,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1959,7 +1965,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2165,7 +2171,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2371,7 +2377,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2577,7 +2583,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2861,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2989,7 +2995,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3070,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3401,7 +3407,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3607,7 +3613,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4019,7 +4025,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4225,7 +4231,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4431,7 +4437,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4924,7 +4930,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>2.25</v>
@@ -5049,7 +5055,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5461,7 +5467,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -6079,7 +6085,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>1.72</v>
@@ -6285,7 +6291,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6697,7 +6703,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7109,7 +7115,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7315,7 +7321,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7393,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7933,7 +7939,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8139,7 +8145,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8345,7 +8351,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8551,7 +8557,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9169,7 +9175,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9375,7 +9381,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9581,7 +9587,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9993,7 +9999,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>2.05</v>
@@ -10199,7 +10205,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10405,7 +10411,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10483,7 +10489,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>0.75</v>
@@ -10817,7 +10823,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11023,7 +11029,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11435,7 +11441,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11641,7 +11647,7 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12053,7 +12059,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12671,7 +12677,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13083,7 +13089,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q60">
         <v>1.83</v>
@@ -13194,13 +13200,13 @@
         <v>13</v>
       </c>
       <c r="BA60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB60">
         <v>2</v>
       </c>
       <c r="BC60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD60">
         <v>1.22</v>
@@ -13289,7 +13295,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13495,7 +13501,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q62">
         <v>4.75</v>
@@ -13701,7 +13707,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13858,6 +13864,212 @@
       </c>
       <c r="BP63">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7779012</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45789.59027777778</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s">
+        <v>70</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>132</v>
+      </c>
+      <c r="P64" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>2.1</v>
+      </c>
+      <c r="S64">
+        <v>3.75</v>
+      </c>
+      <c r="T64">
+        <v>1.44</v>
+      </c>
+      <c r="U64">
+        <v>2.63</v>
+      </c>
+      <c r="V64">
+        <v>3.25</v>
+      </c>
+      <c r="W64">
+        <v>1.33</v>
+      </c>
+      <c r="X64">
+        <v>9</v>
+      </c>
+      <c r="Y64">
+        <v>1.07</v>
+      </c>
+      <c r="Z64">
+        <v>2.3</v>
+      </c>
+      <c r="AA64">
+        <v>3.09</v>
+      </c>
+      <c r="AB64">
+        <v>2.77</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>8.4</v>
+      </c>
+      <c r="AE64">
+        <v>1.34</v>
+      </c>
+      <c r="AF64">
+        <v>3.26</v>
+      </c>
+      <c r="AG64">
+        <v>1.95</v>
+      </c>
+      <c r="AH64">
+        <v>1.75</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.91</v>
+      </c>
+      <c r="AK64">
+        <v>1.36</v>
+      </c>
+      <c r="AL64">
+        <v>1.28</v>
+      </c>
+      <c r="AM64">
+        <v>1.57</v>
+      </c>
+      <c r="AN64">
+        <v>1.33</v>
+      </c>
+      <c r="AO64">
+        <v>1.5</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
+        <v>2</v>
+      </c>
+      <c r="AR64">
+        <v>1.67</v>
+      </c>
+      <c r="AS64">
+        <v>1.51</v>
+      </c>
+      <c r="AT64">
+        <v>3.18</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>5</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
+        <v>2</v>
+      </c>
+      <c r="AY64">
+        <v>14</v>
+      </c>
+      <c r="AZ64">
+        <v>7</v>
+      </c>
+      <c r="BA64">
+        <v>5</v>
+      </c>
+      <c r="BB64">
+        <v>1</v>
+      </c>
+      <c r="BC64">
+        <v>6</v>
+      </c>
+      <c r="BD64">
+        <v>1.83</v>
+      </c>
+      <c r="BE64">
+        <v>8.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.15</v>
+      </c>
+      <c r="BG64">
+        <v>1.16</v>
+      </c>
+      <c r="BH64">
+        <v>4.05</v>
+      </c>
+      <c r="BI64">
+        <v>1.34</v>
+      </c>
+      <c r="BJ64">
+        <v>2.78</v>
+      </c>
+      <c r="BK64">
+        <v>1.63</v>
+      </c>
+      <c r="BL64">
+        <v>2.09</v>
+      </c>
+      <c r="BM64">
+        <v>2.05</v>
+      </c>
+      <c r="BN64">
+        <v>1.7</v>
+      </c>
+      <c r="BO64">
+        <v>2.67</v>
+      </c>
+      <c r="BP64">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -322,12 +322,12 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['7', '33', '45+1']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
-    <t>['7', '33', '45+1']</t>
-  </si>
-  <si>
     <t>['59', '61', '90+1']</t>
   </si>
   <si>
@@ -352,27 +352,27 @@
     <t>['80']</t>
   </si>
   <si>
+    <t>['41', '45+1']</t>
+  </si>
+  <si>
     <t>['58']</t>
   </si>
   <si>
     <t>['87']</t>
   </si>
   <si>
-    <t>['41', '45+1']</t>
-  </si>
-  <si>
     <t>['2', '17', '31', '54']</t>
   </si>
   <si>
     <t>['3', '19']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
     <t>['31']</t>
   </si>
   <si>
-    <t>['47']</t>
-  </si>
-  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -403,12 +403,12 @@
     <t>['23', '81']</t>
   </si>
   <si>
+    <t>['23', '61']</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
-    <t>['23', '61']</t>
-  </si>
-  <si>
     <t>['53']</t>
   </si>
   <si>
@@ -457,12 +457,12 @@
     <t>['54', '81', '90+4']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['10']</t>
   </si>
   <si>
-    <t>['17']</t>
-  </si>
-  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -490,10 +490,10 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['30', '33', '51']</t>
+  </si>
+  <si>
     <t>['28']</t>
-  </si>
-  <si>
-    <t>['30', '33', '51']</t>
   </si>
   <si>
     <t>['15']</t>
@@ -6043,7 +6043,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7778980</v>
+        <v>7778981</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6058,28 +6058,28 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O26" t="s">
         <v>102</v>
@@ -6088,160 +6088,160 @@
         <v>147</v>
       </c>
       <c r="Q26">
-        <v>1.72</v>
+        <v>3.2</v>
       </c>
       <c r="R26">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="S26">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="T26">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="U26">
-        <v>3.7</v>
+        <v>2.75</v>
       </c>
       <c r="V26">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="W26">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="X26">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="Y26">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="Z26">
-        <v>1.31</v>
+        <v>2.63</v>
       </c>
       <c r="AA26">
-        <v>5.4</v>
+        <v>3.41</v>
       </c>
       <c r="AB26">
-        <v>8.300000000000001</v>
+        <v>2.52</v>
       </c>
       <c r="AC26">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD26">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AE26">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AF26">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="AG26">
+        <v>1.95</v>
+      </c>
+      <c r="AH26">
+        <v>1.79</v>
+      </c>
+      <c r="AI26">
+        <v>1.7</v>
+      </c>
+      <c r="AJ26">
+        <v>2.05</v>
+      </c>
+      <c r="AK26">
+        <v>1.49</v>
+      </c>
+      <c r="AL26">
+        <v>1.3</v>
+      </c>
+      <c r="AM26">
         <v>1.46</v>
       </c>
-      <c r="AH26">
-        <v>2.6</v>
-      </c>
-      <c r="AI26">
-        <v>1.8</v>
-      </c>
-      <c r="AJ26">
-        <v>1.88</v>
-      </c>
-      <c r="AK26">
-        <v>1.08</v>
-      </c>
-      <c r="AL26">
-        <v>1.15</v>
-      </c>
-      <c r="AM26">
-        <v>3.25</v>
-      </c>
       <c r="AN26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
+        <v>2.5</v>
+      </c>
+      <c r="AQ26">
         <v>1.75</v>
       </c>
-      <c r="AQ26">
-        <v>1.25</v>
-      </c>
       <c r="AR26">
-        <v>2.77</v>
+        <v>1.49</v>
       </c>
       <c r="AS26">
-        <v>1.03</v>
+        <v>2.29</v>
       </c>
       <c r="AT26">
-        <v>3.8</v>
+        <v>3.78</v>
       </c>
       <c r="AU26">
+        <v>6</v>
+      </c>
+      <c r="AV26">
+        <v>6</v>
+      </c>
+      <c r="AW26">
+        <v>5</v>
+      </c>
+      <c r="AX26">
+        <v>9</v>
+      </c>
+      <c r="AY26">
+        <v>12</v>
+      </c>
+      <c r="AZ26">
+        <v>19</v>
+      </c>
+      <c r="BA26">
+        <v>3</v>
+      </c>
+      <c r="BB26">
+        <v>4</v>
+      </c>
+      <c r="BC26">
         <v>7</v>
       </c>
-      <c r="AV26">
-        <v>2</v>
-      </c>
-      <c r="AW26">
-        <v>13</v>
-      </c>
-      <c r="AX26">
-        <v>5</v>
-      </c>
-      <c r="AY26">
-        <v>29</v>
-      </c>
-      <c r="AZ26">
-        <v>11</v>
-      </c>
-      <c r="BA26">
-        <v>9</v>
-      </c>
-      <c r="BB26">
-        <v>3</v>
-      </c>
-      <c r="BC26">
-        <v>12</v>
-      </c>
       <c r="BD26">
+        <v>2.18</v>
+      </c>
+      <c r="BE26">
+        <v>6.75</v>
+      </c>
+      <c r="BF26">
+        <v>1.79</v>
+      </c>
+      <c r="BG26">
+        <v>1.15</v>
+      </c>
+      <c r="BH26">
+        <v>4.6</v>
+      </c>
+      <c r="BI26">
         <v>1.27</v>
       </c>
-      <c r="BE26">
-        <v>8.5</v>
-      </c>
-      <c r="BF26">
-        <v>3.95</v>
-      </c>
-      <c r="BG26">
-        <v>1.14</v>
-      </c>
-      <c r="BH26">
-        <v>4.8</v>
-      </c>
-      <c r="BI26">
-        <v>1.25</v>
-      </c>
       <c r="BJ26">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BK26">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="BL26">
         <v>2.55</v>
       </c>
       <c r="BM26">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="BN26">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BO26">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="BP26">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6249,7 +6249,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7778981</v>
+        <v>7778980</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6264,28 +6264,28 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O27" t="s">
         <v>103</v>
@@ -6294,160 +6294,160 @@
         <v>148</v>
       </c>
       <c r="Q27">
-        <v>3.2</v>
+        <v>1.72</v>
       </c>
       <c r="R27">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="S27">
+        <v>6.5</v>
+      </c>
+      <c r="T27">
+        <v>1.24</v>
+      </c>
+      <c r="U27">
+        <v>3.7</v>
+      </c>
+      <c r="V27">
+        <v>2.1</v>
+      </c>
+      <c r="W27">
+        <v>1.65</v>
+      </c>
+      <c r="X27">
+        <v>4.6</v>
+      </c>
+      <c r="Y27">
+        <v>1.17</v>
+      </c>
+      <c r="Z27">
+        <v>1.31</v>
+      </c>
+      <c r="AA27">
+        <v>5.4</v>
+      </c>
+      <c r="AB27">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AC27">
+        <v>1.01</v>
+      </c>
+      <c r="AD27">
+        <v>17</v>
+      </c>
+      <c r="AE27">
+        <v>1.17</v>
+      </c>
+      <c r="AF27">
+        <v>5.25</v>
+      </c>
+      <c r="AG27">
+        <v>1.46</v>
+      </c>
+      <c r="AH27">
+        <v>2.6</v>
+      </c>
+      <c r="AI27">
+        <v>1.8</v>
+      </c>
+      <c r="AJ27">
+        <v>1.88</v>
+      </c>
+      <c r="AK27">
+        <v>1.08</v>
+      </c>
+      <c r="AL27">
+        <v>1.15</v>
+      </c>
+      <c r="AM27">
         <v>3.25</v>
       </c>
-      <c r="T27">
-        <v>1.4</v>
-      </c>
-      <c r="U27">
-        <v>2.75</v>
-      </c>
-      <c r="V27">
-        <v>2.75</v>
-      </c>
-      <c r="W27">
-        <v>1.4</v>
-      </c>
-      <c r="X27">
-        <v>8</v>
-      </c>
-      <c r="Y27">
-        <v>1.08</v>
-      </c>
-      <c r="Z27">
-        <v>2.63</v>
-      </c>
-      <c r="AA27">
-        <v>3.41</v>
-      </c>
-      <c r="AB27">
-        <v>2.52</v>
-      </c>
-      <c r="AC27">
-        <v>1.06</v>
-      </c>
-      <c r="AD27">
-        <v>9.5</v>
-      </c>
-      <c r="AE27">
-        <v>1.3</v>
-      </c>
-      <c r="AF27">
-        <v>3.5</v>
-      </c>
-      <c r="AG27">
-        <v>1.95</v>
-      </c>
-      <c r="AH27">
-        <v>1.79</v>
-      </c>
-      <c r="AI27">
-        <v>1.7</v>
-      </c>
-      <c r="AJ27">
-        <v>2.05</v>
-      </c>
-      <c r="AK27">
-        <v>1.49</v>
-      </c>
-      <c r="AL27">
-        <v>1.3</v>
-      </c>
-      <c r="AM27">
-        <v>1.46</v>
-      </c>
       <c r="AN27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO27">
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
-        <v>1.49</v>
+        <v>2.77</v>
       </c>
       <c r="AS27">
-        <v>2.29</v>
+        <v>1.03</v>
       </c>
       <c r="AT27">
-        <v>3.78</v>
+        <v>3.8</v>
       </c>
       <c r="AU27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW27">
+        <v>13</v>
+      </c>
+      <c r="AX27">
         <v>5</v>
       </c>
-      <c r="AX27">
+      <c r="AY27">
+        <v>29</v>
+      </c>
+      <c r="AZ27">
+        <v>11</v>
+      </c>
+      <c r="BA27">
         <v>9</v>
       </c>
-      <c r="AY27">
+      <c r="BB27">
+        <v>3</v>
+      </c>
+      <c r="BC27">
         <v>12</v>
       </c>
-      <c r="AZ27">
-        <v>19</v>
-      </c>
-      <c r="BA27">
-        <v>3</v>
-      </c>
-      <c r="BB27">
-        <v>4</v>
-      </c>
-      <c r="BC27">
-        <v>7</v>
-      </c>
       <c r="BD27">
-        <v>2.18</v>
+        <v>1.27</v>
       </c>
       <c r="BE27">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="BF27">
-        <v>1.79</v>
+        <v>3.95</v>
       </c>
       <c r="BG27">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="BH27">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BI27">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BJ27">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BK27">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="BL27">
         <v>2.55</v>
       </c>
       <c r="BM27">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="BN27">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BO27">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="BP27">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6455,7 +6455,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7778982</v>
+        <v>7778983</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6470,10 +6470,10 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -6485,55 +6485,55 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
         <v>2.15</v>
       </c>
-      <c r="R28">
-        <v>2.25</v>
-      </c>
       <c r="S28">
-        <v>4.6</v>
+        <v>2.45</v>
       </c>
       <c r="T28">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U28">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="V28">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="W28">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="X28">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="Y28">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Z28">
-        <v>1.61</v>
+        <v>3.86</v>
       </c>
       <c r="AA28">
-        <v>4</v>
+        <v>3.71</v>
       </c>
       <c r="AB28">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="AC28">
         <v>1.05</v>
@@ -6542,31 +6542,31 @@
         <v>10</v>
       </c>
       <c r="AE28">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF28">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="AG28">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AH28">
+        <v>1.92</v>
+      </c>
+      <c r="AI28">
+        <v>1.75</v>
+      </c>
+      <c r="AJ28">
         <v>1.95</v>
       </c>
-      <c r="AI28">
-        <v>1.78</v>
-      </c>
-      <c r="AJ28">
-        <v>1.9</v>
-      </c>
       <c r="AK28">
-        <v>1.18</v>
+        <v>1.85</v>
       </c>
       <c r="AL28">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AM28">
-        <v>2.2</v>
+        <v>1.26</v>
       </c>
       <c r="AN28">
         <v>3</v>
@@ -6575,55 +6575,55 @@
         <v>0</v>
       </c>
       <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
         <v>1.5</v>
       </c>
-      <c r="AQ28">
-        <v>1</v>
-      </c>
       <c r="AR28">
-        <v>1.64</v>
+        <v>1.15</v>
       </c>
       <c r="AS28">
-        <v>0.54</v>
+        <v>0.84</v>
       </c>
       <c r="AT28">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="AU28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ28">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BB28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD28">
-        <v>1.54</v>
+        <v>2.1</v>
       </c>
       <c r="BE28">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF28">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="BG28">
         <v>1.24</v>
@@ -6632,28 +6632,28 @@
         <v>3.55</v>
       </c>
       <c r="BI28">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="BJ28">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="BK28">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="BL28">
         <v>2</v>
       </c>
       <c r="BM28">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="BN28">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="BO28">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="BP28">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6661,7 +6661,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7778983</v>
+        <v>7778982</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -6676,10 +6676,10 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -6691,55 +6691,55 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29" t="s">
+        <v>104</v>
+      </c>
+      <c r="P29" t="s">
         <v>86</v>
       </c>
-      <c r="P29" t="s">
-        <v>149</v>
-      </c>
       <c r="Q29">
+        <v>2.15</v>
+      </c>
+      <c r="R29">
+        <v>2.25</v>
+      </c>
+      <c r="S29">
+        <v>4.6</v>
+      </c>
+      <c r="T29">
+        <v>1.33</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>2.55</v>
+      </c>
+      <c r="W29">
+        <v>1.46</v>
+      </c>
+      <c r="X29">
+        <v>6.25</v>
+      </c>
+      <c r="Y29">
+        <v>1.1</v>
+      </c>
+      <c r="Z29">
+        <v>1.61</v>
+      </c>
+      <c r="AA29">
         <v>4</v>
       </c>
-      <c r="R29">
-        <v>2.15</v>
-      </c>
-      <c r="S29">
-        <v>2.45</v>
-      </c>
-      <c r="T29">
-        <v>1.36</v>
-      </c>
-      <c r="U29">
-        <v>2.9</v>
-      </c>
-      <c r="V29">
-        <v>2.65</v>
-      </c>
-      <c r="W29">
-        <v>1.41</v>
-      </c>
-      <c r="X29">
-        <v>6.75</v>
-      </c>
-      <c r="Y29">
-        <v>1.09</v>
-      </c>
-      <c r="Z29">
-        <v>3.86</v>
-      </c>
-      <c r="AA29">
-        <v>3.71</v>
-      </c>
       <c r="AB29">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="AC29">
         <v>1.05</v>
@@ -6748,31 +6748,31 @@
         <v>10</v>
       </c>
       <c r="AE29">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF29">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AG29">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AH29">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AI29">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AJ29">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AK29">
-        <v>1.85</v>
+        <v>1.18</v>
       </c>
       <c r="AL29">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AM29">
-        <v>1.26</v>
+        <v>2.2</v>
       </c>
       <c r="AN29">
         <v>3</v>
@@ -6781,55 +6781,55 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>1.15</v>
+        <v>1.64</v>
       </c>
       <c r="AS29">
-        <v>0.84</v>
+        <v>0.54</v>
       </c>
       <c r="AT29">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="AU29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AY29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ29">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BA29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD29">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="BE29">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF29">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="BG29">
         <v>1.24</v>
@@ -6838,28 +6838,28 @@
         <v>3.55</v>
       </c>
       <c r="BI29">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="BJ29">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="BK29">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="BL29">
         <v>2</v>
       </c>
       <c r="BM29">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="BN29">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="BO29">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="BP29">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -8721,7 +8721,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7778987</v>
+        <v>7778989</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8736,43 +8736,43 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O39" t="s">
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="Q39">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R39">
         <v>2.25</v>
       </c>
       <c r="S39">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="T39">
         <v>1.33</v>
@@ -8793,133 +8793,133 @@
         <v>1.11</v>
       </c>
       <c r="Z39">
-        <v>1.91</v>
+        <v>2.58</v>
       </c>
       <c r="AA39">
-        <v>3.59</v>
+        <v>3.67</v>
       </c>
       <c r="AB39">
-        <v>3.74</v>
+        <v>2.44</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AD39">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="AE39">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AF39">
-        <v>3.84</v>
+        <v>4.4</v>
       </c>
       <c r="AG39">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AH39">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="AI39">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AJ39">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK39">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AL39">
         <v>1.25</v>
       </c>
       <c r="AM39">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="AN39">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO39">
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AS39">
-        <v>1.58</v>
+        <v>0.86</v>
       </c>
       <c r="AT39">
-        <v>3.46</v>
+        <v>2.58</v>
       </c>
       <c r="AU39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW39">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AX39">
+        <v>13</v>
+      </c>
+      <c r="AY39">
+        <v>20</v>
+      </c>
+      <c r="AZ39">
+        <v>22</v>
+      </c>
+      <c r="BA39">
         <v>5</v>
       </c>
-      <c r="AY39">
-        <v>28</v>
-      </c>
-      <c r="AZ39">
-        <v>14</v>
-      </c>
-      <c r="BA39">
-        <v>12</v>
-      </c>
       <c r="BB39">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BC39">
         <v>16</v>
       </c>
       <c r="BD39">
-        <v>1.6</v>
+        <v>2.07</v>
       </c>
       <c r="BE39">
-        <v>9.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="BF39">
-        <v>2.77</v>
+        <v>1.89</v>
       </c>
       <c r="BG39">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="BH39">
-        <v>5.15</v>
+        <v>4.6</v>
       </c>
       <c r="BI39">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BJ39">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="BK39">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="BL39">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="BM39">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="BN39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BO39">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="BP39">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -8927,7 +8927,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7778984</v>
+        <v>7778987</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8942,178 +8942,178 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" t="s">
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="Q40">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="R40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T40">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U40">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V40">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W40">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X40">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y40">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z40">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="AA40">
-        <v>4.7</v>
+        <v>3.59</v>
       </c>
       <c r="AB40">
-        <v>6.2</v>
+        <v>3.74</v>
       </c>
       <c r="AC40">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="AD40">
-        <v>14.4</v>
+        <v>11.8</v>
       </c>
       <c r="AE40">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF40">
-        <v>4.8</v>
+        <v>3.84</v>
       </c>
       <c r="AG40">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AH40">
-        <v>2.25</v>
+        <v>1.94</v>
       </c>
       <c r="AI40">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AJ40">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK40">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AL40">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AM40">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="AN40">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP40">
         <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
+        <v>1.88</v>
+      </c>
+      <c r="AS40">
+        <v>1.58</v>
+      </c>
+      <c r="AT40">
+        <v>3.46</v>
+      </c>
+      <c r="AU40">
+        <v>3</v>
+      </c>
+      <c r="AV40">
+        <v>8</v>
+      </c>
+      <c r="AW40">
+        <v>18</v>
+      </c>
+      <c r="AX40">
+        <v>5</v>
+      </c>
+      <c r="AY40">
+        <v>28</v>
+      </c>
+      <c r="AZ40">
+        <v>14</v>
+      </c>
+      <c r="BA40">
+        <v>12</v>
+      </c>
+      <c r="BB40">
+        <v>4</v>
+      </c>
+      <c r="BC40">
+        <v>16</v>
+      </c>
+      <c r="BD40">
+        <v>1.6</v>
+      </c>
+      <c r="BE40">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF40">
+        <v>2.77</v>
+      </c>
+      <c r="BG40">
+        <v>1.1</v>
+      </c>
+      <c r="BH40">
+        <v>5.15</v>
+      </c>
+      <c r="BI40">
+        <v>1.23</v>
+      </c>
+      <c r="BJ40">
+        <v>3.42</v>
+      </c>
+      <c r="BK40">
         <v>1.44</v>
       </c>
-      <c r="AS40">
-        <v>1</v>
-      </c>
-      <c r="AT40">
-        <v>2.44</v>
-      </c>
-      <c r="AU40">
-        <v>9</v>
-      </c>
-      <c r="AV40">
-        <v>0</v>
-      </c>
-      <c r="AW40">
-        <v>16</v>
-      </c>
-      <c r="AX40">
-        <v>6</v>
-      </c>
-      <c r="AY40">
-        <v>29</v>
-      </c>
-      <c r="AZ40">
-        <v>8</v>
-      </c>
-      <c r="BA40">
-        <v>15</v>
-      </c>
-      <c r="BB40">
-        <v>3</v>
-      </c>
-      <c r="BC40">
-        <v>18</v>
-      </c>
-      <c r="BD40">
-        <v>1.27</v>
-      </c>
-      <c r="BE40">
-        <v>11.25</v>
-      </c>
-      <c r="BF40">
-        <v>4.6</v>
-      </c>
-      <c r="BG40">
-        <v>1.09</v>
-      </c>
-      <c r="BH40">
-        <v>5.25</v>
-      </c>
-      <c r="BI40">
-        <v>1.22</v>
-      </c>
-      <c r="BJ40">
-        <v>3.5</v>
-      </c>
-      <c r="BK40">
-        <v>1.43</v>
-      </c>
       <c r="BL40">
-        <v>2.54</v>
+        <v>2.51</v>
       </c>
       <c r="BM40">
         <v>1.77</v>
@@ -9122,10 +9122,10 @@
         <v>1.95</v>
       </c>
       <c r="BO40">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="BP40">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9133,7 +9133,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7778989</v>
+        <v>7778984</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9148,190 +9148,190 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O41" t="s">
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="Q41">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="R41">
+        <v>2.5</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>1.29</v>
+      </c>
+      <c r="U41">
+        <v>3.5</v>
+      </c>
+      <c r="V41">
+        <v>2.38</v>
+      </c>
+      <c r="W41">
+        <v>1.53</v>
+      </c>
+      <c r="X41">
+        <v>5.5</v>
+      </c>
+      <c r="Y41">
+        <v>1.14</v>
+      </c>
+      <c r="Z41">
+        <v>1.44</v>
+      </c>
+      <c r="AA41">
+        <v>4.7</v>
+      </c>
+      <c r="AB41">
+        <v>6.2</v>
+      </c>
+      <c r="AC41">
+        <v>1.02</v>
+      </c>
+      <c r="AD41">
+        <v>14.4</v>
+      </c>
+      <c r="AE41">
+        <v>1.12</v>
+      </c>
+      <c r="AF41">
+        <v>4.8</v>
+      </c>
+      <c r="AG41">
+        <v>1.53</v>
+      </c>
+      <c r="AH41">
         <v>2.25</v>
       </c>
-      <c r="S41">
-        <v>3.2</v>
-      </c>
-      <c r="T41">
-        <v>1.33</v>
-      </c>
-      <c r="U41">
-        <v>3.25</v>
-      </c>
-      <c r="V41">
-        <v>2.63</v>
-      </c>
-      <c r="W41">
+      <c r="AI41">
+        <v>1.75</v>
+      </c>
+      <c r="AJ41">
+        <v>2</v>
+      </c>
+      <c r="AK41">
+        <v>1.11</v>
+      </c>
+      <c r="AL41">
+        <v>1.14</v>
+      </c>
+      <c r="AM41">
+        <v>2.75</v>
+      </c>
+      <c r="AN41">
+        <v>0.5</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>1.25</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
         <v>1.44</v>
       </c>
-      <c r="X41">
-        <v>6.5</v>
-      </c>
-      <c r="Y41">
-        <v>1.11</v>
-      </c>
-      <c r="Z41">
-        <v>2.58</v>
-      </c>
-      <c r="AA41">
-        <v>3.67</v>
-      </c>
-      <c r="AB41">
+      <c r="AS41">
+        <v>1</v>
+      </c>
+      <c r="AT41">
         <v>2.44</v>
       </c>
-      <c r="AC41">
-        <v>1.01</v>
-      </c>
-      <c r="AD41">
-        <v>12.5</v>
-      </c>
-      <c r="AE41">
-        <v>1.14</v>
-      </c>
-      <c r="AF41">
-        <v>4.4</v>
-      </c>
-      <c r="AG41">
-        <v>1.72</v>
-      </c>
-      <c r="AH41">
-        <v>2.05</v>
-      </c>
-      <c r="AI41">
-        <v>1.57</v>
-      </c>
-      <c r="AJ41">
-        <v>2.25</v>
-      </c>
-      <c r="AK41">
-        <v>1.48</v>
-      </c>
-      <c r="AL41">
-        <v>1.25</v>
-      </c>
-      <c r="AM41">
-        <v>1.48</v>
-      </c>
-      <c r="AN41">
+      <c r="AU41">
+        <v>9</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>16</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>29</v>
+      </c>
+      <c r="AZ41">
+        <v>8</v>
+      </c>
+      <c r="BA41">
+        <v>15</v>
+      </c>
+      <c r="BB41">
         <v>3</v>
       </c>
-      <c r="AO41">
-        <v>1.5</v>
-      </c>
-      <c r="AP41">
-        <v>1.5</v>
-      </c>
-      <c r="AQ41">
-        <v>1.5</v>
-      </c>
-      <c r="AR41">
-        <v>1.72</v>
-      </c>
-      <c r="AS41">
-        <v>0.86</v>
-      </c>
-      <c r="AT41">
-        <v>2.58</v>
-      </c>
-      <c r="AU41">
-        <v>7</v>
-      </c>
-      <c r="AV41">
-        <v>6</v>
-      </c>
-      <c r="AW41">
-        <v>9</v>
-      </c>
-      <c r="AX41">
-        <v>13</v>
-      </c>
-      <c r="AY41">
-        <v>20</v>
-      </c>
-      <c r="AZ41">
-        <v>22</v>
-      </c>
-      <c r="BA41">
-        <v>5</v>
-      </c>
-      <c r="BB41">
-        <v>11</v>
-      </c>
       <c r="BC41">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD41">
-        <v>2.07</v>
+        <v>1.27</v>
       </c>
       <c r="BE41">
-        <v>7</v>
+        <v>11.25</v>
       </c>
       <c r="BF41">
-        <v>1.89</v>
+        <v>4.6</v>
       </c>
       <c r="BG41">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="BH41">
-        <v>4.6</v>
+        <v>5.25</v>
       </c>
       <c r="BI41">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="BJ41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="BK41">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="BL41">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="BM41">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="BN41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BO41">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="BP41">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9378,7 +9378,7 @@
         <v>2</v>
       </c>
       <c r="O42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P42" t="s">
         <v>142</v>
@@ -9957,7 +9957,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7778998</v>
+        <v>7778999</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -9972,16 +9972,16 @@
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -9990,10 +9990,10 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O45" t="s">
         <v>117</v>
@@ -10002,19 +10002,19 @@
         <v>158</v>
       </c>
       <c r="Q45">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="R45">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S45">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="T45">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U45">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="V45">
         <v>2.4</v>
@@ -10023,52 +10023,52 @@
         <v>1.5</v>
       </c>
       <c r="X45">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y45">
         <v>1.08</v>
       </c>
       <c r="Z45">
-        <v>1.62</v>
+        <v>2.26</v>
       </c>
       <c r="AA45">
-        <v>3.99</v>
+        <v>3.66</v>
       </c>
       <c r="AB45">
-        <v>5</v>
+        <v>2.83</v>
       </c>
       <c r="AC45">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE45">
         <v>1.22</v>
       </c>
       <c r="AF45">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="AG45">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="AH45">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AI45">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AJ45">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="AK45">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AL45">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM45">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="AN45">
         <v>0</v>
@@ -10077,19 +10077,19 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45">
         <v>1</v>
       </c>
       <c r="AR45">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AS45">
-        <v>0.76</v>
+        <v>1.42</v>
       </c>
       <c r="AT45">
-        <v>2.33</v>
+        <v>2.89</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10098,64 +10098,64 @@
         <v>5</v>
       </c>
       <c r="AW45">
+        <v>11</v>
+      </c>
+      <c r="AX45">
         <v>5</v>
       </c>
-      <c r="AX45">
-        <v>6</v>
-      </c>
       <c r="AY45">
+        <v>16</v>
+      </c>
+      <c r="AZ45">
         <v>12</v>
       </c>
-      <c r="AZ45">
+      <c r="BA45">
         <v>13</v>
       </c>
-      <c r="BA45">
-        <v>8</v>
-      </c>
       <c r="BB45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC45">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BD45">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="BE45">
         <v>7</v>
       </c>
       <c r="BF45">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="BG45">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="BH45">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="BI45">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="BJ45">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="BK45">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="BL45">
-        <v>2.18</v>
+        <v>2.55</v>
       </c>
       <c r="BM45">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="BN45">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="BO45">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="BP45">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10163,7 +10163,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7778999</v>
+        <v>7778998</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10178,16 +10178,16 @@
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -10196,10 +10196,10 @@
         <v>1</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O46" t="s">
         <v>118</v>
@@ -10208,19 +10208,19 @@
         <v>159</v>
       </c>
       <c r="Q46">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="R46">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S46">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="T46">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U46">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="V46">
         <v>2.4</v>
@@ -10229,52 +10229,52 @@
         <v>1.5</v>
       </c>
       <c r="X46">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y46">
         <v>1.08</v>
       </c>
       <c r="Z46">
-        <v>2.26</v>
+        <v>1.62</v>
       </c>
       <c r="AA46">
-        <v>3.66</v>
+        <v>3.99</v>
       </c>
       <c r="AB46">
-        <v>2.83</v>
+        <v>5</v>
       </c>
       <c r="AC46">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE46">
         <v>1.22</v>
       </c>
       <c r="AF46">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="AG46">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="AH46">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="AI46">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AJ46">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="AK46">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AL46">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM46">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="AN46">
         <v>0</v>
@@ -10283,19 +10283,19 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>1</v>
       </c>
       <c r="AR46">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AS46">
-        <v>1.42</v>
+        <v>0.76</v>
       </c>
       <c r="AT46">
-        <v>2.89</v>
+        <v>2.33</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10304,64 +10304,64 @@
         <v>5</v>
       </c>
       <c r="AW46">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY46">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ46">
+        <v>13</v>
+      </c>
+      <c r="BA46">
+        <v>8</v>
+      </c>
+      <c r="BB46">
+        <v>4</v>
+      </c>
+      <c r="BC46">
         <v>12</v>
       </c>
-      <c r="BA46">
-        <v>13</v>
-      </c>
-      <c r="BB46">
-        <v>3</v>
-      </c>
-      <c r="BC46">
-        <v>16</v>
-      </c>
       <c r="BD46">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="BE46">
         <v>7</v>
       </c>
       <c r="BF46">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="BG46">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="BH46">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="BI46">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="BJ46">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="BK46">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="BL46">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="BM46">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="BN46">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="BO46">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="BP46">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -12471,7 +12471,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q57">
         <v>2.1</v>
@@ -13047,7 +13047,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7779009</v>
+        <v>7779008</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13062,10 +13062,10 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -13077,175 +13077,175 @@
         <v>2</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O60" t="s">
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="Q60">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="R60">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
+        <v>4</v>
+      </c>
+      <c r="T60">
+        <v>1.57</v>
+      </c>
+      <c r="U60">
+        <v>2.25</v>
+      </c>
+      <c r="V60">
+        <v>3.75</v>
+      </c>
+      <c r="W60">
+        <v>1.25</v>
+      </c>
+      <c r="X60">
+        <v>11</v>
+      </c>
+      <c r="Y60">
+        <v>1.05</v>
+      </c>
+      <c r="Z60">
+        <v>2.23</v>
+      </c>
+      <c r="AA60">
+        <v>2.85</v>
+      </c>
+      <c r="AB60">
+        <v>3.11</v>
+      </c>
+      <c r="AC60">
+        <v>1.11</v>
+      </c>
+      <c r="AD60">
         <v>6.5</v>
       </c>
-      <c r="T60">
-        <v>1.25</v>
-      </c>
-      <c r="U60">
-        <v>3.75</v>
-      </c>
-      <c r="V60">
-        <v>2.25</v>
-      </c>
-      <c r="W60">
-        <v>1.57</v>
-      </c>
-      <c r="X60">
-        <v>5.5</v>
-      </c>
-      <c r="Y60">
-        <v>1.14</v>
-      </c>
-      <c r="Z60">
-        <v>1.4</v>
-      </c>
-      <c r="AA60">
-        <v>4.2</v>
-      </c>
-      <c r="AB60">
-        <v>5.9</v>
-      </c>
-      <c r="AC60">
-        <v>1.03</v>
-      </c>
-      <c r="AD60">
-        <v>12</v>
-      </c>
       <c r="AE60">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="AF60">
-        <v>5.5</v>
+        <v>2.37</v>
       </c>
       <c r="AG60">
-        <v>1.55</v>
+        <v>2.31</v>
       </c>
       <c r="AH60">
+        <v>1.61</v>
+      </c>
+      <c r="AI60">
         <v>2.2</v>
       </c>
-      <c r="AI60">
-        <v>1.75</v>
-      </c>
       <c r="AJ60">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AK60">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AL60">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AM60">
-        <v>2.85</v>
+        <v>1.6</v>
       </c>
       <c r="AN60">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP60">
         <v>2.5</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AR60">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AS60">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AT60">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
       <c r="AU60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW60">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AX60">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AY60">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AZ60">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA60">
         <v>7</v>
       </c>
       <c r="BB60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC60">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD60">
-        <v>1.22</v>
+        <v>1.7</v>
       </c>
       <c r="BE60">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="BF60">
-        <v>4.4</v>
+        <v>2.38</v>
       </c>
       <c r="BG60">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="BH60">
-        <v>5.3</v>
+        <v>3.34</v>
       </c>
       <c r="BI60">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="BJ60">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="BK60">
-        <v>1.41</v>
+        <v>1.85</v>
       </c>
       <c r="BL60">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="BM60">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="BN60">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="BO60">
-        <v>2.14</v>
+        <v>3.14</v>
       </c>
       <c r="BP60">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13253,7 +13253,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7779008</v>
+        <v>7779009</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13268,10 +13268,10 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -13283,175 +13283,175 @@
         <v>2</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O61" t="s">
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Q61">
-        <v>3.1</v>
+        <v>1.83</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="S61">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="T61">
+        <v>1.25</v>
+      </c>
+      <c r="U61">
+        <v>3.75</v>
+      </c>
+      <c r="V61">
+        <v>2.25</v>
+      </c>
+      <c r="W61">
         <v>1.57</v>
       </c>
-      <c r="U61">
-        <v>2.25</v>
-      </c>
-      <c r="V61">
-        <v>3.75</v>
-      </c>
-      <c r="W61">
-        <v>1.25</v>
-      </c>
       <c r="X61">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Y61">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="Z61">
-        <v>2.23</v>
+        <v>1.4</v>
       </c>
       <c r="AA61">
+        <v>4.2</v>
+      </c>
+      <c r="AB61">
+        <v>5.9</v>
+      </c>
+      <c r="AC61">
+        <v>1.03</v>
+      </c>
+      <c r="AD61">
+        <v>12</v>
+      </c>
+      <c r="AE61">
+        <v>1.15</v>
+      </c>
+      <c r="AF61">
+        <v>5.5</v>
+      </c>
+      <c r="AG61">
+        <v>1.55</v>
+      </c>
+      <c r="AH61">
+        <v>2.2</v>
+      </c>
+      <c r="AI61">
+        <v>1.75</v>
+      </c>
+      <c r="AJ61">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>1.1</v>
+      </c>
+      <c r="AL61">
+        <v>1.12</v>
+      </c>
+      <c r="AM61">
         <v>2.85</v>
       </c>
-      <c r="AB61">
-        <v>3.11</v>
-      </c>
-      <c r="AC61">
-        <v>1.11</v>
-      </c>
-      <c r="AD61">
-        <v>6.5</v>
-      </c>
-      <c r="AE61">
-        <v>1.48</v>
-      </c>
-      <c r="AF61">
-        <v>2.37</v>
-      </c>
-      <c r="AG61">
-        <v>2.31</v>
-      </c>
-      <c r="AH61">
-        <v>1.61</v>
-      </c>
-      <c r="AI61">
-        <v>2.2</v>
-      </c>
-      <c r="AJ61">
-        <v>1.62</v>
-      </c>
-      <c r="AK61">
-        <v>1.3</v>
-      </c>
-      <c r="AL61">
-        <v>1.3</v>
-      </c>
-      <c r="AM61">
-        <v>1.6</v>
-      </c>
       <c r="AN61">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP61">
         <v>2.5</v>
       </c>
       <c r="AQ61">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR61">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AS61">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT61">
-        <v>3.3</v>
+        <v>3.27</v>
       </c>
       <c r="AU61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW61">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AX61">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AY61">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AZ61">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA61">
         <v>7</v>
       </c>
       <c r="BB61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC61">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD61">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="BE61">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="BF61">
-        <v>2.38</v>
+        <v>4.4</v>
       </c>
       <c r="BG61">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="BH61">
-        <v>3.34</v>
+        <v>5.3</v>
       </c>
       <c r="BI61">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="BJ61">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="BK61">
-        <v>1.85</v>
+        <v>1.41</v>
       </c>
       <c r="BL61">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="BM61">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="BN61">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="BO61">
-        <v>3.14</v>
+        <v>2.14</v>
       </c>
       <c r="BP61">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="62" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,15 @@
     <t>['25']</t>
   </si>
   <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['11', '55', '71']</t>
+  </si>
+  <si>
+    <t>['58', '62', '90+2']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -521,6 +530,15 @@
   </si>
   <si>
     <t>['4', '77']</t>
+  </si>
+  <si>
+    <t>['27', '48', '81']</t>
+  </si>
+  <si>
+    <t>['5', '68']</t>
+  </si>
+  <si>
+    <t>['16', '69', '72']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1159,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1631,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1759,7 +1777,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1965,7 +1983,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2171,7 +2189,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2249,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2377,7 +2395,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2458,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2583,7 +2601,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2664,7 +2682,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2995,7 +3013,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3407,7 +3425,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3613,7 +3631,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4025,7 +4043,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4106,7 +4124,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ16">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4231,7 +4249,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4437,7 +4455,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4927,7 +4945,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -5055,7 +5073,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5467,7 +5485,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5751,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -6085,7 +6103,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6291,7 +6309,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6372,7 +6390,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>2.77</v>
@@ -6497,7 +6515,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6990,7 +7008,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ30">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR30">
         <v>1.48</v>
@@ -7115,7 +7133,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7321,7 +7339,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7608,7 +7626,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
         <v>1.7</v>
@@ -7811,7 +7829,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -7939,7 +7957,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8020,7 +8038,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.66</v>
@@ -8145,7 +8163,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8223,7 +8241,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
         <v>1.75</v>
@@ -8351,7 +8369,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8557,7 +8575,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8638,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR38">
         <v>1.5</v>
@@ -8763,7 +8781,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9381,7 +9399,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9587,7 +9605,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9999,7 +10017,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10205,7 +10223,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>2.05</v>
@@ -10411,7 +10429,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10492,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -10823,7 +10841,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10904,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.44</v>
@@ -11029,7 +11047,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11107,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ50">
         <v>0.25</v>
@@ -11316,7 +11334,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ51">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR51">
         <v>1.87</v>
@@ -11441,7 +11459,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11647,7 +11665,7 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12059,7 +12077,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12346,7 +12364,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR56">
         <v>1.76</v>
@@ -12677,7 +12695,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13089,7 +13107,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13295,7 +13313,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q61">
         <v>1.83</v>
@@ -13373,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13501,7 +13519,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q62">
         <v>4.75</v>
@@ -13707,7 +13725,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13913,7 +13931,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14070,6 +14088,624 @@
       </c>
       <c r="BP64">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7779022</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45791.58333333334</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65" t="s">
+        <v>133</v>
+      </c>
+      <c r="P65" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q65">
+        <v>4.5</v>
+      </c>
+      <c r="R65">
+        <v>1.95</v>
+      </c>
+      <c r="S65">
+        <v>2.62</v>
+      </c>
+      <c r="T65">
+        <v>1.48</v>
+      </c>
+      <c r="U65">
+        <v>2.45</v>
+      </c>
+      <c r="V65">
+        <v>3.2</v>
+      </c>
+      <c r="W65">
+        <v>1.3</v>
+      </c>
+      <c r="X65">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>1.02</v>
+      </c>
+      <c r="Z65">
+        <v>4.2</v>
+      </c>
+      <c r="AA65">
+        <v>3.16</v>
+      </c>
+      <c r="AB65">
+        <v>1.76</v>
+      </c>
+      <c r="AC65">
+        <v>1.06</v>
+      </c>
+      <c r="AD65">
+        <v>9</v>
+      </c>
+      <c r="AE65">
+        <v>1.4</v>
+      </c>
+      <c r="AF65">
+        <v>2.85</v>
+      </c>
+      <c r="AG65">
+        <v>2.15</v>
+      </c>
+      <c r="AH65">
+        <v>1.57</v>
+      </c>
+      <c r="AI65">
+        <v>1.95</v>
+      </c>
+      <c r="AJ65">
+        <v>1.73</v>
+      </c>
+      <c r="AK65">
+        <v>1.77</v>
+      </c>
+      <c r="AL65">
+        <v>1.28</v>
+      </c>
+      <c r="AM65">
+        <v>1.25</v>
+      </c>
+      <c r="AN65">
+        <v>1.5</v>
+      </c>
+      <c r="AO65">
+        <v>0.75</v>
+      </c>
+      <c r="AP65">
+        <v>1.2</v>
+      </c>
+      <c r="AQ65">
+        <v>1.2</v>
+      </c>
+      <c r="AR65">
+        <v>1.28</v>
+      </c>
+      <c r="AS65">
+        <v>1.51</v>
+      </c>
+      <c r="AT65">
+        <v>2.79</v>
+      </c>
+      <c r="AU65">
+        <v>5</v>
+      </c>
+      <c r="AV65">
+        <v>8</v>
+      </c>
+      <c r="AW65">
+        <v>8</v>
+      </c>
+      <c r="AX65">
+        <v>8</v>
+      </c>
+      <c r="AY65">
+        <v>14</v>
+      </c>
+      <c r="AZ65">
+        <v>16</v>
+      </c>
+      <c r="BA65">
+        <v>1</v>
+      </c>
+      <c r="BB65">
+        <v>5</v>
+      </c>
+      <c r="BC65">
+        <v>6</v>
+      </c>
+      <c r="BD65">
+        <v>2.55</v>
+      </c>
+      <c r="BE65">
+        <v>7</v>
+      </c>
+      <c r="BF65">
+        <v>1.58</v>
+      </c>
+      <c r="BG65">
+        <v>1.22</v>
+      </c>
+      <c r="BH65">
+        <v>3.8</v>
+      </c>
+      <c r="BI65">
+        <v>1.38</v>
+      </c>
+      <c r="BJ65">
+        <v>2.7</v>
+      </c>
+      <c r="BK65">
+        <v>1.63</v>
+      </c>
+      <c r="BL65">
+        <v>2.12</v>
+      </c>
+      <c r="BM65">
+        <v>1.98</v>
+      </c>
+      <c r="BN65">
+        <v>1.74</v>
+      </c>
+      <c r="BO65">
+        <v>2.48</v>
+      </c>
+      <c r="BP65">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7779017</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45791.58333333334</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>134</v>
+      </c>
+      <c r="P66" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q66">
+        <v>1.83</v>
+      </c>
+      <c r="R66">
+        <v>2.4</v>
+      </c>
+      <c r="S66">
+        <v>6.25</v>
+      </c>
+      <c r="T66">
+        <v>1.28</v>
+      </c>
+      <c r="U66">
+        <v>3.3</v>
+      </c>
+      <c r="V66">
+        <v>2.3</v>
+      </c>
+      <c r="W66">
+        <v>1.55</v>
+      </c>
+      <c r="X66">
+        <v>5.4</v>
+      </c>
+      <c r="Y66">
+        <v>1.11</v>
+      </c>
+      <c r="Z66">
+        <v>1.38</v>
+      </c>
+      <c r="AA66">
+        <v>4.3</v>
+      </c>
+      <c r="AB66">
+        <v>6.2</v>
+      </c>
+      <c r="AC66">
+        <v>1.02</v>
+      </c>
+      <c r="AD66">
+        <v>14</v>
+      </c>
+      <c r="AE66">
+        <v>1.17</v>
+      </c>
+      <c r="AF66">
+        <v>5</v>
+      </c>
+      <c r="AG66">
+        <v>1.55</v>
+      </c>
+      <c r="AH66">
+        <v>2.2</v>
+      </c>
+      <c r="AI66">
+        <v>1.77</v>
+      </c>
+      <c r="AJ66">
+        <v>1.91</v>
+      </c>
+      <c r="AK66">
+        <v>1.08</v>
+      </c>
+      <c r="AL66">
+        <v>1.15</v>
+      </c>
+      <c r="AM66">
+        <v>2.88</v>
+      </c>
+      <c r="AN66">
+        <v>2.5</v>
+      </c>
+      <c r="AO66">
+        <v>1.25</v>
+      </c>
+      <c r="AP66">
+        <v>2.6</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>2.05</v>
+      </c>
+      <c r="AS66">
+        <v>1.33</v>
+      </c>
+      <c r="AT66">
+        <v>3.38</v>
+      </c>
+      <c r="AU66">
+        <v>4</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>15</v>
+      </c>
+      <c r="AX66">
+        <v>5</v>
+      </c>
+      <c r="AY66">
+        <v>24</v>
+      </c>
+      <c r="AZ66">
+        <v>10</v>
+      </c>
+      <c r="BA66">
+        <v>10</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>13</v>
+      </c>
+      <c r="BD66">
+        <v>1.3</v>
+      </c>
+      <c r="BE66">
+        <v>8</v>
+      </c>
+      <c r="BF66">
+        <v>3.65</v>
+      </c>
+      <c r="BG66">
+        <v>1.16</v>
+      </c>
+      <c r="BH66">
+        <v>4.6</v>
+      </c>
+      <c r="BI66">
+        <v>1.28</v>
+      </c>
+      <c r="BJ66">
+        <v>3.3</v>
+      </c>
+      <c r="BK66">
+        <v>1.47</v>
+      </c>
+      <c r="BL66">
+        <v>2.48</v>
+      </c>
+      <c r="BM66">
+        <v>1.74</v>
+      </c>
+      <c r="BN66">
+        <v>1.97</v>
+      </c>
+      <c r="BO66">
+        <v>2.12</v>
+      </c>
+      <c r="BP66">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7779020</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45791.58333333334</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67">
+        <v>6</v>
+      </c>
+      <c r="O67" t="s">
+        <v>135</v>
+      </c>
+      <c r="P67" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q67">
+        <v>3.1</v>
+      </c>
+      <c r="R67">
+        <v>2.05</v>
+      </c>
+      <c r="S67">
+        <v>3.2</v>
+      </c>
+      <c r="T67">
+        <v>1.4</v>
+      </c>
+      <c r="U67">
+        <v>2.75</v>
+      </c>
+      <c r="V67">
+        <v>2.85</v>
+      </c>
+      <c r="W67">
+        <v>1.36</v>
+      </c>
+      <c r="X67">
+        <v>7.5</v>
+      </c>
+      <c r="Y67">
+        <v>1.03</v>
+      </c>
+      <c r="Z67">
+        <v>2.43</v>
+      </c>
+      <c r="AA67">
+        <v>3.23</v>
+      </c>
+      <c r="AB67">
+        <v>2.51</v>
+      </c>
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
+        <v>11</v>
+      </c>
+      <c r="AE67">
+        <v>1.32</v>
+      </c>
+      <c r="AF67">
+        <v>3.45</v>
+      </c>
+      <c r="AG67">
+        <v>1.95</v>
+      </c>
+      <c r="AH67">
+        <v>1.75</v>
+      </c>
+      <c r="AI67">
+        <v>1.73</v>
+      </c>
+      <c r="AJ67">
+        <v>1.95</v>
+      </c>
+      <c r="AK67">
+        <v>1.45</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.5</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>2.5</v>
+      </c>
+      <c r="AP67">
+        <v>1</v>
+      </c>
+      <c r="AQ67">
+        <v>2.2</v>
+      </c>
+      <c r="AR67">
+        <v>1.87</v>
+      </c>
+      <c r="AS67">
+        <v>1.29</v>
+      </c>
+      <c r="AT67">
+        <v>3.16</v>
+      </c>
+      <c r="AU67">
+        <v>6</v>
+      </c>
+      <c r="AV67">
+        <v>6</v>
+      </c>
+      <c r="AW67">
+        <v>13</v>
+      </c>
+      <c r="AX67">
+        <v>2</v>
+      </c>
+      <c r="AY67">
+        <v>21</v>
+      </c>
+      <c r="AZ67">
+        <v>8</v>
+      </c>
+      <c r="BA67">
+        <v>4</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>6</v>
+      </c>
+      <c r="BD67">
+        <v>1.74</v>
+      </c>
+      <c r="BE67">
+        <v>7</v>
+      </c>
+      <c r="BF67">
+        <v>2.23</v>
+      </c>
+      <c r="BG67">
+        <v>1.17</v>
+      </c>
+      <c r="BH67">
+        <v>4.35</v>
+      </c>
+      <c r="BI67">
+        <v>1.3</v>
+      </c>
+      <c r="BJ67">
+        <v>3.15</v>
+      </c>
+      <c r="BK67">
+        <v>1.5</v>
+      </c>
+      <c r="BL67">
+        <v>2.38</v>
+      </c>
+      <c r="BM67">
+        <v>1.79</v>
+      </c>
+      <c r="BN67">
+        <v>1.9</v>
+      </c>
+      <c r="BO67">
+        <v>2.18</v>
+      </c>
+      <c r="BP67">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,15 @@
     <t>['58', '62', '90+2']</t>
   </si>
   <si>
+    <t>['34', '79']</t>
+  </si>
+  <si>
+    <t>['7', '11', '63', '82']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -505,9 +514,6 @@
     <t>['28']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
     <t>['39']</t>
   </si>
   <si>
@@ -539,6 +545,18 @@
   </si>
   <si>
     <t>['16', '69', '72']</t>
+  </si>
+  <si>
+    <t>['4', '39']</t>
+  </si>
+  <si>
+    <t>['58', '88']</t>
+  </si>
+  <si>
+    <t>['23', '27', '84']</t>
+  </si>
+  <si>
+    <t>['38', '73', '90']</t>
   </si>
 </sst>
 </file>
@@ -900,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,7 +1177,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1237,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1446,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1777,7 +1795,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1855,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1983,7 +2001,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2061,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2189,7 +2207,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2270,7 +2288,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2395,7 +2413,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2473,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2601,7 +2619,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3013,7 +3031,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3425,7 +3443,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3631,7 +3649,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4043,7 +4061,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4249,7 +4267,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4455,7 +4473,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4536,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>2.05</v>
@@ -4739,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5073,7 +5091,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5151,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5360,7 +5378,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5485,7 +5503,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5566,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>1.22</v>
@@ -5978,7 +5996,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6103,7 +6121,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6309,7 +6327,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6515,7 +6533,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6799,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7133,7 +7151,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7339,7 +7357,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7623,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.2</v>
@@ -7832,7 +7850,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR34">
         <v>1.98</v>
@@ -7957,7 +7975,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8035,7 +8053,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8163,7 +8181,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8244,7 +8262,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -8369,7 +8387,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8450,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8575,7 +8593,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8653,7 +8671,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ38">
         <v>2.2</v>
@@ -8781,7 +8799,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8859,7 +8877,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ39">
         <v>1.5</v>
@@ -9068,7 +9086,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR40">
         <v>1.88</v>
@@ -9271,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -9399,7 +9417,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9605,7 +9623,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9686,7 +9704,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR43">
         <v>1.41</v>
@@ -10017,7 +10035,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10095,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10223,7 +10241,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>2.05</v>
@@ -10429,7 +10447,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10841,7 +10859,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11047,7 +11065,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11331,7 +11349,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>2.2</v>
@@ -11459,7 +11477,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11537,7 +11555,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11665,7 +11683,7 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12077,7 +12095,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12158,7 +12176,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>2.33</v>
@@ -12361,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ56">
         <v>1.2</v>
@@ -12695,7 +12713,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13107,7 +13125,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13188,7 +13206,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>1.84</v>
@@ -13313,7 +13331,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="Q61">
         <v>1.83</v>
@@ -13519,7 +13537,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q62">
         <v>4.75</v>
@@ -13725,7 +13743,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13806,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR63">
         <v>1.61</v>
@@ -13931,7 +13949,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14137,7 +14155,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14343,7 +14361,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14549,7 +14567,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14706,6 +14724,830 @@
       </c>
       <c r="BP67">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7779023</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45792.58333333334</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s">
+        <v>85</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>136</v>
+      </c>
+      <c r="P68" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q68">
+        <v>5.25</v>
+      </c>
+      <c r="R68">
+        <v>2.25</v>
+      </c>
+      <c r="S68">
+        <v>2.05</v>
+      </c>
+      <c r="T68">
+        <v>1.35</v>
+      </c>
+      <c r="U68">
+        <v>2.95</v>
+      </c>
+      <c r="V68">
+        <v>2.65</v>
+      </c>
+      <c r="W68">
+        <v>1.42</v>
+      </c>
+      <c r="X68">
+        <v>6.25</v>
+      </c>
+      <c r="Y68">
+        <v>1.06</v>
+      </c>
+      <c r="Z68">
+        <v>5</v>
+      </c>
+      <c r="AA68">
+        <v>3.82</v>
+      </c>
+      <c r="AB68">
+        <v>1.52</v>
+      </c>
+      <c r="AC68">
+        <v>1.05</v>
+      </c>
+      <c r="AD68">
+        <v>10</v>
+      </c>
+      <c r="AE68">
+        <v>1.28</v>
+      </c>
+      <c r="AF68">
+        <v>3.65</v>
+      </c>
+      <c r="AG68">
+        <v>1.87</v>
+      </c>
+      <c r="AH68">
+        <v>1.83</v>
+      </c>
+      <c r="AI68">
+        <v>1.9</v>
+      </c>
+      <c r="AJ68">
+        <v>1.77</v>
+      </c>
+      <c r="AK68">
+        <v>2.3</v>
+      </c>
+      <c r="AL68">
+        <v>1.18</v>
+      </c>
+      <c r="AM68">
+        <v>1.14</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>1.75</v>
+      </c>
+      <c r="AP68">
+        <v>0.2</v>
+      </c>
+      <c r="AQ68">
+        <v>1.6</v>
+      </c>
+      <c r="AR68">
+        <v>1.55</v>
+      </c>
+      <c r="AS68">
+        <v>1.4</v>
+      </c>
+      <c r="AT68">
+        <v>2.95</v>
+      </c>
+      <c r="AU68">
+        <v>6</v>
+      </c>
+      <c r="AV68">
+        <v>6</v>
+      </c>
+      <c r="AW68">
+        <v>3</v>
+      </c>
+      <c r="AX68">
+        <v>13</v>
+      </c>
+      <c r="AY68">
+        <v>10</v>
+      </c>
+      <c r="AZ68">
+        <v>22</v>
+      </c>
+      <c r="BA68">
+        <v>4</v>
+      </c>
+      <c r="BB68">
+        <v>9</v>
+      </c>
+      <c r="BC68">
+        <v>13</v>
+      </c>
+      <c r="BD68">
+        <v>2.8</v>
+      </c>
+      <c r="BE68">
+        <v>7</v>
+      </c>
+      <c r="BF68">
+        <v>1.5</v>
+      </c>
+      <c r="BG68">
+        <v>1.17</v>
+      </c>
+      <c r="BH68">
+        <v>4.4</v>
+      </c>
+      <c r="BI68">
+        <v>1.29</v>
+      </c>
+      <c r="BJ68">
+        <v>3.15</v>
+      </c>
+      <c r="BK68">
+        <v>1.49</v>
+      </c>
+      <c r="BL68">
+        <v>2.4</v>
+      </c>
+      <c r="BM68">
+        <v>1.77</v>
+      </c>
+      <c r="BN68">
+        <v>1.93</v>
+      </c>
+      <c r="BO68">
+        <v>2.15</v>
+      </c>
+      <c r="BP68">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7779021</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45792.58333333334</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>103</v>
+      </c>
+      <c r="P69" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q69">
+        <v>2.38</v>
+      </c>
+      <c r="R69">
+        <v>2.25</v>
+      </c>
+      <c r="S69">
+        <v>3.95</v>
+      </c>
+      <c r="T69">
+        <v>1.3</v>
+      </c>
+      <c r="U69">
+        <v>3.2</v>
+      </c>
+      <c r="V69">
+        <v>2.45</v>
+      </c>
+      <c r="W69">
+        <v>1.48</v>
+      </c>
+      <c r="X69">
+        <v>6.8</v>
+      </c>
+      <c r="Y69">
+        <v>1.04</v>
+      </c>
+      <c r="Z69">
+        <v>1.78</v>
+      </c>
+      <c r="AA69">
+        <v>3.62</v>
+      </c>
+      <c r="AB69">
+        <v>3.53</v>
+      </c>
+      <c r="AC69">
+        <v>1.04</v>
+      </c>
+      <c r="AD69">
+        <v>11</v>
+      </c>
+      <c r="AE69">
+        <v>1.22</v>
+      </c>
+      <c r="AF69">
+        <v>4.2</v>
+      </c>
+      <c r="AG69">
+        <v>1.66</v>
+      </c>
+      <c r="AH69">
+        <v>2.08</v>
+      </c>
+      <c r="AI69">
+        <v>1.62</v>
+      </c>
+      <c r="AJ69">
+        <v>2.1</v>
+      </c>
+      <c r="AK69">
+        <v>1.25</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
+        <v>1.9</v>
+      </c>
+      <c r="AN69">
+        <v>1.5</v>
+      </c>
+      <c r="AO69">
+        <v>1.5</v>
+      </c>
+      <c r="AP69">
+        <v>1.2</v>
+      </c>
+      <c r="AQ69">
+        <v>1.8</v>
+      </c>
+      <c r="AR69">
+        <v>1.75</v>
+      </c>
+      <c r="AS69">
+        <v>1.4</v>
+      </c>
+      <c r="AT69">
+        <v>3.15</v>
+      </c>
+      <c r="AU69">
+        <v>6</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
+        <v>4</v>
+      </c>
+      <c r="AX69">
+        <v>6</v>
+      </c>
+      <c r="AY69">
+        <v>13</v>
+      </c>
+      <c r="AZ69">
+        <v>11</v>
+      </c>
+      <c r="BA69">
+        <v>8</v>
+      </c>
+      <c r="BB69">
+        <v>6</v>
+      </c>
+      <c r="BC69">
+        <v>14</v>
+      </c>
+      <c r="BD69">
+        <v>1.75</v>
+      </c>
+      <c r="BE69">
+        <v>6.75</v>
+      </c>
+      <c r="BF69">
+        <v>2.23</v>
+      </c>
+      <c r="BG69">
+        <v>1.19</v>
+      </c>
+      <c r="BH69">
+        <v>4.1</v>
+      </c>
+      <c r="BI69">
+        <v>1.33</v>
+      </c>
+      <c r="BJ69">
+        <v>2.95</v>
+      </c>
+      <c r="BK69">
+        <v>1.54</v>
+      </c>
+      <c r="BL69">
+        <v>2.3</v>
+      </c>
+      <c r="BM69">
+        <v>1.84</v>
+      </c>
+      <c r="BN69">
+        <v>1.84</v>
+      </c>
+      <c r="BO69">
+        <v>2.28</v>
+      </c>
+      <c r="BP69">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7779018</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45792.58333333334</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>82</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>7</v>
+      </c>
+      <c r="O70" t="s">
+        <v>137</v>
+      </c>
+      <c r="P70" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q70">
+        <v>2.2</v>
+      </c>
+      <c r="R70">
+        <v>2.35</v>
+      </c>
+      <c r="S70">
+        <v>4.2</v>
+      </c>
+      <c r="T70">
+        <v>1.28</v>
+      </c>
+      <c r="U70">
+        <v>3.3</v>
+      </c>
+      <c r="V70">
+        <v>2.3</v>
+      </c>
+      <c r="W70">
+        <v>1.55</v>
+      </c>
+      <c r="X70">
+        <v>5.2</v>
+      </c>
+      <c r="Y70">
+        <v>1.1</v>
+      </c>
+      <c r="Z70">
+        <v>1.64</v>
+      </c>
+      <c r="AA70">
+        <v>3.79</v>
+      </c>
+      <c r="AB70">
+        <v>4.1</v>
+      </c>
+      <c r="AC70">
+        <v>1.04</v>
+      </c>
+      <c r="AD70">
+        <v>11</v>
+      </c>
+      <c r="AE70">
+        <v>1.2</v>
+      </c>
+      <c r="AF70">
+        <v>4.5</v>
+      </c>
+      <c r="AG70">
+        <v>1.57</v>
+      </c>
+      <c r="AH70">
+        <v>2.15</v>
+      </c>
+      <c r="AI70">
+        <v>1.57</v>
+      </c>
+      <c r="AJ70">
+        <v>2.2</v>
+      </c>
+      <c r="AK70">
+        <v>1.22</v>
+      </c>
+      <c r="AL70">
+        <v>1.2</v>
+      </c>
+      <c r="AM70">
+        <v>2</v>
+      </c>
+      <c r="AN70">
+        <v>2.5</v>
+      </c>
+      <c r="AO70">
+        <v>1.75</v>
+      </c>
+      <c r="AP70">
+        <v>2.6</v>
+      </c>
+      <c r="AQ70">
+        <v>1.4</v>
+      </c>
+      <c r="AR70">
+        <v>1.63</v>
+      </c>
+      <c r="AS70">
+        <v>1.6</v>
+      </c>
+      <c r="AT70">
+        <v>3.23</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>8</v>
+      </c>
+      <c r="AW70">
+        <v>7</v>
+      </c>
+      <c r="AX70">
+        <v>9</v>
+      </c>
+      <c r="AY70">
+        <v>18</v>
+      </c>
+      <c r="AZ70">
+        <v>19</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>6</v>
+      </c>
+      <c r="BD70">
+        <v>1.52</v>
+      </c>
+      <c r="BE70">
+        <v>7</v>
+      </c>
+      <c r="BF70">
+        <v>2.8</v>
+      </c>
+      <c r="BG70">
+        <v>1.19</v>
+      </c>
+      <c r="BH70">
+        <v>4.1</v>
+      </c>
+      <c r="BI70">
+        <v>1.33</v>
+      </c>
+      <c r="BJ70">
+        <v>2.95</v>
+      </c>
+      <c r="BK70">
+        <v>1.55</v>
+      </c>
+      <c r="BL70">
+        <v>2.25</v>
+      </c>
+      <c r="BM70">
+        <v>1.88</v>
+      </c>
+      <c r="BN70">
+        <v>1.81</v>
+      </c>
+      <c r="BO70">
+        <v>2.32</v>
+      </c>
+      <c r="BP70">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7779016</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45792.58333333334</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" t="s">
+        <v>84</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>138</v>
+      </c>
+      <c r="P71" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q71">
+        <v>2.95</v>
+      </c>
+      <c r="R71">
+        <v>2.1</v>
+      </c>
+      <c r="S71">
+        <v>3.3</v>
+      </c>
+      <c r="T71">
+        <v>1.38</v>
+      </c>
+      <c r="U71">
+        <v>2.8</v>
+      </c>
+      <c r="V71">
+        <v>2.8</v>
+      </c>
+      <c r="W71">
+        <v>1.38</v>
+      </c>
+      <c r="X71">
+        <v>6.65</v>
+      </c>
+      <c r="Y71">
+        <v>1.05</v>
+      </c>
+      <c r="Z71">
+        <v>2.25</v>
+      </c>
+      <c r="AA71">
+        <v>3.27</v>
+      </c>
+      <c r="AB71">
+        <v>2.7</v>
+      </c>
+      <c r="AC71">
+        <v>1.06</v>
+      </c>
+      <c r="AD71">
+        <v>9.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.33</v>
+      </c>
+      <c r="AF71">
+        <v>3.35</v>
+      </c>
+      <c r="AG71">
+        <v>1.91</v>
+      </c>
+      <c r="AH71">
+        <v>1.79</v>
+      </c>
+      <c r="AI71">
+        <v>1.73</v>
+      </c>
+      <c r="AJ71">
+        <v>1.95</v>
+      </c>
+      <c r="AK71">
+        <v>1.4</v>
+      </c>
+      <c r="AL71">
+        <v>1.25</v>
+      </c>
+      <c r="AM71">
+        <v>1.57</v>
+      </c>
+      <c r="AN71">
+        <v>1.25</v>
+      </c>
+      <c r="AO71">
+        <v>1.75</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>2</v>
+      </c>
+      <c r="AR71">
+        <v>1.63</v>
+      </c>
+      <c r="AS71">
+        <v>1.5</v>
+      </c>
+      <c r="AT71">
+        <v>3.13</v>
+      </c>
+      <c r="AU71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <v>9</v>
+      </c>
+      <c r="AW71">
+        <v>2</v>
+      </c>
+      <c r="AX71">
+        <v>12</v>
+      </c>
+      <c r="AY71">
+        <v>10</v>
+      </c>
+      <c r="AZ71">
+        <v>25</v>
+      </c>
+      <c r="BA71">
+        <v>8</v>
+      </c>
+      <c r="BB71">
+        <v>7</v>
+      </c>
+      <c r="BC71">
+        <v>15</v>
+      </c>
+      <c r="BD71">
+        <v>1.58</v>
+      </c>
+      <c r="BE71">
+        <v>7</v>
+      </c>
+      <c r="BF71">
+        <v>2.55</v>
+      </c>
+      <c r="BG71">
+        <v>1.2</v>
+      </c>
+      <c r="BH71">
+        <v>3.95</v>
+      </c>
+      <c r="BI71">
+        <v>1.35</v>
+      </c>
+      <c r="BJ71">
+        <v>2.9</v>
+      </c>
+      <c r="BK71">
+        <v>1.57</v>
+      </c>
+      <c r="BL71">
+        <v>2.23</v>
+      </c>
+      <c r="BM71">
+        <v>1.9</v>
+      </c>
+      <c r="BN71">
+        <v>1.79</v>
+      </c>
+      <c r="BO71">
+        <v>2.38</v>
+      </c>
+      <c r="BP71">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -918,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2082,7 +2082,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR24">
         <v>0.88</v>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -9292,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR41">
         <v>1.44</v>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ47">
         <v>1.2</v>
@@ -10734,7 +10734,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR48">
         <v>2.55</v>
@@ -14027,7 +14027,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ64">
         <v>2</v>
@@ -15548,6 +15548,212 @@
       </c>
       <c r="BP71">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7779019</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45792.58333333334</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s">
+        <v>80</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>86</v>
+      </c>
+      <c r="P72" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+      <c r="R72">
+        <v>2.38</v>
+      </c>
+      <c r="S72">
+        <v>5</v>
+      </c>
+      <c r="T72">
+        <v>1.3</v>
+      </c>
+      <c r="U72">
+        <v>3.2</v>
+      </c>
+      <c r="V72">
+        <v>2.4</v>
+      </c>
+      <c r="W72">
+        <v>1.5</v>
+      </c>
+      <c r="X72">
+        <v>5.4</v>
+      </c>
+      <c r="Y72">
+        <v>1.09</v>
+      </c>
+      <c r="Z72">
+        <v>1.52</v>
+      </c>
+      <c r="AA72">
+        <v>3.94</v>
+      </c>
+      <c r="AB72">
+        <v>4.8</v>
+      </c>
+      <c r="AC72">
+        <v>1.04</v>
+      </c>
+      <c r="AD72">
+        <v>11</v>
+      </c>
+      <c r="AE72">
+        <v>1.22</v>
+      </c>
+      <c r="AF72">
+        <v>4.33</v>
+      </c>
+      <c r="AG72">
+        <v>1.76</v>
+      </c>
+      <c r="AH72">
+        <v>1.94</v>
+      </c>
+      <c r="AI72">
+        <v>1.7</v>
+      </c>
+      <c r="AJ72">
+        <v>2</v>
+      </c>
+      <c r="AK72">
+        <v>1.15</v>
+      </c>
+      <c r="AL72">
+        <v>1.18</v>
+      </c>
+      <c r="AM72">
+        <v>2.35</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0.8</v>
+      </c>
+      <c r="AQ72">
+        <v>0.6</v>
+      </c>
+      <c r="AR72">
+        <v>1.65</v>
+      </c>
+      <c r="AS72">
+        <v>0.9</v>
+      </c>
+      <c r="AT72">
+        <v>2.55</v>
+      </c>
+      <c r="AU72">
+        <v>3</v>
+      </c>
+      <c r="AV72">
+        <v>5</v>
+      </c>
+      <c r="AW72">
+        <v>13</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>19</v>
+      </c>
+      <c r="AZ72">
+        <v>10</v>
+      </c>
+      <c r="BA72">
+        <v>7</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>11</v>
+      </c>
+      <c r="BD72">
+        <v>1.4</v>
+      </c>
+      <c r="BE72">
+        <v>7.5</v>
+      </c>
+      <c r="BF72">
+        <v>3.2</v>
+      </c>
+      <c r="BG72">
+        <v>1.15</v>
+      </c>
+      <c r="BH72">
+        <v>4.8</v>
+      </c>
+      <c r="BI72">
+        <v>1.27</v>
+      </c>
+      <c r="BJ72">
+        <v>3.4</v>
+      </c>
+      <c r="BK72">
+        <v>1.44</v>
+      </c>
+      <c r="BL72">
+        <v>2.55</v>
+      </c>
+      <c r="BM72">
+        <v>1.68</v>
+      </c>
+      <c r="BN72">
+        <v>2.05</v>
+      </c>
+      <c r="BO72">
+        <v>2.02</v>
+      </c>
+      <c r="BP72">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,27 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['32', '88']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['31', '45', '63']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['9', '42', '56', '60']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -481,9 +502,6 @@
     <t>['10']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['66', '83']</t>
   </si>
   <si>
@@ -511,9 +529,6 @@
     <t>['30', '33', '51']</t>
   </si>
   <si>
-    <t>['28']</t>
-  </si>
-  <si>
     <t>['39']</t>
   </si>
   <si>
@@ -557,6 +572,15 @@
   </si>
   <si>
     <t>['38', '73', '90']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['7', '31']</t>
+  </si>
+  <si>
+    <t>['6', '9', '32']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1201,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1461,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1670,7 +1694,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1795,7 +1819,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1873,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2001,7 +2025,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2207,7 +2231,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2413,7 +2437,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2619,7 +2643,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2906,7 +2930,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3031,7 +3055,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3109,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3315,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3443,7 +3467,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3521,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3649,7 +3673,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3730,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3933,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ15">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4061,7 +4085,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4139,10 +4163,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4267,7 +4291,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4345,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4473,7 +4497,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4551,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4757,10 +4781,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>2.16</v>
@@ -4966,7 +4990,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>2.25</v>
@@ -5091,7 +5115,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5172,7 +5196,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR21">
         <v>1.59</v>
@@ -5503,7 +5527,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5581,10 +5605,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR23">
         <v>1.22</v>
@@ -5993,7 +6017,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ25">
         <v>1.6</v>
@@ -6121,7 +6145,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6199,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR26">
         <v>1.49</v>
@@ -6327,7 +6351,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6405,7 +6429,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6533,7 +6557,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6611,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -6820,7 +6844,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>1.64</v>
@@ -7023,7 +7047,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30">
         <v>2.2</v>
@@ -7151,7 +7175,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7232,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR31">
         <v>1.47</v>
@@ -7357,7 +7381,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7644,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR33">
         <v>1.7</v>
@@ -7975,7 +7999,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8053,7 +8077,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8181,7 +8205,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8387,7 +8411,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8465,7 +8489,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>1.8</v>
@@ -8593,7 +8617,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8799,7 +8823,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8880,7 +8904,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -9086,7 +9110,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR40">
         <v>1.88</v>
@@ -9417,7 +9441,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9495,10 +9519,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR42">
         <v>1.86</v>
@@ -9623,7 +9647,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9701,7 +9725,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ43">
         <v>1.8</v>
@@ -9907,7 +9931,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10035,7 +10059,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10116,7 +10140,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -10241,7 +10265,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="Q46">
         <v>2.05</v>
@@ -10319,10 +10343,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -10528,7 +10552,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ47">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -10731,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>0.6</v>
@@ -10859,7 +10883,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10937,7 +10961,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11065,7 +11089,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11146,7 +11170,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ50">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -11477,7 +11501,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11683,7 +11707,7 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -11761,10 +11785,10 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ53">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR53">
         <v>1.36</v>
@@ -11967,10 +11991,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR54">
         <v>1.34</v>
@@ -12095,7 +12119,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12173,10 +12197,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR55">
         <v>2.33</v>
@@ -12379,10 +12403,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ56">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
         <v>1.76</v>
@@ -12588,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR57">
         <v>1.8</v>
@@ -12713,7 +12737,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12794,7 +12818,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR58">
         <v>1.92</v>
@@ -12997,7 +13021,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ59">
         <v>1.5</v>
@@ -13125,7 +13149,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13203,7 +13227,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13412,7 +13436,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR61">
         <v>1.9</v>
@@ -13537,7 +13561,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="Q62">
         <v>4.75</v>
@@ -13615,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ62">
         <v>1.5</v>
@@ -13743,7 +13767,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13821,7 +13845,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ63">
         <v>1.6</v>
@@ -13949,7 +13973,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14030,7 +14054,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>1.67</v>
@@ -14155,7 +14179,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14236,7 +14260,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ65">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR65">
         <v>1.28</v>
@@ -14361,7 +14385,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14567,7 +14591,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14645,7 +14669,7 @@
         <v>2.5</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67">
         <v>2.2</v>
@@ -14773,7 +14797,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>5.25</v>
@@ -14979,7 +15003,7 @@
         <v>103</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>2.38</v>
@@ -15185,7 +15209,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q70">
         <v>2.2</v>
@@ -15263,10 +15287,10 @@
         <v>1.75</v>
       </c>
       <c r="AP70">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ70">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR70">
         <v>1.63</v>
@@ -15391,7 +15415,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>2.95</v>
@@ -15754,6 +15778,1654 @@
       </c>
       <c r="BP72">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7779024</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45795.375</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>86</v>
+      </c>
+      <c r="P73" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q73">
+        <v>3.2</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>3.4</v>
+      </c>
+      <c r="T73">
+        <v>1.48</v>
+      </c>
+      <c r="U73">
+        <v>2.45</v>
+      </c>
+      <c r="V73">
+        <v>3.3</v>
+      </c>
+      <c r="W73">
+        <v>1.28</v>
+      </c>
+      <c r="X73">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>2.44</v>
+      </c>
+      <c r="AA73">
+        <v>3.04</v>
+      </c>
+      <c r="AB73">
+        <v>2.62</v>
+      </c>
+      <c r="AC73">
+        <v>1.09</v>
+      </c>
+      <c r="AD73">
+        <v>7.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.45</v>
+      </c>
+      <c r="AF73">
+        <v>2.75</v>
+      </c>
+      <c r="AG73">
+        <v>2.25</v>
+      </c>
+      <c r="AH73">
+        <v>1.53</v>
+      </c>
+      <c r="AI73">
+        <v>1.93</v>
+      </c>
+      <c r="AJ73">
+        <v>1.75</v>
+      </c>
+      <c r="AK73">
+        <v>1.42</v>
+      </c>
+      <c r="AL73">
+        <v>1.3</v>
+      </c>
+      <c r="AM73">
+        <v>1.48</v>
+      </c>
+      <c r="AN73">
+        <v>2.5</v>
+      </c>
+      <c r="AO73">
+        <v>1.75</v>
+      </c>
+      <c r="AP73">
+        <v>2.2</v>
+      </c>
+      <c r="AQ73">
+        <v>1.6</v>
+      </c>
+      <c r="AR73">
+        <v>1.73</v>
+      </c>
+      <c r="AS73">
+        <v>2.05</v>
+      </c>
+      <c r="AT73">
+        <v>3.78</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>3</v>
+      </c>
+      <c r="AW73">
+        <v>13</v>
+      </c>
+      <c r="AX73">
+        <v>7</v>
+      </c>
+      <c r="AY73">
+        <v>18</v>
+      </c>
+      <c r="AZ73">
+        <v>11</v>
+      </c>
+      <c r="BA73">
+        <v>7</v>
+      </c>
+      <c r="BB73">
+        <v>4</v>
+      </c>
+      <c r="BC73">
+        <v>11</v>
+      </c>
+      <c r="BD73">
+        <v>1.97</v>
+      </c>
+      <c r="BE73">
+        <v>7</v>
+      </c>
+      <c r="BF73">
+        <v>1.98</v>
+      </c>
+      <c r="BG73">
+        <v>1.21</v>
+      </c>
+      <c r="BH73">
+        <v>3.9</v>
+      </c>
+      <c r="BI73">
+        <v>1.36</v>
+      </c>
+      <c r="BJ73">
+        <v>2.8</v>
+      </c>
+      <c r="BK73">
+        <v>1.6</v>
+      </c>
+      <c r="BL73">
+        <v>2.17</v>
+      </c>
+      <c r="BM73">
+        <v>1.95</v>
+      </c>
+      <c r="BN73">
+        <v>1.76</v>
+      </c>
+      <c r="BO73">
+        <v>2.4</v>
+      </c>
+      <c r="BP73">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7779026</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45795.375</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>139</v>
+      </c>
+      <c r="P74" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q74">
+        <v>2.05</v>
+      </c>
+      <c r="R74">
+        <v>2.38</v>
+      </c>
+      <c r="S74">
+        <v>4.75</v>
+      </c>
+      <c r="T74">
+        <v>1.28</v>
+      </c>
+      <c r="U74">
+        <v>3.3</v>
+      </c>
+      <c r="V74">
+        <v>2.3</v>
+      </c>
+      <c r="W74">
+        <v>1.55</v>
+      </c>
+      <c r="X74">
+        <v>5.8</v>
+      </c>
+      <c r="Y74">
+        <v>1.07</v>
+      </c>
+      <c r="Z74">
+        <v>1.6</v>
+      </c>
+      <c r="AA74">
+        <v>3.8</v>
+      </c>
+      <c r="AB74">
+        <v>4.33</v>
+      </c>
+      <c r="AC74">
+        <v>1.04</v>
+      </c>
+      <c r="AD74">
+        <v>11</v>
+      </c>
+      <c r="AE74">
+        <v>1.2</v>
+      </c>
+      <c r="AF74">
+        <v>4.5</v>
+      </c>
+      <c r="AG74">
+        <v>1.6</v>
+      </c>
+      <c r="AH74">
+        <v>2.1</v>
+      </c>
+      <c r="AI74">
+        <v>1.62</v>
+      </c>
+      <c r="AJ74">
+        <v>2.1</v>
+      </c>
+      <c r="AK74">
+        <v>1.17</v>
+      </c>
+      <c r="AL74">
+        <v>1.18</v>
+      </c>
+      <c r="AM74">
+        <v>2.25</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>0.25</v>
+      </c>
+      <c r="AP74">
+        <v>1.33</v>
+      </c>
+      <c r="AQ74">
+        <v>0.2</v>
+      </c>
+      <c r="AR74">
+        <v>1.9</v>
+      </c>
+      <c r="AS74">
+        <v>1.77</v>
+      </c>
+      <c r="AT74">
+        <v>3.67</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>2</v>
+      </c>
+      <c r="AW74">
+        <v>17</v>
+      </c>
+      <c r="AX74">
+        <v>4</v>
+      </c>
+      <c r="AY74">
+        <v>23</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>5</v>
+      </c>
+      <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
+        <v>9</v>
+      </c>
+      <c r="BD74">
+        <v>1.48</v>
+      </c>
+      <c r="BE74">
+        <v>7.5</v>
+      </c>
+      <c r="BF74">
+        <v>2.9</v>
+      </c>
+      <c r="BG74">
+        <v>1.12</v>
+      </c>
+      <c r="BH74">
+        <v>5.1</v>
+      </c>
+      <c r="BI74">
+        <v>1.23</v>
+      </c>
+      <c r="BJ74">
+        <v>3.65</v>
+      </c>
+      <c r="BK74">
+        <v>1.38</v>
+      </c>
+      <c r="BL74">
+        <v>2.7</v>
+      </c>
+      <c r="BM74">
+        <v>1.61</v>
+      </c>
+      <c r="BN74">
+        <v>2.15</v>
+      </c>
+      <c r="BO74">
+        <v>1.94</v>
+      </c>
+      <c r="BP74">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7779027</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45795.47916666666</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s">
+        <v>77</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>140</v>
+      </c>
+      <c r="P75" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q75">
+        <v>3.95</v>
+      </c>
+      <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>2.65</v>
+      </c>
+      <c r="T75">
+        <v>1.42</v>
+      </c>
+      <c r="U75">
+        <v>2.62</v>
+      </c>
+      <c r="V75">
+        <v>2.95</v>
+      </c>
+      <c r="W75">
+        <v>1.35</v>
+      </c>
+      <c r="X75">
+        <v>7.7</v>
+      </c>
+      <c r="Y75">
+        <v>1.02</v>
+      </c>
+      <c r="Z75">
+        <v>3.11</v>
+      </c>
+      <c r="AA75">
+        <v>3.06</v>
+      </c>
+      <c r="AB75">
+        <v>2.12</v>
+      </c>
+      <c r="AC75">
+        <v>1.07</v>
+      </c>
+      <c r="AD75">
+        <v>8.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.38</v>
+      </c>
+      <c r="AF75">
+        <v>3.1</v>
+      </c>
+      <c r="AG75">
+        <v>1.95</v>
+      </c>
+      <c r="AH75">
+        <v>1.75</v>
+      </c>
+      <c r="AI75">
+        <v>1.83</v>
+      </c>
+      <c r="AJ75">
+        <v>1.83</v>
+      </c>
+      <c r="AK75">
+        <v>1.7</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
+        <v>1.28</v>
+      </c>
+      <c r="AN75">
+        <v>0.75</v>
+      </c>
+      <c r="AO75">
+        <v>1.2</v>
+      </c>
+      <c r="AP75">
+        <v>0.8</v>
+      </c>
+      <c r="AQ75">
+        <v>1.17</v>
+      </c>
+      <c r="AR75">
+        <v>1.1</v>
+      </c>
+      <c r="AS75">
+        <v>1.6</v>
+      </c>
+      <c r="AT75">
+        <v>2.7</v>
+      </c>
+      <c r="AU75">
+        <v>2</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>3</v>
+      </c>
+      <c r="AX75">
+        <v>9</v>
+      </c>
+      <c r="AY75">
+        <v>5</v>
+      </c>
+      <c r="AZ75">
+        <v>13</v>
+      </c>
+      <c r="BA75">
+        <v>8</v>
+      </c>
+      <c r="BB75">
+        <v>8</v>
+      </c>
+      <c r="BC75">
+        <v>16</v>
+      </c>
+      <c r="BD75">
+        <v>2.35</v>
+      </c>
+      <c r="BE75">
+        <v>7</v>
+      </c>
+      <c r="BF75">
+        <v>1.68</v>
+      </c>
+      <c r="BG75">
+        <v>1.16</v>
+      </c>
+      <c r="BH75">
+        <v>4.4</v>
+      </c>
+      <c r="BI75">
+        <v>1.29</v>
+      </c>
+      <c r="BJ75">
+        <v>3.15</v>
+      </c>
+      <c r="BK75">
+        <v>1.49</v>
+      </c>
+      <c r="BL75">
+        <v>2.4</v>
+      </c>
+      <c r="BM75">
+        <v>1.76</v>
+      </c>
+      <c r="BN75">
+        <v>1.93</v>
+      </c>
+      <c r="BO75">
+        <v>2.17</v>
+      </c>
+      <c r="BP75">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7779028</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45795.47916666666</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>85</v>
+      </c>
+      <c r="H76" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>141</v>
+      </c>
+      <c r="P76" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q76">
+        <v>1.5</v>
+      </c>
+      <c r="R76">
+        <v>2.9</v>
+      </c>
+      <c r="S76">
+        <v>9.5</v>
+      </c>
+      <c r="T76">
+        <v>1.22</v>
+      </c>
+      <c r="U76">
+        <v>3.8</v>
+      </c>
+      <c r="V76">
+        <v>2.05</v>
+      </c>
+      <c r="W76">
+        <v>1.7</v>
+      </c>
+      <c r="X76">
+        <v>4.8</v>
+      </c>
+      <c r="Y76">
+        <v>1.12</v>
+      </c>
+      <c r="Z76">
+        <v>1.17</v>
+      </c>
+      <c r="AA76">
+        <v>5.6</v>
+      </c>
+      <c r="AB76">
+        <v>12</v>
+      </c>
+      <c r="AC76">
+        <v>1.03</v>
+      </c>
+      <c r="AD76">
+        <v>13</v>
+      </c>
+      <c r="AE76">
+        <v>1.15</v>
+      </c>
+      <c r="AF76">
+        <v>5.5</v>
+      </c>
+      <c r="AG76">
+        <v>1.55</v>
+      </c>
+      <c r="AH76">
+        <v>2.2</v>
+      </c>
+      <c r="AI76">
+        <v>2.1</v>
+      </c>
+      <c r="AJ76">
+        <v>1.62</v>
+      </c>
+      <c r="AK76">
+        <v>1.03</v>
+      </c>
+      <c r="AL76">
+        <v>1.09</v>
+      </c>
+      <c r="AM76">
+        <v>4.75</v>
+      </c>
+      <c r="AN76">
+        <v>1.75</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>2</v>
+      </c>
+      <c r="AQ76">
+        <v>0.8</v>
+      </c>
+      <c r="AR76">
+        <v>2.52</v>
+      </c>
+      <c r="AS76">
+        <v>0.93</v>
+      </c>
+      <c r="AT76">
+        <v>3.45</v>
+      </c>
+      <c r="AU76">
+        <v>7</v>
+      </c>
+      <c r="AV76">
+        <v>2</v>
+      </c>
+      <c r="AW76">
+        <v>10</v>
+      </c>
+      <c r="AX76">
+        <v>5</v>
+      </c>
+      <c r="AY76">
+        <v>17</v>
+      </c>
+      <c r="AZ76">
+        <v>7</v>
+      </c>
+      <c r="BA76">
+        <v>8</v>
+      </c>
+      <c r="BB76">
+        <v>2</v>
+      </c>
+      <c r="BC76">
+        <v>10</v>
+      </c>
+      <c r="BD76">
+        <v>1.17</v>
+      </c>
+      <c r="BE76">
+        <v>10</v>
+      </c>
+      <c r="BF76">
+        <v>5.1</v>
+      </c>
+      <c r="BG76">
+        <v>1.17</v>
+      </c>
+      <c r="BH76">
+        <v>4.3</v>
+      </c>
+      <c r="BI76">
+        <v>1.3</v>
+      </c>
+      <c r="BJ76">
+        <v>3.15</v>
+      </c>
+      <c r="BK76">
+        <v>1.5</v>
+      </c>
+      <c r="BL76">
+        <v>2.38</v>
+      </c>
+      <c r="BM76">
+        <v>1.77</v>
+      </c>
+      <c r="BN76">
+        <v>1.92</v>
+      </c>
+      <c r="BO76">
+        <v>2.17</v>
+      </c>
+      <c r="BP76">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7779029</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45796.58333333334</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" t="s">
+        <v>82</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>142</v>
+      </c>
+      <c r="P77" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q77">
+        <v>2.2</v>
+      </c>
+      <c r="R77">
+        <v>2.4</v>
+      </c>
+      <c r="S77">
+        <v>4.75</v>
+      </c>
+      <c r="T77">
+        <v>1.3</v>
+      </c>
+      <c r="U77">
+        <v>3.4</v>
+      </c>
+      <c r="V77">
+        <v>2.38</v>
+      </c>
+      <c r="W77">
+        <v>1.53</v>
+      </c>
+      <c r="X77">
+        <v>6</v>
+      </c>
+      <c r="Y77">
+        <v>1.13</v>
+      </c>
+      <c r="Z77">
+        <v>1.52</v>
+      </c>
+      <c r="AA77">
+        <v>3.8</v>
+      </c>
+      <c r="AB77">
+        <v>5.1</v>
+      </c>
+      <c r="AC77">
+        <v>1.04</v>
+      </c>
+      <c r="AD77">
+        <v>11</v>
+      </c>
+      <c r="AE77">
+        <v>1.2</v>
+      </c>
+      <c r="AF77">
+        <v>4.5</v>
+      </c>
+      <c r="AG77">
+        <v>1.55</v>
+      </c>
+      <c r="AH77">
+        <v>2.2</v>
+      </c>
+      <c r="AI77">
+        <v>1.67</v>
+      </c>
+      <c r="AJ77">
+        <v>2.1</v>
+      </c>
+      <c r="AK77">
+        <v>1.14</v>
+      </c>
+      <c r="AL77">
+        <v>1.18</v>
+      </c>
+      <c r="AM77">
+        <v>2.35</v>
+      </c>
+      <c r="AN77">
+        <v>2.5</v>
+      </c>
+      <c r="AO77">
+        <v>1.4</v>
+      </c>
+      <c r="AP77">
+        <v>2.6</v>
+      </c>
+      <c r="AQ77">
+        <v>1.17</v>
+      </c>
+      <c r="AR77">
+        <v>1.37</v>
+      </c>
+      <c r="AS77">
+        <v>1.68</v>
+      </c>
+      <c r="AT77">
+        <v>3.05</v>
+      </c>
+      <c r="AU77">
+        <v>-1</v>
+      </c>
+      <c r="AV77">
+        <v>-1</v>
+      </c>
+      <c r="AW77">
+        <v>-1</v>
+      </c>
+      <c r="AX77">
+        <v>-1</v>
+      </c>
+      <c r="AY77">
+        <v>-1</v>
+      </c>
+      <c r="AZ77">
+        <v>-1</v>
+      </c>
+      <c r="BA77">
+        <v>-1</v>
+      </c>
+      <c r="BB77">
+        <v>-1</v>
+      </c>
+      <c r="BC77">
+        <v>-1</v>
+      </c>
+      <c r="BD77">
+        <v>1.55</v>
+      </c>
+      <c r="BE77">
+        <v>7</v>
+      </c>
+      <c r="BF77">
+        <v>2.65</v>
+      </c>
+      <c r="BG77">
+        <v>1.19</v>
+      </c>
+      <c r="BH77">
+        <v>4.1</v>
+      </c>
+      <c r="BI77">
+        <v>1.33</v>
+      </c>
+      <c r="BJ77">
+        <v>2.95</v>
+      </c>
+      <c r="BK77">
+        <v>1.54</v>
+      </c>
+      <c r="BL77">
+        <v>2.3</v>
+      </c>
+      <c r="BM77">
+        <v>1.85</v>
+      </c>
+      <c r="BN77">
+        <v>1.83</v>
+      </c>
+      <c r="BO77">
+        <v>2.3</v>
+      </c>
+      <c r="BP77">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7779030</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45796.58333333334</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s">
+        <v>74</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>143</v>
+      </c>
+      <c r="P78" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q78">
+        <v>2.75</v>
+      </c>
+      <c r="R78">
+        <v>2.3</v>
+      </c>
+      <c r="S78">
+        <v>3.6</v>
+      </c>
+      <c r="T78">
+        <v>1.3</v>
+      </c>
+      <c r="U78">
+        <v>3.4</v>
+      </c>
+      <c r="V78">
+        <v>2.5</v>
+      </c>
+      <c r="W78">
+        <v>1.5</v>
+      </c>
+      <c r="X78">
+        <v>6</v>
+      </c>
+      <c r="Y78">
+        <v>1.13</v>
+      </c>
+      <c r="Z78">
+        <v>2.11</v>
+      </c>
+      <c r="AA78">
+        <v>3.4</v>
+      </c>
+      <c r="AB78">
+        <v>2.85</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>11</v>
+      </c>
+      <c r="AE78">
+        <v>1.2</v>
+      </c>
+      <c r="AF78">
+        <v>4.5</v>
+      </c>
+      <c r="AG78">
+        <v>1.6</v>
+      </c>
+      <c r="AH78">
+        <v>2.1</v>
+      </c>
+      <c r="AI78">
+        <v>1.57</v>
+      </c>
+      <c r="AJ78">
+        <v>2.25</v>
+      </c>
+      <c r="AK78">
+        <v>1.35</v>
+      </c>
+      <c r="AL78">
+        <v>1.22</v>
+      </c>
+      <c r="AM78">
+        <v>1.67</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>0.8</v>
+      </c>
+      <c r="AQ78">
+        <v>1.4</v>
+      </c>
+      <c r="AR78">
+        <v>1.49</v>
+      </c>
+      <c r="AS78">
+        <v>1.28</v>
+      </c>
+      <c r="AT78">
+        <v>2.77</v>
+      </c>
+      <c r="AU78">
+        <v>-1</v>
+      </c>
+      <c r="AV78">
+        <v>-1</v>
+      </c>
+      <c r="AW78">
+        <v>-1</v>
+      </c>
+      <c r="AX78">
+        <v>-1</v>
+      </c>
+      <c r="AY78">
+        <v>-1</v>
+      </c>
+      <c r="AZ78">
+        <v>-1</v>
+      </c>
+      <c r="BA78">
+        <v>-1</v>
+      </c>
+      <c r="BB78">
+        <v>-1</v>
+      </c>
+      <c r="BC78">
+        <v>-1</v>
+      </c>
+      <c r="BD78">
+        <v>1.71</v>
+      </c>
+      <c r="BE78">
+        <v>7</v>
+      </c>
+      <c r="BF78">
+        <v>2.33</v>
+      </c>
+      <c r="BG78">
+        <v>1.16</v>
+      </c>
+      <c r="BH78">
+        <v>4.6</v>
+      </c>
+      <c r="BI78">
+        <v>1.28</v>
+      </c>
+      <c r="BJ78">
+        <v>3.3</v>
+      </c>
+      <c r="BK78">
+        <v>1.49</v>
+      </c>
+      <c r="BL78">
+        <v>2.43</v>
+      </c>
+      <c r="BM78">
+        <v>1.76</v>
+      </c>
+      <c r="BN78">
+        <v>1.94</v>
+      </c>
+      <c r="BO78">
+        <v>2.15</v>
+      </c>
+      <c r="BP78">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7779031</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45796.58333333334</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" t="s">
+        <v>78</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>144</v>
+      </c>
+      <c r="P79" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q79">
+        <v>3.25</v>
+      </c>
+      <c r="R79">
+        <v>2.25</v>
+      </c>
+      <c r="S79">
+        <v>3</v>
+      </c>
+      <c r="T79">
+        <v>1.33</v>
+      </c>
+      <c r="U79">
+        <v>3.25</v>
+      </c>
+      <c r="V79">
+        <v>2.63</v>
+      </c>
+      <c r="W79">
+        <v>1.44</v>
+      </c>
+      <c r="X79">
+        <v>6.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.11</v>
+      </c>
+      <c r="Z79">
+        <v>2.64</v>
+      </c>
+      <c r="AA79">
+        <v>3.34</v>
+      </c>
+      <c r="AB79">
+        <v>2.26</v>
+      </c>
+      <c r="AC79">
+        <v>1.05</v>
+      </c>
+      <c r="AD79">
+        <v>10</v>
+      </c>
+      <c r="AE79">
+        <v>1.25</v>
+      </c>
+      <c r="AF79">
+        <v>4</v>
+      </c>
+      <c r="AG79">
+        <v>1.66</v>
+      </c>
+      <c r="AH79">
+        <v>2.08</v>
+      </c>
+      <c r="AI79">
+        <v>1.62</v>
+      </c>
+      <c r="AJ79">
+        <v>2.2</v>
+      </c>
+      <c r="AK79">
+        <v>1.57</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
+        <v>1.4</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>1.5</v>
+      </c>
+      <c r="AP79">
+        <v>0.8</v>
+      </c>
+      <c r="AQ79">
+        <v>1.8</v>
+      </c>
+      <c r="AR79">
+        <v>1.62</v>
+      </c>
+      <c r="AS79">
+        <v>1.19</v>
+      </c>
+      <c r="AT79">
+        <v>2.81</v>
+      </c>
+      <c r="AU79">
+        <v>-1</v>
+      </c>
+      <c r="AV79">
+        <v>-1</v>
+      </c>
+      <c r="AW79">
+        <v>-1</v>
+      </c>
+      <c r="AX79">
+        <v>-1</v>
+      </c>
+      <c r="AY79">
+        <v>-1</v>
+      </c>
+      <c r="AZ79">
+        <v>-1</v>
+      </c>
+      <c r="BA79">
+        <v>-1</v>
+      </c>
+      <c r="BB79">
+        <v>-1</v>
+      </c>
+      <c r="BC79">
+        <v>-1</v>
+      </c>
+      <c r="BD79">
+        <v>2.07</v>
+      </c>
+      <c r="BE79">
+        <v>6.75</v>
+      </c>
+      <c r="BF79">
+        <v>1.9</v>
+      </c>
+      <c r="BG79">
+        <v>1.15</v>
+      </c>
+      <c r="BH79">
+        <v>4.6</v>
+      </c>
+      <c r="BI79">
+        <v>1.27</v>
+      </c>
+      <c r="BJ79">
+        <v>3.3</v>
+      </c>
+      <c r="BK79">
+        <v>1.46</v>
+      </c>
+      <c r="BL79">
+        <v>2.5</v>
+      </c>
+      <c r="BM79">
+        <v>1.73</v>
+      </c>
+      <c r="BN79">
+        <v>1.98</v>
+      </c>
+      <c r="BO79">
+        <v>2.08</v>
+      </c>
+      <c r="BP79">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7779025</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45796.59027777778</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s">
+        <v>70</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>145</v>
+      </c>
+      <c r="P80" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q80">
+        <v>2.75</v>
+      </c>
+      <c r="R80">
+        <v>2.2</v>
+      </c>
+      <c r="S80">
+        <v>3.75</v>
+      </c>
+      <c r="T80">
+        <v>1.4</v>
+      </c>
+      <c r="U80">
+        <v>2.75</v>
+      </c>
+      <c r="V80">
+        <v>2.75</v>
+      </c>
+      <c r="W80">
+        <v>1.4</v>
+      </c>
+      <c r="X80">
+        <v>8</v>
+      </c>
+      <c r="Y80">
+        <v>1.08</v>
+      </c>
+      <c r="Z80">
+        <v>2.03</v>
+      </c>
+      <c r="AA80">
+        <v>3.45</v>
+      </c>
+      <c r="AB80">
+        <v>2.97</v>
+      </c>
+      <c r="AC80">
+        <v>1.05</v>
+      </c>
+      <c r="AD80">
+        <v>10</v>
+      </c>
+      <c r="AE80">
+        <v>1.33</v>
+      </c>
+      <c r="AF80">
+        <v>3.4</v>
+      </c>
+      <c r="AG80">
+        <v>1.93</v>
+      </c>
+      <c r="AH80">
+        <v>1.77</v>
+      </c>
+      <c r="AI80">
+        <v>1.8</v>
+      </c>
+      <c r="AJ80">
+        <v>1.95</v>
+      </c>
+      <c r="AK80">
+        <v>1.33</v>
+      </c>
+      <c r="AL80">
+        <v>1.22</v>
+      </c>
+      <c r="AM80">
+        <v>1.7</v>
+      </c>
+      <c r="AN80">
+        <v>2.6</v>
+      </c>
+      <c r="AO80">
+        <v>2</v>
+      </c>
+      <c r="AP80">
+        <v>2.67</v>
+      </c>
+      <c r="AQ80">
+        <v>1.5</v>
+      </c>
+      <c r="AR80">
+        <v>1.63</v>
+      </c>
+      <c r="AS80">
+        <v>1.34</v>
+      </c>
+      <c r="AT80">
+        <v>2.97</v>
+      </c>
+      <c r="AU80">
+        <v>-1</v>
+      </c>
+      <c r="AV80">
+        <v>-1</v>
+      </c>
+      <c r="AW80">
+        <v>-1</v>
+      </c>
+      <c r="AX80">
+        <v>-1</v>
+      </c>
+      <c r="AY80">
+        <v>-1</v>
+      </c>
+      <c r="AZ80">
+        <v>-1</v>
+      </c>
+      <c r="BA80">
+        <v>-1</v>
+      </c>
+      <c r="BB80">
+        <v>-1</v>
+      </c>
+      <c r="BC80">
+        <v>-1</v>
+      </c>
+      <c r="BD80">
+        <v>1.82</v>
+      </c>
+      <c r="BE80">
+        <v>6.75</v>
+      </c>
+      <c r="BF80">
+        <v>2.15</v>
+      </c>
+      <c r="BG80">
+        <v>1.23</v>
+      </c>
+      <c r="BH80">
+        <v>3.65</v>
+      </c>
+      <c r="BI80">
+        <v>1.41</v>
+      </c>
+      <c r="BJ80">
+        <v>2.65</v>
+      </c>
+      <c r="BK80">
+        <v>1.67</v>
+      </c>
+      <c r="BL80">
+        <v>2.07</v>
+      </c>
+      <c r="BM80">
+        <v>2</v>
+      </c>
+      <c r="BN80">
+        <v>1.7</v>
+      </c>
+      <c r="BO80">
+        <v>2.55</v>
+      </c>
+      <c r="BP80">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -16138,10 +16138,10 @@
         <v>4</v>
       </c>
       <c r="AY74">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA74">
         <v>5</v>
@@ -16550,10 +16550,10 @@
         <v>5</v>
       </c>
       <c r="AY76">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA76">
         <v>8</v>
@@ -16744,31 +16744,31 @@
         <v>3.05</v>
       </c>
       <c r="AU77">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV77">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW77">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX77">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AY77">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ77">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BA77">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB77">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC77">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD77">
         <v>1.55</v>
@@ -16950,31 +16950,31 @@
         <v>2.77</v>
       </c>
       <c r="AU78">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV78">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW78">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AX78">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY78">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="AZ78">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA78">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BB78">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC78">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BD78">
         <v>1.71</v>
@@ -17156,31 +17156,31 @@
         <v>2.81</v>
       </c>
       <c r="AU79">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV79">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW79">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX79">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY79">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ79">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA79">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB79">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC79">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD79">
         <v>2.07</v>
@@ -17362,31 +17362,31 @@
         <v>2.97</v>
       </c>
       <c r="AU80">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW80">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX80">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY80">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ80">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA80">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC80">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD80">
         <v>1.82</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,9 @@
     <t>['9', '42', '56', '60']</t>
   </si>
   <si>
+    <t>['43']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -581,6 +584,9 @@
   </si>
   <si>
     <t>['6', '9', '32']</t>
+  </si>
+  <si>
+    <t>['21', '65']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1207,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1691,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ4">
         <v>1.8</v>
@@ -1819,7 +1825,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1900,7 +1906,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2025,7 +2031,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2231,7 +2237,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2437,7 +2443,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2643,7 +2649,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2724,7 +2730,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3055,7 +3061,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3467,7 +3473,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3673,7 +3679,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4085,7 +4091,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4291,7 +4297,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4369,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4497,7 +4503,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4578,7 +4584,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR18">
         <v>2.05</v>
@@ -4987,7 +4993,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5115,7 +5121,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5527,7 +5533,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -6145,7 +6151,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6351,7 +6357,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6429,7 +6435,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7050,7 +7056,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.48</v>
@@ -7175,7 +7181,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7381,7 +7387,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7871,7 +7877,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ34">
         <v>1.6</v>
@@ -7999,7 +8005,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8205,7 +8211,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8286,7 +8292,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -8411,7 +8417,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8617,7 +8623,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8698,7 +8704,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ38">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.5</v>
@@ -8823,7 +8829,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9441,7 +9447,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9647,7 +9653,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10059,7 +10065,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10755,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48">
         <v>0.6</v>
@@ -10883,7 +10889,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11089,7 +11095,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11376,7 +11382,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.87</v>
@@ -11501,7 +11507,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11707,7 +11713,7 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12119,7 +12125,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12197,7 +12203,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ55">
         <v>1.17</v>
@@ -12737,7 +12743,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13149,7 +13155,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13230,7 +13236,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR60">
         <v>1.84</v>
@@ -13433,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ61">
         <v>1.4</v>
@@ -13767,7 +13773,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13973,7 +13979,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14179,7 +14185,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14385,7 +14391,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14463,7 +14469,7 @@
         <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14591,7 +14597,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14672,7 +14678,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.87</v>
@@ -14797,7 +14803,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>5.25</v>
@@ -15003,7 +15009,7 @@
         <v>103</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q69">
         <v>2.38</v>
@@ -15209,7 +15215,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q70">
         <v>2.2</v>
@@ -15415,7 +15421,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>2.95</v>
@@ -15496,7 +15502,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR71">
         <v>1.63</v>
@@ -16239,7 +16245,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>3.95</v>
@@ -16523,7 +16529,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ76">
         <v>0.8</v>
@@ -16857,7 +16863,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17063,7 +17069,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17426,6 +17432,418 @@
       </c>
       <c r="BP80">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7779089</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45799.58333333334</v>
+      </c>
+      <c r="F81">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H81" t="s">
+        <v>84</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>146</v>
+      </c>
+      <c r="P81" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q81">
+        <v>2.45</v>
+      </c>
+      <c r="R81">
+        <v>2.15</v>
+      </c>
+      <c r="S81">
+        <v>4</v>
+      </c>
+      <c r="T81">
+        <v>1.36</v>
+      </c>
+      <c r="U81">
+        <v>2.9</v>
+      </c>
+      <c r="V81">
+        <v>2.62</v>
+      </c>
+      <c r="W81">
+        <v>1.42</v>
+      </c>
+      <c r="X81">
+        <v>6.65</v>
+      </c>
+      <c r="Y81">
+        <v>1.05</v>
+      </c>
+      <c r="Z81">
+        <v>1.86</v>
+      </c>
+      <c r="AA81">
+        <v>3.41</v>
+      </c>
+      <c r="AB81">
+        <v>3.45</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>10</v>
+      </c>
+      <c r="AE81">
+        <v>1.28</v>
+      </c>
+      <c r="AF81">
+        <v>3.75</v>
+      </c>
+      <c r="AG81">
+        <v>1.83</v>
+      </c>
+      <c r="AH81">
+        <v>1.87</v>
+      </c>
+      <c r="AI81">
+        <v>1.67</v>
+      </c>
+      <c r="AJ81">
+        <v>2.05</v>
+      </c>
+      <c r="AK81">
+        <v>1.25</v>
+      </c>
+      <c r="AL81">
+        <v>1.22</v>
+      </c>
+      <c r="AM81">
+        <v>1.85</v>
+      </c>
+      <c r="AN81">
+        <v>2.6</v>
+      </c>
+      <c r="AO81">
+        <v>2</v>
+      </c>
+      <c r="AP81">
+        <v>2.17</v>
+      </c>
+      <c r="AQ81">
+        <v>2.17</v>
+      </c>
+      <c r="AR81">
+        <v>2.05</v>
+      </c>
+      <c r="AS81">
+        <v>1.66</v>
+      </c>
+      <c r="AT81">
+        <v>3.71</v>
+      </c>
+      <c r="AU81">
+        <v>8</v>
+      </c>
+      <c r="AV81">
+        <v>7</v>
+      </c>
+      <c r="AW81">
+        <v>16</v>
+      </c>
+      <c r="AX81">
+        <v>3</v>
+      </c>
+      <c r="AY81">
+        <v>29</v>
+      </c>
+      <c r="AZ81">
+        <v>10</v>
+      </c>
+      <c r="BA81">
+        <v>10</v>
+      </c>
+      <c r="BB81">
+        <v>3</v>
+      </c>
+      <c r="BC81">
+        <v>13</v>
+      </c>
+      <c r="BD81">
+        <v>1.49</v>
+      </c>
+      <c r="BE81">
+        <v>7</v>
+      </c>
+      <c r="BF81">
+        <v>2.9</v>
+      </c>
+      <c r="BG81">
+        <v>1.18</v>
+      </c>
+      <c r="BH81">
+        <v>4.3</v>
+      </c>
+      <c r="BI81">
+        <v>1.3</v>
+      </c>
+      <c r="BJ81">
+        <v>3.05</v>
+      </c>
+      <c r="BK81">
+        <v>1.5</v>
+      </c>
+      <c r="BL81">
+        <v>2.35</v>
+      </c>
+      <c r="BM81">
+        <v>1.79</v>
+      </c>
+      <c r="BN81">
+        <v>1.9</v>
+      </c>
+      <c r="BO81">
+        <v>2.2</v>
+      </c>
+      <c r="BP81">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7779093</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45799.58333333334</v>
+      </c>
+      <c r="F82">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" t="s">
+        <v>81</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>86</v>
+      </c>
+      <c r="P82" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q82">
+        <v>2.4</v>
+      </c>
+      <c r="R82">
+        <v>2.05</v>
+      </c>
+      <c r="S82">
+        <v>4.75</v>
+      </c>
+      <c r="T82">
+        <v>1.42</v>
+      </c>
+      <c r="U82">
+        <v>2.62</v>
+      </c>
+      <c r="V82">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <v>1.33</v>
+      </c>
+      <c r="X82">
+        <v>8.4</v>
+      </c>
+      <c r="Y82">
+        <v>1.01</v>
+      </c>
+      <c r="Z82">
+        <v>1.59</v>
+      </c>
+      <c r="AA82">
+        <v>3.56</v>
+      </c>
+      <c r="AB82">
+        <v>4.75</v>
+      </c>
+      <c r="AC82">
+        <v>1.07</v>
+      </c>
+      <c r="AD82">
+        <v>8.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.38</v>
+      </c>
+      <c r="AF82">
+        <v>3.1</v>
+      </c>
+      <c r="AG82">
+        <v>2.02</v>
+      </c>
+      <c r="AH82">
+        <v>1.7</v>
+      </c>
+      <c r="AI82">
+        <v>1.93</v>
+      </c>
+      <c r="AJ82">
+        <v>1.75</v>
+      </c>
+      <c r="AK82">
+        <v>1.2</v>
+      </c>
+      <c r="AL82">
+        <v>1.25</v>
+      </c>
+      <c r="AM82">
+        <v>1.95</v>
+      </c>
+      <c r="AN82">
+        <v>2</v>
+      </c>
+      <c r="AO82">
+        <v>2.2</v>
+      </c>
+      <c r="AP82">
+        <v>1.83</v>
+      </c>
+      <c r="AQ82">
+        <v>2</v>
+      </c>
+      <c r="AR82">
+        <v>2.4</v>
+      </c>
+      <c r="AS82">
+        <v>1.27</v>
+      </c>
+      <c r="AT82">
+        <v>3.67</v>
+      </c>
+      <c r="AU82">
+        <v>6</v>
+      </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
+      <c r="AW82">
+        <v>12</v>
+      </c>
+      <c r="AX82">
+        <v>9</v>
+      </c>
+      <c r="AY82">
+        <v>24</v>
+      </c>
+      <c r="AZ82">
+        <v>14</v>
+      </c>
+      <c r="BA82">
+        <v>9</v>
+      </c>
+      <c r="BB82">
+        <v>6</v>
+      </c>
+      <c r="BC82">
+        <v>15</v>
+      </c>
+      <c r="BD82">
+        <v>1.49</v>
+      </c>
+      <c r="BE82">
+        <v>7</v>
+      </c>
+      <c r="BF82">
+        <v>2.9</v>
+      </c>
+      <c r="BG82">
+        <v>1.23</v>
+      </c>
+      <c r="BH82">
+        <v>3.7</v>
+      </c>
+      <c r="BI82">
+        <v>1.38</v>
+      </c>
+      <c r="BJ82">
+        <v>2.7</v>
+      </c>
+      <c r="BK82">
+        <v>1.63</v>
+      </c>
+      <c r="BL82">
+        <v>2.12</v>
+      </c>
+      <c r="BM82">
+        <v>1.98</v>
+      </c>
+      <c r="BN82">
+        <v>1.73</v>
+      </c>
+      <c r="BO82">
+        <v>2.48</v>
+      </c>
+      <c r="BP82">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,15 @@
     <t>['43']</t>
   </si>
   <si>
+    <t>['71', '86']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -587,6 +596,12 @@
   </si>
   <si>
     <t>['21', '65']</t>
+  </si>
+  <si>
+    <t>['18', '21', '48', '71']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1222,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1288,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1697,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ4">
         <v>1.8</v>
@@ -1825,7 +1840,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1906,7 +1921,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ5">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2031,7 +2046,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2109,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2237,7 +2252,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2315,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2443,7 +2458,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2521,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2649,7 +2664,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2727,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2933,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
         <v>0.8</v>
@@ -3061,7 +3076,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3348,7 +3363,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3473,7 +3488,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3679,7 +3694,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3757,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14">
         <v>1.6</v>
@@ -4091,7 +4106,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4297,7 +4312,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4378,7 +4393,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4503,7 +4518,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4584,7 +4599,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ18">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>2.05</v>
@@ -4993,7 +5008,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5121,7 +5136,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5199,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ21">
         <v>1.8</v>
@@ -5405,10 +5420,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5533,7 +5548,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5817,10 +5832,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>0.88</v>
@@ -6026,7 +6041,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ25">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6151,7 +6166,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6357,7 +6372,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6438,7 +6453,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
         <v>2.77</v>
@@ -6644,7 +6659,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6847,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ29">
         <v>0.8</v>
@@ -7056,7 +7071,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR30">
         <v>1.48</v>
@@ -7181,7 +7196,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7259,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ31">
         <v>0.2</v>
@@ -7387,7 +7402,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7465,10 +7480,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -7877,10 +7892,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.98</v>
@@ -8005,7 +8020,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8086,7 +8101,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>1.66</v>
@@ -8211,7 +8226,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8289,10 +8304,10 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -8417,7 +8432,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8498,7 +8513,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8623,7 +8638,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8701,10 +8716,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR38">
         <v>1.5</v>
@@ -8829,7 +8844,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8907,7 +8922,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ39">
         <v>1.8</v>
@@ -9113,7 +9128,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ40">
         <v>1.17</v>
@@ -9322,7 +9337,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR41">
         <v>1.44</v>
@@ -9447,7 +9462,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9653,7 +9668,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9734,7 +9749,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ43">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.41</v>
@@ -9940,7 +9955,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10065,7 +10080,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10143,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ45">
         <v>1.4</v>
@@ -10555,7 +10570,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ47">
         <v>1.17</v>
@@ -10764,7 +10779,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ48">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>2.55</v>
@@ -10889,7 +10904,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10970,7 +10985,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR49">
         <v>1.44</v>
@@ -11095,7 +11110,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11173,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>0.2</v>
@@ -11382,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR51">
         <v>1.87</v>
@@ -11507,7 +11522,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11585,10 +11600,10 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.74</v>
@@ -11713,7 +11728,7 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12125,7 +12140,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12615,7 +12630,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ57">
         <v>0.8</v>
@@ -12743,7 +12758,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12821,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ58">
         <v>0.2</v>
@@ -13030,7 +13045,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR59">
         <v>1.46</v>
@@ -13155,7 +13170,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13236,7 +13251,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ60">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>1.84</v>
@@ -13439,7 +13454,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ61">
         <v>1.4</v>
@@ -13648,7 +13663,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR62">
         <v>1.23</v>
@@ -13773,7 +13788,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13854,7 +13869,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ63">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.61</v>
@@ -13979,7 +13994,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14057,7 +14072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
         <v>1.5</v>
@@ -14185,7 +14200,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14263,7 +14278,7 @@
         <v>0.75</v>
       </c>
       <c r="AP65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>1.17</v>
@@ -14391,7 +14406,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14469,10 +14484,10 @@
         <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR66">
         <v>2.05</v>
@@ -14597,7 +14612,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14678,7 +14693,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR67">
         <v>1.87</v>
@@ -14803,7 +14818,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>5.25</v>
@@ -14881,10 +14896,10 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ68">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15009,7 +15024,7 @@
         <v>103</v>
       </c>
       <c r="P69" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q69">
         <v>2.38</v>
@@ -15087,10 +15102,10 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ69">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -15215,7 +15230,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>2.2</v>
@@ -15421,7 +15436,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>2.95</v>
@@ -15502,7 +15517,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR71">
         <v>1.63</v>
@@ -15705,10 +15720,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ72">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR72">
         <v>1.65</v>
@@ -16245,7 +16260,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q75">
         <v>3.95</v>
@@ -16863,7 +16878,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17069,7 +17084,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17481,7 +17496,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -17559,10 +17574,10 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ81">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>2.05</v>
@@ -17768,7 +17783,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR82">
         <v>2.4</v>
@@ -17844,6 +17859,1654 @@
       </c>
       <c r="BP82">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7779039</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45801.41666666666</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s">
+        <v>80</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>127</v>
+      </c>
+      <c r="P83" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q83">
+        <v>2.45</v>
+      </c>
+      <c r="R83">
+        <v>2.1</v>
+      </c>
+      <c r="S83">
+        <v>4.2</v>
+      </c>
+      <c r="T83">
+        <v>1.4</v>
+      </c>
+      <c r="U83">
+        <v>2.75</v>
+      </c>
+      <c r="V83">
+        <v>2.8</v>
+      </c>
+      <c r="W83">
+        <v>1.38</v>
+      </c>
+      <c r="X83">
+        <v>7.5</v>
+      </c>
+      <c r="Y83">
+        <v>1.03</v>
+      </c>
+      <c r="Z83">
+        <v>1.72</v>
+      </c>
+      <c r="AA83">
+        <v>3.41</v>
+      </c>
+      <c r="AB83">
+        <v>4.1</v>
+      </c>
+      <c r="AC83">
+        <v>1.06</v>
+      </c>
+      <c r="AD83">
+        <v>9</v>
+      </c>
+      <c r="AE83">
+        <v>1.33</v>
+      </c>
+      <c r="AF83">
+        <v>3.35</v>
+      </c>
+      <c r="AG83">
+        <v>1.89</v>
+      </c>
+      <c r="AH83">
+        <v>1.81</v>
+      </c>
+      <c r="AI83">
+        <v>1.77</v>
+      </c>
+      <c r="AJ83">
+        <v>1.9</v>
+      </c>
+      <c r="AK83">
+        <v>1.22</v>
+      </c>
+      <c r="AL83">
+        <v>1.25</v>
+      </c>
+      <c r="AM83">
+        <v>1.85</v>
+      </c>
+      <c r="AN83">
+        <v>0.2</v>
+      </c>
+      <c r="AO83">
+        <v>0.6</v>
+      </c>
+      <c r="AP83">
+        <v>0.33</v>
+      </c>
+      <c r="AQ83">
+        <v>0.67</v>
+      </c>
+      <c r="AR83">
+        <v>1.49</v>
+      </c>
+      <c r="AS83">
+        <v>0.95</v>
+      </c>
+      <c r="AT83">
+        <v>2.44</v>
+      </c>
+      <c r="AU83">
+        <v>4</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
+        <v>12</v>
+      </c>
+      <c r="AX83">
+        <v>8</v>
+      </c>
+      <c r="AY83">
+        <v>17</v>
+      </c>
+      <c r="AZ83">
+        <v>12</v>
+      </c>
+      <c r="BA83">
+        <v>6</v>
+      </c>
+      <c r="BB83">
+        <v>2</v>
+      </c>
+      <c r="BC83">
+        <v>8</v>
+      </c>
+      <c r="BD83">
+        <v>1.5</v>
+      </c>
+      <c r="BE83">
+        <v>7.5</v>
+      </c>
+      <c r="BF83">
+        <v>2.7</v>
+      </c>
+      <c r="BG83">
+        <v>1.14</v>
+      </c>
+      <c r="BH83">
+        <v>4.8</v>
+      </c>
+      <c r="BI83">
+        <v>1.26</v>
+      </c>
+      <c r="BJ83">
+        <v>3.4</v>
+      </c>
+      <c r="BK83">
+        <v>1.45</v>
+      </c>
+      <c r="BL83">
+        <v>2.55</v>
+      </c>
+      <c r="BM83">
+        <v>1.7</v>
+      </c>
+      <c r="BN83">
+        <v>2.02</v>
+      </c>
+      <c r="BO83">
+        <v>2.05</v>
+      </c>
+      <c r="BP83">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7779035</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45801.52083333334</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>147</v>
+      </c>
+      <c r="P84" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q84">
+        <v>2.5</v>
+      </c>
+      <c r="R84">
+        <v>2.15</v>
+      </c>
+      <c r="S84">
+        <v>3.9</v>
+      </c>
+      <c r="T84">
+        <v>1.36</v>
+      </c>
+      <c r="U84">
+        <v>2.88</v>
+      </c>
+      <c r="V84">
+        <v>2.65</v>
+      </c>
+      <c r="W84">
+        <v>1.42</v>
+      </c>
+      <c r="X84">
+        <v>6.2</v>
+      </c>
+      <c r="Y84">
+        <v>1.06</v>
+      </c>
+      <c r="Z84">
+        <v>1.84</v>
+      </c>
+      <c r="AA84">
+        <v>3.51</v>
+      </c>
+      <c r="AB84">
+        <v>3.41</v>
+      </c>
+      <c r="AC84">
+        <v>1.05</v>
+      </c>
+      <c r="AD84">
+        <v>10</v>
+      </c>
+      <c r="AE84">
+        <v>1.3</v>
+      </c>
+      <c r="AF84">
+        <v>3.6</v>
+      </c>
+      <c r="AG84">
+        <v>1.79</v>
+      </c>
+      <c r="AH84">
+        <v>1.91</v>
+      </c>
+      <c r="AI84">
+        <v>1.7</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AK84">
+        <v>1.28</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>1.77</v>
+      </c>
+      <c r="AN84">
+        <v>1.25</v>
+      </c>
+      <c r="AO84">
+        <v>1</v>
+      </c>
+      <c r="AP84">
+        <v>1.6</v>
+      </c>
+      <c r="AQ84">
+        <v>0.83</v>
+      </c>
+      <c r="AR84">
+        <v>2.01</v>
+      </c>
+      <c r="AS84">
+        <v>1.32</v>
+      </c>
+      <c r="AT84">
+        <v>3.33</v>
+      </c>
+      <c r="AU84">
+        <v>7</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>19</v>
+      </c>
+      <c r="AX84">
+        <v>5</v>
+      </c>
+      <c r="AY84">
+        <v>33</v>
+      </c>
+      <c r="AZ84">
+        <v>11</v>
+      </c>
+      <c r="BA84">
+        <v>9</v>
+      </c>
+      <c r="BB84">
+        <v>2</v>
+      </c>
+      <c r="BC84">
+        <v>11</v>
+      </c>
+      <c r="BD84">
+        <v>1.5</v>
+      </c>
+      <c r="BE84">
+        <v>7</v>
+      </c>
+      <c r="BF84">
+        <v>2.75</v>
+      </c>
+      <c r="BG84">
+        <v>1.15</v>
+      </c>
+      <c r="BH84">
+        <v>4.6</v>
+      </c>
+      <c r="BI84">
+        <v>1.27</v>
+      </c>
+      <c r="BJ84">
+        <v>3.4</v>
+      </c>
+      <c r="BK84">
+        <v>1.45</v>
+      </c>
+      <c r="BL84">
+        <v>2.55</v>
+      </c>
+      <c r="BM84">
+        <v>1.71</v>
+      </c>
+      <c r="BN84">
+        <v>2</v>
+      </c>
+      <c r="BO84">
+        <v>2.07</v>
+      </c>
+      <c r="BP84">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7779036</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45802.375</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s">
+        <v>85</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>113</v>
+      </c>
+      <c r="P85" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q85">
+        <v>4.33</v>
+      </c>
+      <c r="R85">
+        <v>2.25</v>
+      </c>
+      <c r="S85">
+        <v>2.5</v>
+      </c>
+      <c r="T85">
+        <v>1.36</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
+        <v>2.63</v>
+      </c>
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>7</v>
+      </c>
+      <c r="Y85">
+        <v>1.1</v>
+      </c>
+      <c r="Z85">
+        <v>3.67</v>
+      </c>
+      <c r="AA85">
+        <v>3.3</v>
+      </c>
+      <c r="AB85">
+        <v>1.84</v>
+      </c>
+      <c r="AC85">
+        <v>1.05</v>
+      </c>
+      <c r="AD85">
+        <v>10</v>
+      </c>
+      <c r="AE85">
+        <v>1.28</v>
+      </c>
+      <c r="AF85">
+        <v>3.65</v>
+      </c>
+      <c r="AG85">
+        <v>1.8</v>
+      </c>
+      <c r="AH85">
+        <v>1.9</v>
+      </c>
+      <c r="AI85">
+        <v>1.75</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
+        <v>1.8</v>
+      </c>
+      <c r="AL85">
+        <v>1.27</v>
+      </c>
+      <c r="AM85">
+        <v>1.27</v>
+      </c>
+      <c r="AN85">
+        <v>0.8</v>
+      </c>
+      <c r="AO85">
+        <v>1.6</v>
+      </c>
+      <c r="AP85">
+        <v>1.17</v>
+      </c>
+      <c r="AQ85">
+        <v>1.33</v>
+      </c>
+      <c r="AR85">
+        <v>1.69</v>
+      </c>
+      <c r="AS85">
+        <v>1.54</v>
+      </c>
+      <c r="AT85">
+        <v>3.23</v>
+      </c>
+      <c r="AU85">
+        <v>2</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>3</v>
+      </c>
+      <c r="AX85">
+        <v>9</v>
+      </c>
+      <c r="AY85">
+        <v>5</v>
+      </c>
+      <c r="AZ85">
+        <v>9</v>
+      </c>
+      <c r="BA85">
+        <v>2</v>
+      </c>
+      <c r="BB85">
+        <v>8</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>2.28</v>
+      </c>
+      <c r="BE85">
+        <v>6.75</v>
+      </c>
+      <c r="BF85">
+        <v>1.74</v>
+      </c>
+      <c r="BG85">
+        <v>1.17</v>
+      </c>
+      <c r="BH85">
+        <v>4.35</v>
+      </c>
+      <c r="BI85">
+        <v>1.29</v>
+      </c>
+      <c r="BJ85">
+        <v>3.15</v>
+      </c>
+      <c r="BK85">
+        <v>1.49</v>
+      </c>
+      <c r="BL85">
+        <v>2.4</v>
+      </c>
+      <c r="BM85">
+        <v>1.78</v>
+      </c>
+      <c r="BN85">
+        <v>1.92</v>
+      </c>
+      <c r="BO85">
+        <v>2.18</v>
+      </c>
+      <c r="BP85">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7779038</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45802.375</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>75</v>
+      </c>
+      <c r="H86" t="s">
+        <v>73</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86" t="s">
+        <v>118</v>
+      </c>
+      <c r="P86" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q86">
+        <v>4.75</v>
+      </c>
+      <c r="R86">
+        <v>2.25</v>
+      </c>
+      <c r="S86">
+        <v>2.38</v>
+      </c>
+      <c r="T86">
+        <v>1.36</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="V86">
+        <v>2.63</v>
+      </c>
+      <c r="W86">
+        <v>1.44</v>
+      </c>
+      <c r="X86">
+        <v>7</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>4.2</v>
+      </c>
+      <c r="AA86">
+        <v>3.53</v>
+      </c>
+      <c r="AB86">
+        <v>1.67</v>
+      </c>
+      <c r="AC86">
+        <v>1.06</v>
+      </c>
+      <c r="AD86">
+        <v>9.5</v>
+      </c>
+      <c r="AE86">
+        <v>1.3</v>
+      </c>
+      <c r="AF86">
+        <v>3.55</v>
+      </c>
+      <c r="AG86">
+        <v>1.81</v>
+      </c>
+      <c r="AH86">
+        <v>1.89</v>
+      </c>
+      <c r="AI86">
+        <v>1.8</v>
+      </c>
+      <c r="AJ86">
+        <v>1.95</v>
+      </c>
+      <c r="AK86">
+        <v>1.93</v>
+      </c>
+      <c r="AL86">
+        <v>1.28</v>
+      </c>
+      <c r="AM86">
+        <v>1.22</v>
+      </c>
+      <c r="AN86">
+        <v>1.2</v>
+      </c>
+      <c r="AO86">
+        <v>1.5</v>
+      </c>
+      <c r="AP86">
+        <v>1</v>
+      </c>
+      <c r="AQ86">
+        <v>1.8</v>
+      </c>
+      <c r="AR86">
+        <v>1.3</v>
+      </c>
+      <c r="AS86">
+        <v>1.42</v>
+      </c>
+      <c r="AT86">
+        <v>2.72</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
+        <v>7</v>
+      </c>
+      <c r="AW86">
+        <v>9</v>
+      </c>
+      <c r="AX86">
+        <v>5</v>
+      </c>
+      <c r="AY86">
+        <v>13</v>
+      </c>
+      <c r="AZ86">
+        <v>15</v>
+      </c>
+      <c r="BA86">
+        <v>3</v>
+      </c>
+      <c r="BB86">
+        <v>3</v>
+      </c>
+      <c r="BC86">
+        <v>6</v>
+      </c>
+      <c r="BD86">
+        <v>2.55</v>
+      </c>
+      <c r="BE86">
+        <v>6.75</v>
+      </c>
+      <c r="BF86">
+        <v>1.6</v>
+      </c>
+      <c r="BG86">
+        <v>1.23</v>
+      </c>
+      <c r="BH86">
+        <v>3.7</v>
+      </c>
+      <c r="BI86">
+        <v>1.4</v>
+      </c>
+      <c r="BJ86">
+        <v>2.7</v>
+      </c>
+      <c r="BK86">
+        <v>1.64</v>
+      </c>
+      <c r="BL86">
+        <v>2.1</v>
+      </c>
+      <c r="BM86">
+        <v>1.98</v>
+      </c>
+      <c r="BN86">
+        <v>1.72</v>
+      </c>
+      <c r="BO86">
+        <v>2.5</v>
+      </c>
+      <c r="BP86">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7779034</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45802.47916666666</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>82</v>
+      </c>
+      <c r="H87" t="s">
+        <v>81</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>86</v>
+      </c>
+      <c r="P87" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q87">
+        <v>3.5</v>
+      </c>
+      <c r="R87">
+        <v>2.1</v>
+      </c>
+      <c r="S87">
+        <v>3.1</v>
+      </c>
+      <c r="T87">
+        <v>1.4</v>
+      </c>
+      <c r="U87">
+        <v>2.75</v>
+      </c>
+      <c r="V87">
+        <v>3</v>
+      </c>
+      <c r="W87">
+        <v>1.36</v>
+      </c>
+      <c r="X87">
+        <v>9</v>
+      </c>
+      <c r="Y87">
+        <v>1.07</v>
+      </c>
+      <c r="Z87">
+        <v>2.74</v>
+      </c>
+      <c r="AA87">
+        <v>3.13</v>
+      </c>
+      <c r="AB87">
+        <v>2.3</v>
+      </c>
+      <c r="AC87">
+        <v>1.06</v>
+      </c>
+      <c r="AD87">
+        <v>9</v>
+      </c>
+      <c r="AE87">
+        <v>1.35</v>
+      </c>
+      <c r="AF87">
+        <v>3.25</v>
+      </c>
+      <c r="AG87">
+        <v>1.92</v>
+      </c>
+      <c r="AH87">
+        <v>1.78</v>
+      </c>
+      <c r="AI87">
+        <v>1.8</v>
+      </c>
+      <c r="AJ87">
+        <v>1.95</v>
+      </c>
+      <c r="AK87">
+        <v>1.53</v>
+      </c>
+      <c r="AL87">
+        <v>1.31</v>
+      </c>
+      <c r="AM87">
+        <v>1.4</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
+        <v>2</v>
+      </c>
+      <c r="AP87">
+        <v>0.75</v>
+      </c>
+      <c r="AQ87">
+        <v>2.14</v>
+      </c>
+      <c r="AR87">
+        <v>1.8</v>
+      </c>
+      <c r="AS87">
+        <v>1.21</v>
+      </c>
+      <c r="AT87">
+        <v>3.01</v>
+      </c>
+      <c r="AU87">
+        <v>5</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+      <c r="AW87">
+        <v>9</v>
+      </c>
+      <c r="AX87">
+        <v>9</v>
+      </c>
+      <c r="AY87">
+        <v>17</v>
+      </c>
+      <c r="AZ87">
+        <v>13</v>
+      </c>
+      <c r="BA87">
+        <v>7</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
+        <v>10</v>
+      </c>
+      <c r="BD87">
+        <v>2</v>
+      </c>
+      <c r="BE87">
+        <v>6.75</v>
+      </c>
+      <c r="BF87">
+        <v>1.94</v>
+      </c>
+      <c r="BG87">
+        <v>1.2</v>
+      </c>
+      <c r="BH87">
+        <v>4</v>
+      </c>
+      <c r="BI87">
+        <v>1.34</v>
+      </c>
+      <c r="BJ87">
+        <v>2.9</v>
+      </c>
+      <c r="BK87">
+        <v>1.56</v>
+      </c>
+      <c r="BL87">
+        <v>2.25</v>
+      </c>
+      <c r="BM87">
+        <v>1.86</v>
+      </c>
+      <c r="BN87">
+        <v>1.82</v>
+      </c>
+      <c r="BO87">
+        <v>2.3</v>
+      </c>
+      <c r="BP87">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7779032</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45802.47916666666</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>70</v>
+      </c>
+      <c r="H88" t="s">
+        <v>71</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>148</v>
+      </c>
+      <c r="P88" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q88">
+        <v>2.63</v>
+      </c>
+      <c r="R88">
+        <v>2.3</v>
+      </c>
+      <c r="S88">
+        <v>3.75</v>
+      </c>
+      <c r="T88">
+        <v>1.33</v>
+      </c>
+      <c r="U88">
+        <v>3.25</v>
+      </c>
+      <c r="V88">
+        <v>2.5</v>
+      </c>
+      <c r="W88">
+        <v>1.5</v>
+      </c>
+      <c r="X88">
+        <v>6.5</v>
+      </c>
+      <c r="Y88">
+        <v>1.11</v>
+      </c>
+      <c r="Z88">
+        <v>1.93</v>
+      </c>
+      <c r="AA88">
+        <v>3.41</v>
+      </c>
+      <c r="AB88">
+        <v>3.23</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>10</v>
+      </c>
+      <c r="AE88">
+        <v>1.25</v>
+      </c>
+      <c r="AF88">
+        <v>3.9</v>
+      </c>
+      <c r="AG88">
+        <v>1.78</v>
+      </c>
+      <c r="AH88">
+        <v>1.92</v>
+      </c>
+      <c r="AI88">
+        <v>1.62</v>
+      </c>
+      <c r="AJ88">
+        <v>2.2</v>
+      </c>
+      <c r="AK88">
+        <v>1.3</v>
+      </c>
+      <c r="AL88">
+        <v>1.28</v>
+      </c>
+      <c r="AM88">
+        <v>1.75</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>1.5</v>
+      </c>
+      <c r="AP88">
+        <v>1</v>
+      </c>
+      <c r="AQ88">
+        <v>1.4</v>
+      </c>
+      <c r="AR88">
+        <v>1.53</v>
+      </c>
+      <c r="AS88">
+        <v>1.85</v>
+      </c>
+      <c r="AT88">
+        <v>3.38</v>
+      </c>
+      <c r="AU88">
+        <v>6</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>9</v>
+      </c>
+      <c r="AX88">
+        <v>8</v>
+      </c>
+      <c r="AY88">
+        <v>16</v>
+      </c>
+      <c r="AZ88">
+        <v>13</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
+        <v>1</v>
+      </c>
+      <c r="BC88">
+        <v>8</v>
+      </c>
+      <c r="BD88">
+        <v>1.6</v>
+      </c>
+      <c r="BE88">
+        <v>7</v>
+      </c>
+      <c r="BF88">
+        <v>2.55</v>
+      </c>
+      <c r="BG88">
+        <v>1.19</v>
+      </c>
+      <c r="BH88">
+        <v>4.1</v>
+      </c>
+      <c r="BI88">
+        <v>1.33</v>
+      </c>
+      <c r="BJ88">
+        <v>2.95</v>
+      </c>
+      <c r="BK88">
+        <v>1.53</v>
+      </c>
+      <c r="BL88">
+        <v>2.3</v>
+      </c>
+      <c r="BM88">
+        <v>1.84</v>
+      </c>
+      <c r="BN88">
+        <v>1.84</v>
+      </c>
+      <c r="BO88">
+        <v>2.25</v>
+      </c>
+      <c r="BP88">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7779037</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45803.58333333334</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s">
+        <v>84</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>103</v>
+      </c>
+      <c r="P89" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q89">
+        <v>3.75</v>
+      </c>
+      <c r="R89">
+        <v>2.3</v>
+      </c>
+      <c r="S89">
+        <v>2.6</v>
+      </c>
+      <c r="T89">
+        <v>1.3</v>
+      </c>
+      <c r="U89">
+        <v>3.4</v>
+      </c>
+      <c r="V89">
+        <v>2.5</v>
+      </c>
+      <c r="W89">
+        <v>1.5</v>
+      </c>
+      <c r="X89">
+        <v>6</v>
+      </c>
+      <c r="Y89">
+        <v>1.13</v>
+      </c>
+      <c r="Z89">
+        <v>2.67</v>
+      </c>
+      <c r="AA89">
+        <v>3.32</v>
+      </c>
+      <c r="AB89">
+        <v>2.25</v>
+      </c>
+      <c r="AC89">
+        <v>1.04</v>
+      </c>
+      <c r="AD89">
+        <v>11</v>
+      </c>
+      <c r="AE89">
+        <v>1.2</v>
+      </c>
+      <c r="AF89">
+        <v>4.5</v>
+      </c>
+      <c r="AG89">
+        <v>1.55</v>
+      </c>
+      <c r="AH89">
+        <v>2.2</v>
+      </c>
+      <c r="AI89">
+        <v>1.62</v>
+      </c>
+      <c r="AJ89">
+        <v>2.2</v>
+      </c>
+      <c r="AK89">
+        <v>1.57</v>
+      </c>
+      <c r="AL89">
+        <v>1.27</v>
+      </c>
+      <c r="AM89">
+        <v>1.43</v>
+      </c>
+      <c r="AN89">
+        <v>1.2</v>
+      </c>
+      <c r="AO89">
+        <v>2.17</v>
+      </c>
+      <c r="AP89">
+        <v>1.17</v>
+      </c>
+      <c r="AQ89">
+        <v>2</v>
+      </c>
+      <c r="AR89">
+        <v>1.72</v>
+      </c>
+      <c r="AS89">
+        <v>1.6</v>
+      </c>
+      <c r="AT89">
+        <v>3.32</v>
+      </c>
+      <c r="AU89">
+        <v>6</v>
+      </c>
+      <c r="AV89">
+        <v>7</v>
+      </c>
+      <c r="AW89">
+        <v>12</v>
+      </c>
+      <c r="AX89">
+        <v>15</v>
+      </c>
+      <c r="AY89">
+        <v>20</v>
+      </c>
+      <c r="AZ89">
+        <v>22</v>
+      </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
+      <c r="BB89">
+        <v>8</v>
+      </c>
+      <c r="BC89">
+        <v>14</v>
+      </c>
+      <c r="BD89">
+        <v>2.05</v>
+      </c>
+      <c r="BE89">
+        <v>6.75</v>
+      </c>
+      <c r="BF89">
+        <v>1.9</v>
+      </c>
+      <c r="BG89">
+        <v>1.17</v>
+      </c>
+      <c r="BH89">
+        <v>4.3</v>
+      </c>
+      <c r="BI89">
+        <v>1.3</v>
+      </c>
+      <c r="BJ89">
+        <v>3.05</v>
+      </c>
+      <c r="BK89">
+        <v>1.5</v>
+      </c>
+      <c r="BL89">
+        <v>2.33</v>
+      </c>
+      <c r="BM89">
+        <v>1.81</v>
+      </c>
+      <c r="BN89">
+        <v>1.88</v>
+      </c>
+      <c r="BO89">
+        <v>2.23</v>
+      </c>
+      <c r="BP89">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7779033</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45803.59027777778</v>
+      </c>
+      <c r="F90">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s">
+        <v>83</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>149</v>
+      </c>
+      <c r="P90" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q90">
+        <v>1.83</v>
+      </c>
+      <c r="R90">
+        <v>2.5</v>
+      </c>
+      <c r="S90">
+        <v>7.5</v>
+      </c>
+      <c r="T90">
+        <v>1.3</v>
+      </c>
+      <c r="U90">
+        <v>3.4</v>
+      </c>
+      <c r="V90">
+        <v>2.38</v>
+      </c>
+      <c r="W90">
+        <v>1.53</v>
+      </c>
+      <c r="X90">
+        <v>6</v>
+      </c>
+      <c r="Y90">
+        <v>1.13</v>
+      </c>
+      <c r="Z90">
+        <v>1.45</v>
+      </c>
+      <c r="AA90">
+        <v>4</v>
+      </c>
+      <c r="AB90">
+        <v>5.5</v>
+      </c>
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
+        <v>11</v>
+      </c>
+      <c r="AE90">
+        <v>1.22</v>
+      </c>
+      <c r="AF90">
+        <v>4.33</v>
+      </c>
+      <c r="AG90">
+        <v>1.62</v>
+      </c>
+      <c r="AH90">
+        <v>2.15</v>
+      </c>
+      <c r="AI90">
+        <v>1.95</v>
+      </c>
+      <c r="AJ90">
+        <v>1.8</v>
+      </c>
+      <c r="AK90">
+        <v>1.12</v>
+      </c>
+      <c r="AL90">
+        <v>1.2</v>
+      </c>
+      <c r="AM90">
+        <v>2.55</v>
+      </c>
+      <c r="AN90">
+        <v>2.17</v>
+      </c>
+      <c r="AO90">
+        <v>1.8</v>
+      </c>
+      <c r="AP90">
+        <v>2.29</v>
+      </c>
+      <c r="AQ90">
+        <v>1.5</v>
+      </c>
+      <c r="AR90">
+        <v>2.14</v>
+      </c>
+      <c r="AS90">
+        <v>1.4</v>
+      </c>
+      <c r="AT90">
+        <v>3.54</v>
+      </c>
+      <c r="AU90">
+        <v>3</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>11</v>
+      </c>
+      <c r="AX90">
+        <v>10</v>
+      </c>
+      <c r="AY90">
+        <v>18</v>
+      </c>
+      <c r="AZ90">
+        <v>16</v>
+      </c>
+      <c r="BA90">
+        <v>4</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
+        <v>6</v>
+      </c>
+      <c r="BD90">
+        <v>1.34</v>
+      </c>
+      <c r="BE90">
+        <v>7.5</v>
+      </c>
+      <c r="BF90">
+        <v>3.55</v>
+      </c>
+      <c r="BG90">
+        <v>1.18</v>
+      </c>
+      <c r="BH90">
+        <v>4.1</v>
+      </c>
+      <c r="BI90">
+        <v>1.32</v>
+      </c>
+      <c r="BJ90">
+        <v>3.05</v>
+      </c>
+      <c r="BK90">
+        <v>1.52</v>
+      </c>
+      <c r="BL90">
+        <v>2.33</v>
+      </c>
+      <c r="BM90">
+        <v>1.81</v>
+      </c>
+      <c r="BN90">
+        <v>1.88</v>
+      </c>
+      <c r="BO90">
+        <v>2.23</v>
+      </c>
+      <c r="BP90">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -19258,10 +19258,10 @@
         <v>6</v>
       </c>
       <c r="BB89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC89">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD89">
         <v>2.05</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -603,6 +603,9 @@
   <si>
     <t>['44']</t>
   </si>
+  <si>
+    <t>['19']</t>
+  </si>
 </sst>
 </file>
 
@@ -963,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3157,7 +3160,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3772,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ14">
         <v>1.6</v>
@@ -5011,7 +5014,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR20">
         <v>2.25</v>
@@ -7274,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ31">
         <v>0.2</v>
@@ -12630,7 +12633,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ57">
         <v>0.8</v>
@@ -14075,7 +14078,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR64">
         <v>1.67</v>
@@ -17371,7 +17374,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR80">
         <v>1.63</v>
@@ -18810,7 +18813,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ87">
         <v>2.14</v>
@@ -19507,6 +19510,212 @@
       </c>
       <c r="BP90">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7778993</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45806.54166666666</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>82</v>
+      </c>
+      <c r="H91" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>86</v>
+      </c>
+      <c r="P91" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q91">
+        <v>3.4</v>
+      </c>
+      <c r="R91">
+        <v>2.25</v>
+      </c>
+      <c r="S91">
+        <v>3</v>
+      </c>
+      <c r="T91">
+        <v>1.33</v>
+      </c>
+      <c r="U91">
+        <v>3.25</v>
+      </c>
+      <c r="V91">
+        <v>2.63</v>
+      </c>
+      <c r="W91">
+        <v>1.44</v>
+      </c>
+      <c r="X91">
+        <v>7</v>
+      </c>
+      <c r="Y91">
+        <v>1.1</v>
+      </c>
+      <c r="Z91">
+        <v>2.42</v>
+      </c>
+      <c r="AA91">
+        <v>3.28</v>
+      </c>
+      <c r="AB91">
+        <v>2.49</v>
+      </c>
+      <c r="AC91">
+        <v>1.05</v>
+      </c>
+      <c r="AD91">
+        <v>10</v>
+      </c>
+      <c r="AE91">
+        <v>1.28</v>
+      </c>
+      <c r="AF91">
+        <v>3.75</v>
+      </c>
+      <c r="AG91">
+        <v>1.76</v>
+      </c>
+      <c r="AH91">
+        <v>1.94</v>
+      </c>
+      <c r="AI91">
+        <v>1.62</v>
+      </c>
+      <c r="AJ91">
+        <v>2.2</v>
+      </c>
+      <c r="AK91">
+        <v>1.57</v>
+      </c>
+      <c r="AL91">
+        <v>1.31</v>
+      </c>
+      <c r="AM91">
+        <v>1.38</v>
+      </c>
+      <c r="AN91">
+        <v>0.75</v>
+      </c>
+      <c r="AO91">
+        <v>1.5</v>
+      </c>
+      <c r="AP91">
+        <v>0.6</v>
+      </c>
+      <c r="AQ91">
+        <v>1.8</v>
+      </c>
+      <c r="AR91">
+        <v>1.72</v>
+      </c>
+      <c r="AS91">
+        <v>1.23</v>
+      </c>
+      <c r="AT91">
+        <v>2.95</v>
+      </c>
+      <c r="AU91">
+        <v>4</v>
+      </c>
+      <c r="AV91">
+        <v>2</v>
+      </c>
+      <c r="AW91">
+        <v>11</v>
+      </c>
+      <c r="AX91">
+        <v>7</v>
+      </c>
+      <c r="AY91">
+        <v>18</v>
+      </c>
+      <c r="AZ91">
+        <v>10</v>
+      </c>
+      <c r="BA91">
+        <v>6</v>
+      </c>
+      <c r="BB91">
+        <v>6</v>
+      </c>
+      <c r="BC91">
+        <v>12</v>
+      </c>
+      <c r="BD91">
+        <v>2.23</v>
+      </c>
+      <c r="BE91">
+        <v>6.75</v>
+      </c>
+      <c r="BF91">
+        <v>1.75</v>
+      </c>
+      <c r="BG91">
+        <v>1.24</v>
+      </c>
+      <c r="BH91">
+        <v>3.55</v>
+      </c>
+      <c r="BI91">
+        <v>1.42</v>
+      </c>
+      <c r="BJ91">
+        <v>2.65</v>
+      </c>
+      <c r="BK91">
+        <v>1.68</v>
+      </c>
+      <c r="BL91">
+        <v>2.05</v>
+      </c>
+      <c r="BM91">
+        <v>2.05</v>
+      </c>
+      <c r="BN91">
+        <v>1.68</v>
+      </c>
+      <c r="BO91">
+        <v>2.55</v>
+      </c>
+      <c r="BP91">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,9 @@
     <t>['61']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -605,6 +608,15 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['52', '82']</t>
+  </si>
+  <si>
+    <t>['8', '43']</t>
+  </si>
+  <si>
+    <t>['18', '74', '77']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1237,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1843,7 +1855,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1921,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2049,7 +2061,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2127,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2255,7 +2267,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2461,7 +2473,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2667,7 +2679,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3079,7 +3091,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3491,7 +3503,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3697,7 +3709,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3778,7 +3790,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ14">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3981,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ15">
         <v>0.2</v>
@@ -4109,7 +4121,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4190,7 +4202,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4315,7 +4327,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4521,7 +4533,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -4805,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -5139,7 +5151,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5551,7 +5563,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5838,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>0.88</v>
@@ -6169,7 +6181,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6250,7 +6262,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ26">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR26">
         <v>1.49</v>
@@ -6375,7 +6387,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6659,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
         <v>1.8</v>
@@ -6865,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>0.8</v>
@@ -7199,7 +7211,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7405,7 +7417,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7692,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR33">
         <v>1.7</v>
@@ -8023,7 +8035,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8101,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ35">
         <v>0.83</v>
@@ -8229,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8435,7 +8447,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8641,7 +8653,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8847,7 +8859,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8925,7 +8937,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>1.8</v>
@@ -9340,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.44</v>
@@ -9465,7 +9477,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9546,7 +9558,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR42">
         <v>1.86</v>
@@ -9671,7 +9683,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10083,7 +10095,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10576,7 +10588,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ47">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -10782,7 +10794,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>2.55</v>
@@ -10907,7 +10919,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10985,7 +10997,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ49">
         <v>0.83</v>
@@ -11113,7 +11125,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11525,7 +11537,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11603,7 +11615,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>1.4</v>
@@ -11731,7 +11743,7 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -11812,7 +11824,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR53">
         <v>1.36</v>
@@ -12143,7 +12155,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12427,10 +12439,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
         <v>1.76</v>
@@ -12761,7 +12773,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13173,7 +13185,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13791,7 +13803,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13869,7 +13881,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ63">
         <v>1.33</v>
@@ -13997,7 +14009,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14203,7 +14215,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14284,7 +14296,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR65">
         <v>1.28</v>
@@ -14409,7 +14421,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14615,7 +14627,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14821,7 +14833,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>5.25</v>
@@ -15027,7 +15039,7 @@
         <v>103</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>2.38</v>
@@ -15105,7 +15117,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15233,7 +15245,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>2.2</v>
@@ -15311,7 +15323,7 @@
         <v>1.75</v>
       </c>
       <c r="AP70">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ70">
         <v>1.17</v>
@@ -15439,7 +15451,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>2.95</v>
@@ -15726,7 +15738,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.65</v>
@@ -15932,7 +15944,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ73">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16263,7 +16275,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>3.95</v>
@@ -16344,7 +16356,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ75">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR75">
         <v>1.1</v>
@@ -16881,7 +16893,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17087,7 +17099,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17165,7 +17177,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ79">
         <v>1.8</v>
@@ -17371,7 +17383,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ80">
         <v>1.8</v>
@@ -17499,7 +17511,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -17911,7 +17923,7 @@
         <v>127</v>
       </c>
       <c r="P83" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q83">
         <v>2.45</v>
@@ -17992,7 +18004,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.49</v>
@@ -18117,7 +18129,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18529,7 +18541,7 @@
         <v>118</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q86">
         <v>4.75</v>
@@ -18735,7 +18747,7 @@
         <v>86</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19225,7 +19237,7 @@
         <v>2.17</v>
       </c>
       <c r="AP89">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ89">
         <v>2</v>
@@ -19559,7 +19571,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19716,6 +19728,624 @@
       </c>
       <c r="BP91">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7779041</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45808.41666666666</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>72</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>86</v>
+      </c>
+      <c r="P92" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q92">
+        <v>2.9</v>
+      </c>
+      <c r="R92">
+        <v>2.2</v>
+      </c>
+      <c r="S92">
+        <v>3.1</v>
+      </c>
+      <c r="T92">
+        <v>1.32</v>
+      </c>
+      <c r="U92">
+        <v>3.1</v>
+      </c>
+      <c r="V92">
+        <v>2.45</v>
+      </c>
+      <c r="W92">
+        <v>1.47</v>
+      </c>
+      <c r="X92">
+        <v>6</v>
+      </c>
+      <c r="Y92">
+        <v>1.11</v>
+      </c>
+      <c r="Z92">
+        <v>2.58</v>
+      </c>
+      <c r="AA92">
+        <v>3.37</v>
+      </c>
+      <c r="AB92">
+        <v>2.3</v>
+      </c>
+      <c r="AC92">
+        <v>1.05</v>
+      </c>
+      <c r="AD92">
+        <v>10</v>
+      </c>
+      <c r="AE92">
+        <v>1.25</v>
+      </c>
+      <c r="AF92">
+        <v>4</v>
+      </c>
+      <c r="AG92">
+        <v>1.73</v>
+      </c>
+      <c r="AH92">
+        <v>1.91</v>
+      </c>
+      <c r="AI92">
+        <v>1.58</v>
+      </c>
+      <c r="AJ92">
+        <v>2.2</v>
+      </c>
+      <c r="AK92">
+        <v>1.47</v>
+      </c>
+      <c r="AL92">
+        <v>1.27</v>
+      </c>
+      <c r="AM92">
+        <v>1.52</v>
+      </c>
+      <c r="AN92">
+        <v>2.67</v>
+      </c>
+      <c r="AO92">
+        <v>1.6</v>
+      </c>
+      <c r="AP92">
+        <v>2.29</v>
+      </c>
+      <c r="AQ92">
+        <v>1.83</v>
+      </c>
+      <c r="AR92">
+        <v>1.6</v>
+      </c>
+      <c r="AS92">
+        <v>1.86</v>
+      </c>
+      <c r="AT92">
+        <v>3.46</v>
+      </c>
+      <c r="AU92">
+        <v>3</v>
+      </c>
+      <c r="AV92">
+        <v>9</v>
+      </c>
+      <c r="AW92">
+        <v>9</v>
+      </c>
+      <c r="AX92">
+        <v>11</v>
+      </c>
+      <c r="AY92">
+        <v>12</v>
+      </c>
+      <c r="AZ92">
+        <v>27</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>7</v>
+      </c>
+      <c r="BD92">
+        <v>1.95</v>
+      </c>
+      <c r="BE92">
+        <v>7</v>
+      </c>
+      <c r="BF92">
+        <v>2</v>
+      </c>
+      <c r="BG92">
+        <v>1.17</v>
+      </c>
+      <c r="BH92">
+        <v>4.35</v>
+      </c>
+      <c r="BI92">
+        <v>1.3</v>
+      </c>
+      <c r="BJ92">
+        <v>3.05</v>
+      </c>
+      <c r="BK92">
+        <v>1.5</v>
+      </c>
+      <c r="BL92">
+        <v>2.35</v>
+      </c>
+      <c r="BM92">
+        <v>1.8</v>
+      </c>
+      <c r="BN92">
+        <v>1.9</v>
+      </c>
+      <c r="BO92">
+        <v>2.2</v>
+      </c>
+      <c r="BP92">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7779047</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45808.41666666666</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>83</v>
+      </c>
+      <c r="H93" t="s">
+        <v>80</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>150</v>
+      </c>
+      <c r="P93" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q93">
+        <v>2.75</v>
+      </c>
+      <c r="R93">
+        <v>2.1</v>
+      </c>
+      <c r="S93">
+        <v>4</v>
+      </c>
+      <c r="T93">
+        <v>1.4</v>
+      </c>
+      <c r="U93">
+        <v>2.75</v>
+      </c>
+      <c r="V93">
+        <v>3</v>
+      </c>
+      <c r="W93">
+        <v>1.36</v>
+      </c>
+      <c r="X93">
+        <v>8</v>
+      </c>
+      <c r="Y93">
+        <v>1.08</v>
+      </c>
+      <c r="Z93">
+        <v>1.81</v>
+      </c>
+      <c r="AA93">
+        <v>3.47</v>
+      </c>
+      <c r="AB93">
+        <v>3.61</v>
+      </c>
+      <c r="AC93">
+        <v>1.06</v>
+      </c>
+      <c r="AD93">
+        <v>9</v>
+      </c>
+      <c r="AE93">
+        <v>1.33</v>
+      </c>
+      <c r="AF93">
+        <v>3.3</v>
+      </c>
+      <c r="AG93">
+        <v>1.76</v>
+      </c>
+      <c r="AH93">
+        <v>1.94</v>
+      </c>
+      <c r="AI93">
+        <v>1.8</v>
+      </c>
+      <c r="AJ93">
+        <v>1.95</v>
+      </c>
+      <c r="AK93">
+        <v>1.3</v>
+      </c>
+      <c r="AL93">
+        <v>1.31</v>
+      </c>
+      <c r="AM93">
+        <v>1.7</v>
+      </c>
+      <c r="AN93">
+        <v>0.8</v>
+      </c>
+      <c r="AO93">
+        <v>0.67</v>
+      </c>
+      <c r="AP93">
+        <v>0.67</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1.6</v>
+      </c>
+      <c r="AS93">
+        <v>1.01</v>
+      </c>
+      <c r="AT93">
+        <v>2.61</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>5</v>
+      </c>
+      <c r="AW93">
+        <v>9</v>
+      </c>
+      <c r="AX93">
+        <v>3</v>
+      </c>
+      <c r="AY93">
+        <v>15</v>
+      </c>
+      <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
+        <v>4</v>
+      </c>
+      <c r="BB93">
+        <v>3</v>
+      </c>
+      <c r="BC93">
+        <v>7</v>
+      </c>
+      <c r="BD93">
+        <v>1.57</v>
+      </c>
+      <c r="BE93">
+        <v>7.5</v>
+      </c>
+      <c r="BF93">
+        <v>2.55</v>
+      </c>
+      <c r="BG93">
+        <v>1.1</v>
+      </c>
+      <c r="BH93">
+        <v>5.6</v>
+      </c>
+      <c r="BI93">
+        <v>1.2</v>
+      </c>
+      <c r="BJ93">
+        <v>4</v>
+      </c>
+      <c r="BK93">
+        <v>1.33</v>
+      </c>
+      <c r="BL93">
+        <v>2.95</v>
+      </c>
+      <c r="BM93">
+        <v>1.53</v>
+      </c>
+      <c r="BN93">
+        <v>2.3</v>
+      </c>
+      <c r="BO93">
+        <v>1.81</v>
+      </c>
+      <c r="BP93">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7779044</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45808.41666666666</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>74</v>
+      </c>
+      <c r="H94" t="s">
+        <v>77</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>86</v>
+      </c>
+      <c r="P94" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q94">
+        <v>3.25</v>
+      </c>
+      <c r="R94">
+        <v>2.15</v>
+      </c>
+      <c r="S94">
+        <v>2.85</v>
+      </c>
+      <c r="T94">
+        <v>1.35</v>
+      </c>
+      <c r="U94">
+        <v>2.95</v>
+      </c>
+      <c r="V94">
+        <v>2.6</v>
+      </c>
+      <c r="W94">
+        <v>1.43</v>
+      </c>
+      <c r="X94">
+        <v>6.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>2.38</v>
+      </c>
+      <c r="AA94">
+        <v>3.33</v>
+      </c>
+      <c r="AB94">
+        <v>2.51</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>10</v>
+      </c>
+      <c r="AE94">
+        <v>1.28</v>
+      </c>
+      <c r="AF94">
+        <v>3.75</v>
+      </c>
+      <c r="AG94">
+        <v>1.78</v>
+      </c>
+      <c r="AH94">
+        <v>1.92</v>
+      </c>
+      <c r="AI94">
+        <v>1.68</v>
+      </c>
+      <c r="AJ94">
+        <v>2.05</v>
+      </c>
+      <c r="AK94">
+        <v>1.57</v>
+      </c>
+      <c r="AL94">
+        <v>1.28</v>
+      </c>
+      <c r="AM94">
+        <v>1.42</v>
+      </c>
+      <c r="AN94">
+        <v>1.17</v>
+      </c>
+      <c r="AO94">
+        <v>1.17</v>
+      </c>
+      <c r="AP94">
+        <v>1</v>
+      </c>
+      <c r="AQ94">
+        <v>1.43</v>
+      </c>
+      <c r="AR94">
+        <v>1.73</v>
+      </c>
+      <c r="AS94">
+        <v>1.56</v>
+      </c>
+      <c r="AT94">
+        <v>3.29</v>
+      </c>
+      <c r="AU94">
+        <v>2</v>
+      </c>
+      <c r="AV94">
+        <v>6</v>
+      </c>
+      <c r="AW94">
+        <v>9</v>
+      </c>
+      <c r="AX94">
+        <v>17</v>
+      </c>
+      <c r="AY94">
+        <v>13</v>
+      </c>
+      <c r="AZ94">
+        <v>27</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>6</v>
+      </c>
+      <c r="BC94">
+        <v>10</v>
+      </c>
+      <c r="BD94">
+        <v>2.3</v>
+      </c>
+      <c r="BE94">
+        <v>6.75</v>
+      </c>
+      <c r="BF94">
+        <v>1.74</v>
+      </c>
+      <c r="BG94">
+        <v>1.16</v>
+      </c>
+      <c r="BH94">
+        <v>4.6</v>
+      </c>
+      <c r="BI94">
+        <v>1.28</v>
+      </c>
+      <c r="BJ94">
+        <v>3.3</v>
+      </c>
+      <c r="BK94">
+        <v>1.47</v>
+      </c>
+      <c r="BL94">
+        <v>2.48</v>
+      </c>
+      <c r="BM94">
+        <v>1.74</v>
+      </c>
+      <c r="BN94">
+        <v>1.97</v>
+      </c>
+      <c r="BO94">
+        <v>2.1</v>
+      </c>
+      <c r="BP94">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,12 @@
     <t>['18']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['9', '33', '85']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -617,6 +623,9 @@
   </si>
   <si>
     <t>['18', '74', '77']</t>
+  </si>
+  <si>
+    <t>['24', '42', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1246,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1730,7 +1739,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1855,7 +1864,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2061,7 +2070,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2267,7 +2276,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2345,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2473,7 +2482,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2679,7 +2688,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3091,7 +3100,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3172,7 +3181,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3378,7 +3387,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ12">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3503,7 +3512,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3709,7 +3718,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3787,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
         <v>1.83</v>
@@ -4121,7 +4130,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4327,7 +4336,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4405,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.8</v>
@@ -4533,7 +4542,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -5026,7 +5035,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>2.25</v>
@@ -5151,7 +5160,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5232,7 +5241,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.59</v>
@@ -5563,7 +5572,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5847,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6181,7 +6190,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6387,7 +6396,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6465,7 +6474,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0.83</v>
@@ -7211,7 +7220,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7289,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ31">
         <v>0.2</v>
@@ -7417,7 +7426,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -7498,7 +7507,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -8035,7 +8044,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8241,7 +8250,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8319,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8447,7 +8456,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8653,7 +8662,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8859,7 +8868,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8940,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -9477,7 +9486,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9683,7 +9692,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10095,7 +10104,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10791,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10919,7 +10928,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11125,7 +11134,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11203,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50">
         <v>0.2</v>
@@ -11537,7 +11546,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11618,7 +11627,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR52">
         <v>1.74</v>
@@ -11743,7 +11752,7 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12030,7 +12039,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.34</v>
@@ -12155,7 +12164,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12233,7 +12242,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>1.17</v>
@@ -12645,7 +12654,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ57">
         <v>0.8</v>
@@ -12773,7 +12782,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13060,7 +13069,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ59">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.46</v>
@@ -13185,7 +13194,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13803,7 +13812,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -14009,7 +14018,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14090,7 +14099,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>1.67</v>
@@ -14215,7 +14224,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14293,7 +14302,7 @@
         <v>0.75</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65">
         <v>1.43</v>
@@ -14421,7 +14430,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14627,7 +14636,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14833,7 +14842,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>5.25</v>
@@ -15039,7 +15048,7 @@
         <v>103</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>2.38</v>
@@ -15245,7 +15254,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>2.2</v>
@@ -15451,7 +15460,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.95</v>
@@ -16275,7 +16284,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>3.95</v>
@@ -16559,7 +16568,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>0.8</v>
@@ -16893,7 +16902,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17099,7 +17108,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17180,7 +17189,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ79">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR79">
         <v>1.62</v>
@@ -17386,7 +17395,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ80">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.63</v>
@@ -17511,7 +17520,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -17795,7 +17804,7 @@
         <v>2.2</v>
       </c>
       <c r="AP82">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>2.14</v>
@@ -17923,7 +17932,7 @@
         <v>127</v>
       </c>
       <c r="P83" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q83">
         <v>2.45</v>
@@ -18129,7 +18138,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18541,7 +18550,7 @@
         <v>118</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q86">
         <v>4.75</v>
@@ -18619,7 +18628,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ86">
         <v>1.8</v>
@@ -18747,7 +18756,7 @@
         <v>86</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18825,7 +18834,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ87">
         <v>2.14</v>
@@ -19034,7 +19043,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR88">
         <v>1.53</v>
@@ -19571,7 +19580,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19649,10 +19658,10 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ91">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.72</v>
@@ -19777,7 +19786,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q92">
         <v>2.9</v>
@@ -19983,7 +19992,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20189,7 +20198,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20346,6 +20355,624 @@
       </c>
       <c r="BP94">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7779046</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45809.375</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>75</v>
+      </c>
+      <c r="H95" t="s">
+        <v>70</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>151</v>
+      </c>
+      <c r="P95" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q95">
+        <v>4.2</v>
+      </c>
+      <c r="R95">
+        <v>2.15</v>
+      </c>
+      <c r="S95">
+        <v>2.4</v>
+      </c>
+      <c r="T95">
+        <v>1.36</v>
+      </c>
+      <c r="U95">
+        <v>2.88</v>
+      </c>
+      <c r="V95">
+        <v>2.65</v>
+      </c>
+      <c r="W95">
+        <v>1.42</v>
+      </c>
+      <c r="X95">
+        <v>7.4</v>
+      </c>
+      <c r="Y95">
+        <v>1.03</v>
+      </c>
+      <c r="Z95">
+        <v>3.52</v>
+      </c>
+      <c r="AA95">
+        <v>3.27</v>
+      </c>
+      <c r="AB95">
+        <v>1.89</v>
+      </c>
+      <c r="AC95">
+        <v>1.06</v>
+      </c>
+      <c r="AD95">
+        <v>9.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.3</v>
+      </c>
+      <c r="AF95">
+        <v>3.55</v>
+      </c>
+      <c r="AG95">
+        <v>2.05</v>
+      </c>
+      <c r="AH95">
+        <v>1.68</v>
+      </c>
+      <c r="AI95">
+        <v>1.73</v>
+      </c>
+      <c r="AJ95">
+        <v>1.95</v>
+      </c>
+      <c r="AK95">
+        <v>1.9</v>
+      </c>
+      <c r="AL95">
+        <v>1.22</v>
+      </c>
+      <c r="AM95">
+        <v>1.22</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
+        <v>1.8</v>
+      </c>
+      <c r="AP95">
+        <v>1.29</v>
+      </c>
+      <c r="AQ95">
+        <v>1.5</v>
+      </c>
+      <c r="AR95">
+        <v>1.29</v>
+      </c>
+      <c r="AS95">
+        <v>1.18</v>
+      </c>
+      <c r="AT95">
+        <v>2.47</v>
+      </c>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>9</v>
+      </c>
+      <c r="AX95">
+        <v>9</v>
+      </c>
+      <c r="AY95">
+        <v>14</v>
+      </c>
+      <c r="AZ95">
+        <v>13</v>
+      </c>
+      <c r="BA95">
+        <v>1</v>
+      </c>
+      <c r="BB95">
+        <v>5</v>
+      </c>
+      <c r="BC95">
+        <v>6</v>
+      </c>
+      <c r="BD95">
+        <v>2.8</v>
+      </c>
+      <c r="BE95">
+        <v>6.4</v>
+      </c>
+      <c r="BF95">
+        <v>1.54</v>
+      </c>
+      <c r="BG95">
+        <v>1.49</v>
+      </c>
+      <c r="BH95">
+        <v>2.4</v>
+      </c>
+      <c r="BI95">
+        <v>1.81</v>
+      </c>
+      <c r="BJ95">
+        <v>1.88</v>
+      </c>
+      <c r="BK95">
+        <v>2.3</v>
+      </c>
+      <c r="BL95">
+        <v>1.54</v>
+      </c>
+      <c r="BM95">
+        <v>2.95</v>
+      </c>
+      <c r="BN95">
+        <v>1.33</v>
+      </c>
+      <c r="BO95">
+        <v>3.95</v>
+      </c>
+      <c r="BP95">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7779042</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45809.375</v>
+      </c>
+      <c r="F96">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>85</v>
+      </c>
+      <c r="H96" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>3</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>152</v>
+      </c>
+      <c r="P96" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q96">
+        <v>1.95</v>
+      </c>
+      <c r="R96">
+        <v>2.45</v>
+      </c>
+      <c r="S96">
+        <v>5</v>
+      </c>
+      <c r="T96">
+        <v>1.25</v>
+      </c>
+      <c r="U96">
+        <v>3.55</v>
+      </c>
+      <c r="V96">
+        <v>2.2</v>
+      </c>
+      <c r="W96">
+        <v>1.6</v>
+      </c>
+      <c r="X96">
+        <v>4.9</v>
+      </c>
+      <c r="Y96">
+        <v>1.11</v>
+      </c>
+      <c r="Z96">
+        <v>1.44</v>
+      </c>
+      <c r="AA96">
+        <v>4.2</v>
+      </c>
+      <c r="AB96">
+        <v>5.4</v>
+      </c>
+      <c r="AC96">
+        <v>1.01</v>
+      </c>
+      <c r="AD96">
+        <v>13</v>
+      </c>
+      <c r="AE96">
+        <v>1.18</v>
+      </c>
+      <c r="AF96">
+        <v>5</v>
+      </c>
+      <c r="AG96">
+        <v>1.61</v>
+      </c>
+      <c r="AH96">
+        <v>2.23</v>
+      </c>
+      <c r="AI96">
+        <v>1.6</v>
+      </c>
+      <c r="AJ96">
+        <v>2.15</v>
+      </c>
+      <c r="AK96">
+        <v>1.14</v>
+      </c>
+      <c r="AL96">
+        <v>1.15</v>
+      </c>
+      <c r="AM96">
+        <v>2.45</v>
+      </c>
+      <c r="AN96">
+        <v>1.83</v>
+      </c>
+      <c r="AO96">
+        <v>1.4</v>
+      </c>
+      <c r="AP96">
+        <v>2</v>
+      </c>
+      <c r="AQ96">
+        <v>1.17</v>
+      </c>
+      <c r="AR96">
+        <v>2.35</v>
+      </c>
+      <c r="AS96">
+        <v>1.75</v>
+      </c>
+      <c r="AT96">
+        <v>4.1</v>
+      </c>
+      <c r="AU96">
+        <v>4</v>
+      </c>
+      <c r="AV96">
+        <v>2</v>
+      </c>
+      <c r="AW96">
+        <v>11</v>
+      </c>
+      <c r="AX96">
+        <v>5</v>
+      </c>
+      <c r="AY96">
+        <v>18</v>
+      </c>
+      <c r="AZ96">
+        <v>7</v>
+      </c>
+      <c r="BA96">
+        <v>8</v>
+      </c>
+      <c r="BB96">
+        <v>4</v>
+      </c>
+      <c r="BC96">
+        <v>12</v>
+      </c>
+      <c r="BD96">
+        <v>1.45</v>
+      </c>
+      <c r="BE96">
+        <v>7.5</v>
+      </c>
+      <c r="BF96">
+        <v>2.95</v>
+      </c>
+      <c r="BG96">
+        <v>1.15</v>
+      </c>
+      <c r="BH96">
+        <v>4.6</v>
+      </c>
+      <c r="BI96">
+        <v>1.27</v>
+      </c>
+      <c r="BJ96">
+        <v>3.3</v>
+      </c>
+      <c r="BK96">
+        <v>1.46</v>
+      </c>
+      <c r="BL96">
+        <v>2.5</v>
+      </c>
+      <c r="BM96">
+        <v>1.73</v>
+      </c>
+      <c r="BN96">
+        <v>1.98</v>
+      </c>
+      <c r="BO96">
+        <v>2.1</v>
+      </c>
+      <c r="BP96">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7779040</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45809.375</v>
+      </c>
+      <c r="F97">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>82</v>
+      </c>
+      <c r="H97" t="s">
+        <v>78</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>148</v>
+      </c>
+      <c r="P97" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q97">
+        <v>3.1</v>
+      </c>
+      <c r="R97">
+        <v>2.1</v>
+      </c>
+      <c r="S97">
+        <v>3.1</v>
+      </c>
+      <c r="T97">
+        <v>1.36</v>
+      </c>
+      <c r="U97">
+        <v>2.9</v>
+      </c>
+      <c r="V97">
+        <v>2.6</v>
+      </c>
+      <c r="W97">
+        <v>1.44</v>
+      </c>
+      <c r="X97">
+        <v>6.1</v>
+      </c>
+      <c r="Y97">
+        <v>1.06</v>
+      </c>
+      <c r="Z97">
+        <v>2.27</v>
+      </c>
+      <c r="AA97">
+        <v>3.45</v>
+      </c>
+      <c r="AB97">
+        <v>2.57</v>
+      </c>
+      <c r="AC97">
+        <v>1.05</v>
+      </c>
+      <c r="AD97">
+        <v>10</v>
+      </c>
+      <c r="AE97">
+        <v>1.25</v>
+      </c>
+      <c r="AF97">
+        <v>3.85</v>
+      </c>
+      <c r="AG97">
+        <v>1.66</v>
+      </c>
+      <c r="AH97">
+        <v>2.08</v>
+      </c>
+      <c r="AI97">
+        <v>1.6</v>
+      </c>
+      <c r="AJ97">
+        <v>2.15</v>
+      </c>
+      <c r="AK97">
+        <v>1.48</v>
+      </c>
+      <c r="AL97">
+        <v>1.25</v>
+      </c>
+      <c r="AM97">
+        <v>1.48</v>
+      </c>
+      <c r="AN97">
+        <v>0.6</v>
+      </c>
+      <c r="AO97">
+        <v>1.8</v>
+      </c>
+      <c r="AP97">
+        <v>0.5</v>
+      </c>
+      <c r="AQ97">
+        <v>2</v>
+      </c>
+      <c r="AR97">
+        <v>1.68</v>
+      </c>
+      <c r="AS97">
+        <v>1.24</v>
+      </c>
+      <c r="AT97">
+        <v>2.92</v>
+      </c>
+      <c r="AU97">
+        <v>3</v>
+      </c>
+      <c r="AV97">
+        <v>6</v>
+      </c>
+      <c r="AW97">
+        <v>9</v>
+      </c>
+      <c r="AX97">
+        <v>8</v>
+      </c>
+      <c r="AY97">
+        <v>13</v>
+      </c>
+      <c r="AZ97">
+        <v>16</v>
+      </c>
+      <c r="BA97">
+        <v>3</v>
+      </c>
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
+        <v>6</v>
+      </c>
+      <c r="BD97">
+        <v>2</v>
+      </c>
+      <c r="BE97">
+        <v>7</v>
+      </c>
+      <c r="BF97">
+        <v>1.93</v>
+      </c>
+      <c r="BG97">
+        <v>1.15</v>
+      </c>
+      <c r="BH97">
+        <v>4.6</v>
+      </c>
+      <c r="BI97">
+        <v>1.26</v>
+      </c>
+      <c r="BJ97">
+        <v>3.4</v>
+      </c>
+      <c r="BK97">
+        <v>1.44</v>
+      </c>
+      <c r="BL97">
+        <v>2.55</v>
+      </c>
+      <c r="BM97">
+        <v>1.7</v>
+      </c>
+      <c r="BN97">
+        <v>2.02</v>
+      </c>
+      <c r="BO97">
+        <v>2.07</v>
+      </c>
+      <c r="BP97">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,12 @@
     <t>['9', '33', '85']</t>
   </si>
   <si>
+    <t>['74', '90+1']</t>
+  </si>
+  <si>
+    <t>['7', '34', '65']</t>
+  </si>
+  <si>
     <t>['45+8']</t>
   </si>
   <si>
@@ -626,6 +632,9 @@
   </si>
   <si>
     <t>['24', '42', '90+8']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1255,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>3.5</v>
@@ -1864,7 +1873,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2070,7 +2079,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2276,7 +2285,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2482,7 +2491,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2688,7 +2697,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2769,7 +2778,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ9">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3100,7 +3109,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3178,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3512,7 +3521,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3718,7 +3727,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4005,7 +4014,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ15">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4130,7 +4139,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>2.55</v>
@@ -4208,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ16">
         <v>1.43</v>
@@ -4336,7 +4345,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4542,7 +4551,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>2.62</v>
@@ -5160,7 +5169,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5572,7 +5581,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>2.62</v>
@@ -5650,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ23">
         <v>1.17</v>
@@ -6190,7 +6199,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6268,7 +6277,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ26">
         <v>1.83</v>
@@ -6396,7 +6405,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -7095,7 +7104,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR30">
         <v>1.48</v>
@@ -7220,7 +7229,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7301,7 +7310,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ31">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR31">
         <v>1.47</v>
@@ -7426,7 +7435,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>2.88</v>
@@ -8044,7 +8053,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8250,7 +8259,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8456,7 +8465,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8662,7 +8671,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8743,7 +8752,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ38">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR38">
         <v>1.5</v>
@@ -8868,7 +8877,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9486,7 +9495,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>2.95</v>
@@ -9692,7 +9701,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9770,7 +9779,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10104,7 +10113,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10388,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ46">
         <v>0.8</v>
@@ -10928,7 +10937,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11134,7 +11143,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11215,7 +11224,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ50">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -11421,7 +11430,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR51">
         <v>1.87</v>
@@ -11546,7 +11555,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11752,7 +11761,7 @@
         <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12036,7 +12045,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12164,7 +12173,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12782,7 +12791,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12863,7 +12872,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ58">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR58">
         <v>1.92</v>
@@ -13066,7 +13075,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ59">
         <v>1.17</v>
@@ -13194,7 +13203,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13812,7 +13821,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -14018,7 +14027,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14224,7 +14233,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14430,7 +14439,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14636,7 +14645,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14717,7 +14726,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR67">
         <v>1.87</v>
@@ -14842,7 +14851,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>5.25</v>
@@ -15048,7 +15057,7 @@
         <v>103</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>2.38</v>
@@ -15254,7 +15263,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>2.2</v>
@@ -15460,7 +15469,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>2.95</v>
@@ -16159,7 +16168,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ74">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR74">
         <v>1.9</v>
@@ -16284,7 +16293,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>3.95</v>
@@ -16774,7 +16783,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ77">
         <v>1.17</v>
@@ -16902,7 +16911,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -16980,7 +16989,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ78">
         <v>1.4</v>
@@ -17108,7 +17117,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17520,7 +17529,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -17807,7 +17816,7 @@
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR82">
         <v>2.4</v>
@@ -17932,7 +17941,7 @@
         <v>127</v>
       </c>
       <c r="P83" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q83">
         <v>2.45</v>
@@ -18138,7 +18147,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18550,7 +18559,7 @@
         <v>118</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>4.75</v>
@@ -18756,7 +18765,7 @@
         <v>86</v>
       </c>
       <c r="P87" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18837,7 +18846,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ87">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -19580,7 +19589,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19786,7 +19795,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q92">
         <v>2.9</v>
@@ -19992,7 +20001,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20198,7 +20207,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20816,7 +20825,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -20973,6 +20982,418 @@
       </c>
       <c r="BP97">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7779043</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45809.47916666666</v>
+      </c>
+      <c r="F98">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>84</v>
+      </c>
+      <c r="H98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>153</v>
+      </c>
+      <c r="P98" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q98">
+        <v>1.95</v>
+      </c>
+      <c r="R98">
+        <v>2.38</v>
+      </c>
+      <c r="S98">
+        <v>5.5</v>
+      </c>
+      <c r="T98">
+        <v>1.3</v>
+      </c>
+      <c r="U98">
+        <v>3.2</v>
+      </c>
+      <c r="V98">
+        <v>2.45</v>
+      </c>
+      <c r="W98">
+        <v>1.48</v>
+      </c>
+      <c r="X98">
+        <v>6.1</v>
+      </c>
+      <c r="Y98">
+        <v>1.06</v>
+      </c>
+      <c r="Z98">
+        <v>1.5</v>
+      </c>
+      <c r="AA98">
+        <v>3.86</v>
+      </c>
+      <c r="AB98">
+        <v>5.1</v>
+      </c>
+      <c r="AC98">
+        <v>1.04</v>
+      </c>
+      <c r="AD98">
+        <v>11</v>
+      </c>
+      <c r="AE98">
+        <v>1.22</v>
+      </c>
+      <c r="AF98">
+        <v>4.2</v>
+      </c>
+      <c r="AG98">
+        <v>1.76</v>
+      </c>
+      <c r="AH98">
+        <v>1.94</v>
+      </c>
+      <c r="AI98">
+        <v>1.8</v>
+      </c>
+      <c r="AJ98">
+        <v>1.85</v>
+      </c>
+      <c r="AK98">
+        <v>1.12</v>
+      </c>
+      <c r="AL98">
+        <v>1.17</v>
+      </c>
+      <c r="AM98">
+        <v>2.5</v>
+      </c>
+      <c r="AN98">
+        <v>2.6</v>
+      </c>
+      <c r="AO98">
+        <v>0.2</v>
+      </c>
+      <c r="AP98">
+        <v>2.67</v>
+      </c>
+      <c r="AQ98">
+        <v>0.17</v>
+      </c>
+      <c r="AR98">
+        <v>1.34</v>
+      </c>
+      <c r="AS98">
+        <v>1.58</v>
+      </c>
+      <c r="AT98">
+        <v>2.92</v>
+      </c>
+      <c r="AU98">
+        <v>9</v>
+      </c>
+      <c r="AV98">
+        <v>2</v>
+      </c>
+      <c r="AW98">
+        <v>10</v>
+      </c>
+      <c r="AX98">
+        <v>18</v>
+      </c>
+      <c r="AY98">
+        <v>21</v>
+      </c>
+      <c r="AZ98">
+        <v>25</v>
+      </c>
+      <c r="BA98">
+        <v>6</v>
+      </c>
+      <c r="BB98">
+        <v>4</v>
+      </c>
+      <c r="BC98">
+        <v>10</v>
+      </c>
+      <c r="BD98">
+        <v>1.48</v>
+      </c>
+      <c r="BE98">
+        <v>7.5</v>
+      </c>
+      <c r="BF98">
+        <v>2.9</v>
+      </c>
+      <c r="BG98">
+        <v>1.17</v>
+      </c>
+      <c r="BH98">
+        <v>4.35</v>
+      </c>
+      <c r="BI98">
+        <v>1.29</v>
+      </c>
+      <c r="BJ98">
+        <v>3.15</v>
+      </c>
+      <c r="BK98">
+        <v>1.49</v>
+      </c>
+      <c r="BL98">
+        <v>2.4</v>
+      </c>
+      <c r="BM98">
+        <v>1.77</v>
+      </c>
+      <c r="BN98">
+        <v>1.93</v>
+      </c>
+      <c r="BO98">
+        <v>2.17</v>
+      </c>
+      <c r="BP98">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7779045</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45809.47916666666</v>
+      </c>
+      <c r="F99">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>4</v>
+      </c>
+      <c r="O99" t="s">
+        <v>154</v>
+      </c>
+      <c r="P99" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q99">
+        <v>3.45</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>3</v>
+      </c>
+      <c r="T99">
+        <v>1.42</v>
+      </c>
+      <c r="U99">
+        <v>2.62</v>
+      </c>
+      <c r="V99">
+        <v>2.95</v>
+      </c>
+      <c r="W99">
+        <v>1.35</v>
+      </c>
+      <c r="X99">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y99">
+        <v>1.01</v>
+      </c>
+      <c r="Z99">
+        <v>2.87</v>
+      </c>
+      <c r="AA99">
+        <v>3.1</v>
+      </c>
+      <c r="AB99">
+        <v>2.23</v>
+      </c>
+      <c r="AC99">
+        <v>1.07</v>
+      </c>
+      <c r="AD99">
+        <v>8.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.38</v>
+      </c>
+      <c r="AF99">
+        <v>3.1</v>
+      </c>
+      <c r="AG99">
+        <v>2</v>
+      </c>
+      <c r="AH99">
+        <v>1.65</v>
+      </c>
+      <c r="AI99">
+        <v>1.8</v>
+      </c>
+      <c r="AJ99">
+        <v>1.85</v>
+      </c>
+      <c r="AK99">
+        <v>1.55</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.38</v>
+      </c>
+      <c r="AN99">
+        <v>0.8</v>
+      </c>
+      <c r="AO99">
+        <v>2.14</v>
+      </c>
+      <c r="AP99">
+        <v>1.17</v>
+      </c>
+      <c r="AQ99">
+        <v>1.88</v>
+      </c>
+      <c r="AR99">
+        <v>1.73</v>
+      </c>
+      <c r="AS99">
+        <v>1.2</v>
+      </c>
+      <c r="AT99">
+        <v>2.93</v>
+      </c>
+      <c r="AU99">
+        <v>5</v>
+      </c>
+      <c r="AV99">
+        <v>6</v>
+      </c>
+      <c r="AW99">
+        <v>4</v>
+      </c>
+      <c r="AX99">
+        <v>10</v>
+      </c>
+      <c r="AY99">
+        <v>9</v>
+      </c>
+      <c r="AZ99">
+        <v>17</v>
+      </c>
+      <c r="BA99">
+        <v>1</v>
+      </c>
+      <c r="BB99">
+        <v>9</v>
+      </c>
+      <c r="BC99">
+        <v>10</v>
+      </c>
+      <c r="BD99">
+        <v>2.15</v>
+      </c>
+      <c r="BE99">
+        <v>6.75</v>
+      </c>
+      <c r="BF99">
+        <v>1.82</v>
+      </c>
+      <c r="BG99">
+        <v>1.2</v>
+      </c>
+      <c r="BH99">
+        <v>3.95</v>
+      </c>
+      <c r="BI99">
+        <v>1.34</v>
+      </c>
+      <c r="BJ99">
+        <v>2.9</v>
+      </c>
+      <c r="BK99">
+        <v>1.57</v>
+      </c>
+      <c r="BL99">
+        <v>2.23</v>
+      </c>
+      <c r="BM99">
+        <v>1.91</v>
+      </c>
+      <c r="BN99">
+        <v>1.79</v>
+      </c>
+      <c r="BO99">
+        <v>2.4</v>
+      </c>
+      <c r="BP99">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Sweden Allsvenskan_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,7 +475,7 @@
     <t>['9', '33', '85']</t>
   </si>
   <si>
-    <t>['74', '90+1']</t>
+    <t>['74', '9001']</t>
   </si>
   <si>
     <t>['7', '34', '65']</t>
@@ -625,13 +625,10 @@
     <t>['52', '82']</t>
   </si>
   <si>
-    <t>['8', '43']</t>
-  </si>
-  <si>
     <t>['18', '74', '77']</t>
   </si>
   <si>
-    <t>['24', '42', '90+8']</t>
+    <t>['24', '42', '9008']</t>
   </si>
   <si>
     <t>['57']</t>
@@ -1360,10 +1357,10 @@
         <v>7</v>
       </c>
       <c r="AY2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AZ2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA2">
         <v>7</v>
@@ -1566,10 +1563,10 @@
         <v>9</v>
       </c>
       <c r="AY3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA3">
         <v>7</v>
@@ -1775,7 +1772,7 @@
         <v>19</v>
       </c>
       <c r="AZ4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA4">
         <v>8</v>
@@ -1978,10 +1975,10 @@
         <v>5</v>
       </c>
       <c r="AY5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA5">
         <v>7</v>
@@ -2160,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2184,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="AY6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ6">
         <v>8</v>
@@ -2390,7 +2387,7 @@
         <v>7</v>
       </c>
       <c r="AY7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ7">
         <v>18</v>
@@ -2596,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="AY8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ8">
         <v>7</v>
@@ -2802,10 +2799,10 @@
         <v>6</v>
       </c>
       <c r="AY9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA9">
         <v>4</v>
@@ -3217,7 +3214,7 @@
         <v>11</v>
       </c>
       <c r="AZ11">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BA11">
         <v>3</v>
@@ -3420,10 +3417,10 @@
         <v>12</v>
       </c>
       <c r="AY12">
+        <v>13</v>
+      </c>
+      <c r="AZ12">
         <v>16</v>
-      </c>
-      <c r="AZ12">
-        <v>23</v>
       </c>
       <c r="BA12">
         <v>2</v>
@@ -3832,10 +3829,10 @@
         <v>12</v>
       </c>
       <c r="AY14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ14">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BA14">
         <v>5</v>
@@ -4011,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ15">
         <v>0.17</v>
@@ -4041,7 +4038,7 @@
         <v>8</v>
       </c>
       <c r="AZ15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA15">
         <v>2</v>
@@ -4247,7 +4244,7 @@
         <v>14</v>
       </c>
       <c r="AZ16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA16">
         <v>6</v>
@@ -4450,7 +4447,7 @@
         <v>6</v>
       </c>
       <c r="AY17">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AZ17">
         <v>8</v>
@@ -4656,10 +4653,10 @@
         <v>4</v>
       </c>
       <c r="AY18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA18">
         <v>4</v>
@@ -4862,10 +4859,10 @@
         <v>9</v>
       </c>
       <c r="AY19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA19">
         <v>6</v>
@@ -5274,10 +5271,10 @@
         <v>6</v>
       </c>
       <c r="AY21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA21">
         <v>4</v>
@@ -5686,10 +5683,10 @@
         <v>15</v>
       </c>
       <c r="AY23">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ23">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA23">
         <v>6</v>
@@ -5868,7 +5865,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR24">
         <v>0.88</v>
@@ -5892,10 +5889,10 @@
         <v>5</v>
       </c>
       <c r="AY24">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AZ24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24">
         <v>9</v>
@@ -6098,10 +6095,10 @@
         <v>10</v>
       </c>
       <c r="AY25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA25">
         <v>5</v>
@@ -6304,10 +6301,10 @@
         <v>9</v>
       </c>
       <c r="AY26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ26">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA26">
         <v>3</v>
@@ -6510,10 +6507,10 @@
         <v>5</v>
       </c>
       <c r="AY27">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AZ27">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA27">
         <v>9</v>
@@ -6689,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ28">
         <v>1.8</v>
@@ -6716,10 +6713,10 @@
         <v>10</v>
       </c>
       <c r="AY28">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ28">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA28">
         <v>5</v>
@@ -6922,10 +6919,10 @@
         <v>6</v>
       </c>
       <c r="AY29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA29">
         <v>8</v>
@@ -7128,10 +7125,10 @@
         <v>9</v>
       </c>
       <c r="AY30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA30">
         <v>10</v>
@@ -7334,10 +7331,10 @@
         <v>13</v>
       </c>
       <c r="AY31">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ31">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA31">
         <v>11</v>
@@ -7540,10 +7537,10 @@
         <v>4</v>
       </c>
       <c r="AY32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA32">
         <v>11</v>
@@ -8158,10 +8155,10 @@
         <v>6</v>
       </c>
       <c r="AY35">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA35">
         <v>7</v>
@@ -8367,7 +8364,7 @@
         <v>6</v>
       </c>
       <c r="AZ36">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA36">
         <v>1</v>
@@ -8776,10 +8773,10 @@
         <v>7</v>
       </c>
       <c r="AY38">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AZ38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA38">
         <v>7</v>
@@ -8982,10 +8979,10 @@
         <v>13</v>
       </c>
       <c r="AY39">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ39">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA39">
         <v>5</v>
@@ -9188,10 +9185,10 @@
         <v>5</v>
       </c>
       <c r="AY40">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AZ40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA40">
         <v>12</v>
@@ -9370,7 +9367,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR41">
         <v>1.44</v>
@@ -9394,10 +9391,10 @@
         <v>6</v>
       </c>
       <c r="AY41">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AZ41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA41">
         <v>15</v>
@@ -9600,10 +9597,10 @@
         <v>16</v>
       </c>
       <c r="AY42">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ42">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BA42">
         <v>6</v>
@@ -10012,10 +10009,10 @@
         <v>7</v>
       </c>
       <c r="AY44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ44">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA44">
         <v>2</v>
@@ -10218,10 +10215,10 @@
         <v>5</v>
       </c>
       <c r="AY45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ45">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA45">
         <v>13</v>
@@ -10424,10 +10421,10 @@
         <v>6</v>
       </c>
       <c r="AY46">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ46">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA46">
         <v>8</v>
@@ -10630,7 +10627,7 @@
         <v>8</v>
       </c>
       <c r="AY47">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ47">
         <v>15</v>
@@ -10812,7 +10809,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR48">
         <v>2.55</v>
@@ -10836,10 +10833,10 @@
         <v>6</v>
       </c>
       <c r="AY48">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ48">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA48">
         <v>7</v>
@@ -11015,7 +11012,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ49">
         <v>0.83</v>
@@ -11045,7 +11042,7 @@
         <v>20</v>
       </c>
       <c r="AZ49">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA49">
         <v>5</v>
@@ -11248,10 +11245,10 @@
         <v>8</v>
       </c>
       <c r="AY50">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ50">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA50">
         <v>2</v>
@@ -11454,10 +11451,10 @@
         <v>16</v>
       </c>
       <c r="AY51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ51">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BA51">
         <v>4</v>
@@ -11660,10 +11657,10 @@
         <v>9</v>
       </c>
       <c r="AY52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ52">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA52">
         <v>11</v>
@@ -11866,10 +11863,10 @@
         <v>9</v>
       </c>
       <c r="AY53">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ53">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="BA53">
         <v>3</v>
@@ -12072,10 +12069,10 @@
         <v>4</v>
       </c>
       <c r="AY54">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ54">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA54">
         <v>1</v>
@@ -12278,10 +12275,10 @@
         <v>7</v>
       </c>
       <c r="AY55">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AZ55">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA55">
         <v>7</v>
@@ -12484,10 +12481,10 @@
         <v>18</v>
       </c>
       <c r="AY56">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ56">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BA56">
         <v>6</v>
@@ -12690,10 +12687,10 @@
         <v>2</v>
       </c>
       <c r="AY57">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA57">
         <v>8</v>
@@ -12896,10 +12893,10 @@
         <v>10</v>
       </c>
       <c r="AY58">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ58">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA58">
         <v>6</v>
@@ -13102,10 +13099,10 @@
         <v>9</v>
       </c>
       <c r="AY59">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ59">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA59">
         <v>5</v>
@@ -13311,7 +13308,7 @@
         <v>10</v>
       </c>
       <c r="AZ60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA60">
         <v>7</v>
@@ -13514,10 +13511,10 @@
         <v>7</v>
       </c>
       <c r="AY61">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AZ61">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA61">
         <v>7</v>
@@ -13720,10 +13717,10 @@
         <v>15</v>
       </c>
       <c r="AY62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ62">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="BA62">
         <v>9</v>
@@ -13899,7 +13896,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ63">
         <v>1.33</v>
@@ -13929,7 +13926,7 @@
         <v>18</v>
       </c>
       <c r="AZ63">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BA63">
         <v>4</v>
@@ -14132,7 +14129,7 @@
         <v>2</v>
       </c>
       <c r="AY64">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ64">
         <v>7</v>
@@ -14338,7 +14335,7 @@
         <v>8</v>
       </c>
       <c r="AY65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ65">
         <v>16</v>
@@ -14544,7 +14541,7 @@
         <v>5</v>
       </c>
       <c r="AY66">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ66">
         <v>10</v>
@@ -14750,7 +14747,7 @@
         <v>2</v>
       </c>
       <c r="AY67">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ67">
         <v>8</v>
@@ -14956,10 +14953,10 @@
         <v>13</v>
       </c>
       <c r="AY68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ68">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA68">
         <v>4</v>
@@ -15162,7 +15159,7 @@
         <v>6</v>
       </c>
       <c r="AY69">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ69">
         <v>11</v>
@@ -15368,10 +15365,10 @@
         <v>9</v>
       </c>
       <c r="AY70">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ70">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA70">
         <v>2</v>
@@ -15574,10 +15571,10 @@
         <v>12</v>
       </c>
       <c r="AY71">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ71">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BA71">
         <v>8</v>
@@ -15756,7 +15753,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR72">
         <v>1.65</v>
@@ -15780,10 +15777,10 @@
         <v>4</v>
       </c>
       <c r="AY72">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA72">
         <v>7</v>
@@ -15986,10 +15983,10 @@
         <v>7</v>
       </c>
       <c r="AY73">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA73">
         <v>7</v>
@@ -16192,10 +16189,10 @@
         <v>4</v>
       </c>
       <c r="AY74">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA74">
         <v>5</v>
@@ -16604,10 +16601,10 @@
         <v>5</v>
       </c>
       <c r="AY76">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ76">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA76">
         <v>8</v>
@@ -16813,7 +16810,7 @@
         <v>11</v>
       </c>
       <c r="AZ77">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA77">
         <v>4</v>
@@ -17016,10 +17013,10 @@
         <v>3</v>
       </c>
       <c r="AY78">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ78">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA78">
         <v>14</v>
@@ -17195,7 +17192,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ79">
         <v>2</v>
@@ -17222,10 +17219,10 @@
         <v>7</v>
       </c>
       <c r="AY79">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA79">
         <v>5</v>
@@ -17428,7 +17425,7 @@
         <v>4</v>
       </c>
       <c r="AY80">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ80">
         <v>6</v>
@@ -17634,7 +17631,7 @@
         <v>3</v>
       </c>
       <c r="AY81">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AZ81">
         <v>10</v>
@@ -17840,10 +17837,10 @@
         <v>9</v>
       </c>
       <c r="AY82">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AZ82">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA82">
         <v>9</v>
@@ -18022,7 +18019,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR83">
         <v>1.49</v>
@@ -18046,10 +18043,10 @@
         <v>8</v>
       </c>
       <c r="AY83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ83">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA83">
         <v>6</v>
@@ -18252,10 +18249,10 @@
         <v>5</v>
       </c>
       <c r="AY84">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AZ84">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA84">
         <v>9</v>
@@ -18664,10 +18661,10 @@
         <v>5</v>
       </c>
       <c r="AY86">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ86">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA86">
         <v>3</v>
@@ -18870,10 +18867,10 @@
         <v>9</v>
       </c>
       <c r="AY87">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ87">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA87">
         <v>7</v>
@@ -19076,10 +19073,10 @@
         <v>8</v>
       </c>
       <c r="AY88">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ88">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA88">
         <v>7</v>
@@ -19282,7 +19279,7 @@
         <v>15</v>
       </c>
       <c r="AY89">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ89">
         <v>22</v>
@@ -19488,10 +19485,10 @@
         <v>10</v>
       </c>
       <c r="AY90">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ90">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA90">
         <v>4</v>
@@ -19688,16 +19685,16 @@
         <v>2</v>
       </c>
       <c r="AW91">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX91">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY91">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AZ91">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA91">
         <v>6</v>
@@ -19891,19 +19888,19 @@
         <v>3</v>
       </c>
       <c r="AV92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW92">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
         <v>11</v>
       </c>
-      <c r="AY92">
-        <v>12</v>
-      </c>
       <c r="AZ92">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="BA92">
         <v>3</v>
@@ -19983,25 +19980,25 @@
         <v>1</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O93" t="s">
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20079,10 +20076,10 @@
         <v>0.67</v>
       </c>
       <c r="AP93">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20097,19 +20094,19 @@
         <v>5</v>
       </c>
       <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>6</v>
+      </c>
+      <c r="AX93">
+        <v>1</v>
+      </c>
+      <c r="AY93">
+        <v>11</v>
+      </c>
+      <c r="AZ93">
         <v>5</v>
-      </c>
-      <c r="AW93">
-        <v>9</v>
-      </c>
-      <c r="AX93">
-        <v>3</v>
-      </c>
-      <c r="AY93">
-        <v>15</v>
-      </c>
-      <c r="AZ93">
-        <v>9</v>
       </c>
       <c r="BA93">
         <v>4</v>
@@ -20207,7 +20204,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20306,16 +20303,16 @@
         <v>6</v>
       </c>
       <c r="AW94">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX94">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AY94">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ94">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="BA94">
         <v>4</v>
@@ -20500,28 +20497,28 @@
         <v>1.29</v>
       </c>
       <c r="AS95">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AT95">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="AU95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AY95">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ95">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BA95">
         <v>1</v>
@@ -20712,22 +20709,22 @@
         <v>4.1</v>
       </c>
       <c r="AU96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV96">
         <v>2</v>
       </c>
       <c r="AW96">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY96">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ96">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA96">
         <v>8</v>
@@ -20825,7 +20822,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -20909,13 +20906,13 @@
         <v>2</v>
       </c>
       <c r="AR97">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AS97">
         <v>1.24</v>
       </c>
       <c r="AT97">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="AU97">
         <v>3</v>
@@ -20924,16 +20921,16 @@
         <v>6</v>
       </c>
       <c r="AW97">
+        <v>6</v>
+      </c>
+      <c r="AX97">
+        <v>6</v>
+      </c>
+      <c r="AY97">
         <v>9</v>
       </c>
-      <c r="AX97">
-        <v>8</v>
-      </c>
-      <c r="AY97">
-        <v>13</v>
-      </c>
       <c r="AZ97">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA97">
         <v>3</v>
@@ -21124,22 +21121,22 @@
         <v>2.92</v>
       </c>
       <c r="AU98">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW98">
+        <v>5</v>
+      </c>
+      <c r="AX98">
         <v>10</v>
       </c>
-      <c r="AX98">
-        <v>18</v>
-      </c>
       <c r="AY98">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ98">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="BA98">
         <v>6</v>
@@ -21237,7 +21234,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q99">
         <v>3.45</v>
@@ -21333,19 +21330,19 @@
         <v>5</v>
       </c>
       <c r="AV99">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW99">
         <v>4</v>
       </c>
       <c r="AX99">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AY99">
         <v>9</v>
       </c>
       <c r="AZ99">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BA99">
         <v>1</v>
